--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="138">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -355,6 +355,12 @@
     <t>['72']</t>
   </si>
   <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['50']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -382,9 +388,6 @@
     <t>['84']</t>
   </si>
   <si>
-    <t>['64']</t>
-  </si>
-  <si>
     <t>['29', '56', '79']</t>
   </si>
   <si>
@@ -422,6 +425,9 @@
   </si>
   <si>
     <t>['19', '39']</t>
+  </si>
+  <si>
+    <t>['1']</t>
   </si>
 </sst>
 </file>
@@ -783,7 +789,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP34"/>
+  <dimension ref="A1:BP38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1042,7 +1048,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1120,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ2">
         <v>0.5</v>
@@ -1248,7 +1254,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1454,7 +1460,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -1535,7 +1541,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ4">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1660,7 +1666,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1738,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
         <v>3</v>
@@ -1866,7 +1872,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q6">
         <v>3.41</v>
@@ -1944,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ6">
         <v>0.5</v>
@@ -2072,7 +2078,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2278,7 +2284,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2484,7 +2490,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2690,7 +2696,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q10">
         <v>3.18</v>
@@ -3183,7 +3189,7 @@
         <v>3</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3514,7 +3520,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="Q14">
         <v>3.28</v>
@@ -3926,7 +3932,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4004,10 +4010,10 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ16">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR16">
         <v>1.34</v>
@@ -4132,7 +4138,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4213,7 +4219,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR17">
         <v>1.17</v>
@@ -4338,7 +4344,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -4419,7 +4425,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ18">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR18">
         <v>1.29</v>
@@ -4828,7 +4834,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ20">
         <v>0.5</v>
@@ -4956,7 +4962,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5162,7 +5168,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5368,7 +5374,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5446,7 +5452,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ23">
         <v>3</v>
@@ -5574,7 +5580,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -5780,7 +5786,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6192,7 +6198,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6398,7 +6404,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6604,7 +6610,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7222,7 +7228,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7634,7 +7640,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -7791,6 +7797,830 @@
       </c>
       <c r="BP34">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7343684</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45374.5625</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>83</v>
+      </c>
+      <c r="H35" t="s">
+        <v>72</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="O35" t="s">
+        <v>89</v>
+      </c>
+      <c r="P35" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q35">
+        <v>3.4</v>
+      </c>
+      <c r="R35">
+        <v>1.95</v>
+      </c>
+      <c r="S35">
+        <v>3.6</v>
+      </c>
+      <c r="T35">
+        <v>1.5</v>
+      </c>
+      <c r="U35">
+        <v>2.5</v>
+      </c>
+      <c r="V35">
+        <v>3.4</v>
+      </c>
+      <c r="W35">
+        <v>1.3</v>
+      </c>
+      <c r="X35">
+        <v>10</v>
+      </c>
+      <c r="Y35">
+        <v>1.06</v>
+      </c>
+      <c r="Z35">
+        <v>2.82</v>
+      </c>
+      <c r="AA35">
+        <v>3.29</v>
+      </c>
+      <c r="AB35">
+        <v>2.44</v>
+      </c>
+      <c r="AC35">
+        <v>1.08</v>
+      </c>
+      <c r="AD35">
+        <v>6.5</v>
+      </c>
+      <c r="AE35">
+        <v>1.4</v>
+      </c>
+      <c r="AF35">
+        <v>2.8</v>
+      </c>
+      <c r="AG35">
+        <v>2.03</v>
+      </c>
+      <c r="AH35">
+        <v>1.7</v>
+      </c>
+      <c r="AI35">
+        <v>1.91</v>
+      </c>
+      <c r="AJ35">
+        <v>1.8</v>
+      </c>
+      <c r="AK35">
+        <v>1.41</v>
+      </c>
+      <c r="AL35">
+        <v>1.32</v>
+      </c>
+      <c r="AM35">
+        <v>1.45</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>0.5</v>
+      </c>
+      <c r="AQ35">
+        <v>0.5</v>
+      </c>
+      <c r="AR35">
+        <v>0.51</v>
+      </c>
+      <c r="AS35">
+        <v>0.42</v>
+      </c>
+      <c r="AT35">
+        <v>0.93</v>
+      </c>
+      <c r="AU35">
+        <v>4</v>
+      </c>
+      <c r="AV35">
+        <v>6</v>
+      </c>
+      <c r="AW35">
+        <v>1</v>
+      </c>
+      <c r="AX35">
+        <v>7</v>
+      </c>
+      <c r="AY35">
+        <v>5</v>
+      </c>
+      <c r="AZ35">
+        <v>13</v>
+      </c>
+      <c r="BA35">
+        <v>9</v>
+      </c>
+      <c r="BB35">
+        <v>7</v>
+      </c>
+      <c r="BC35">
+        <v>16</v>
+      </c>
+      <c r="BD35">
+        <v>1.83</v>
+      </c>
+      <c r="BE35">
+        <v>8</v>
+      </c>
+      <c r="BF35">
+        <v>2.25</v>
+      </c>
+      <c r="BG35">
+        <v>1.26</v>
+      </c>
+      <c r="BH35">
+        <v>3.34</v>
+      </c>
+      <c r="BI35">
+        <v>1.46</v>
+      </c>
+      <c r="BJ35">
+        <v>2.52</v>
+      </c>
+      <c r="BK35">
+        <v>1.9</v>
+      </c>
+      <c r="BL35">
+        <v>1.9</v>
+      </c>
+      <c r="BM35">
+        <v>2.37</v>
+      </c>
+      <c r="BN35">
+        <v>1.51</v>
+      </c>
+      <c r="BO35">
+        <v>3.2</v>
+      </c>
+      <c r="BP35">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7343681</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45374.77083333334</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" t="s">
+        <v>84</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36" t="s">
+        <v>93</v>
+      </c>
+      <c r="P36" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q36">
+        <v>2.1</v>
+      </c>
+      <c r="R36">
+        <v>2.25</v>
+      </c>
+      <c r="S36">
+        <v>6.5</v>
+      </c>
+      <c r="T36">
+        <v>1.4</v>
+      </c>
+      <c r="U36">
+        <v>2.75</v>
+      </c>
+      <c r="V36">
+        <v>2.75</v>
+      </c>
+      <c r="W36">
+        <v>1.4</v>
+      </c>
+      <c r="X36">
+        <v>8</v>
+      </c>
+      <c r="Y36">
+        <v>1.08</v>
+      </c>
+      <c r="Z36">
+        <v>1.4</v>
+      </c>
+      <c r="AA36">
+        <v>4.5</v>
+      </c>
+      <c r="AB36">
+        <v>6.5</v>
+      </c>
+      <c r="AC36">
+        <v>1.05</v>
+      </c>
+      <c r="AD36">
+        <v>8</v>
+      </c>
+      <c r="AE36">
+        <v>1.28</v>
+      </c>
+      <c r="AF36">
+        <v>3.4</v>
+      </c>
+      <c r="AG36">
+        <v>1.98</v>
+      </c>
+      <c r="AH36">
+        <v>1.78</v>
+      </c>
+      <c r="AI36">
+        <v>2</v>
+      </c>
+      <c r="AJ36">
+        <v>1.73</v>
+      </c>
+      <c r="AK36">
+        <v>1.09</v>
+      </c>
+      <c r="AL36">
+        <v>1.2</v>
+      </c>
+      <c r="AM36">
+        <v>2.47</v>
+      </c>
+      <c r="AN36">
+        <v>3</v>
+      </c>
+      <c r="AO36">
+        <v>3</v>
+      </c>
+      <c r="AP36">
+        <v>2.33</v>
+      </c>
+      <c r="AQ36">
+        <v>2.33</v>
+      </c>
+      <c r="AR36">
+        <v>1.8</v>
+      </c>
+      <c r="AS36">
+        <v>1.35</v>
+      </c>
+      <c r="AT36">
+        <v>3.15</v>
+      </c>
+      <c r="AU36">
+        <v>5</v>
+      </c>
+      <c r="AV36">
+        <v>4</v>
+      </c>
+      <c r="AW36">
+        <v>4</v>
+      </c>
+      <c r="AX36">
+        <v>5</v>
+      </c>
+      <c r="AY36">
+        <v>9</v>
+      </c>
+      <c r="AZ36">
+        <v>9</v>
+      </c>
+      <c r="BA36">
+        <v>7</v>
+      </c>
+      <c r="BB36">
+        <v>4</v>
+      </c>
+      <c r="BC36">
+        <v>11</v>
+      </c>
+      <c r="BD36">
+        <v>1.44</v>
+      </c>
+      <c r="BE36">
+        <v>8.5</v>
+      </c>
+      <c r="BF36">
+        <v>3.2</v>
+      </c>
+      <c r="BG36">
+        <v>1.27</v>
+      </c>
+      <c r="BH36">
+        <v>3.4</v>
+      </c>
+      <c r="BI36">
+        <v>1.45</v>
+      </c>
+      <c r="BJ36">
+        <v>2.55</v>
+      </c>
+      <c r="BK36">
+        <v>1.8</v>
+      </c>
+      <c r="BL36">
+        <v>1.9</v>
+      </c>
+      <c r="BM36">
+        <v>2.32</v>
+      </c>
+      <c r="BN36">
+        <v>1.54</v>
+      </c>
+      <c r="BO36">
+        <v>3.1</v>
+      </c>
+      <c r="BP36">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7343680</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45374.875</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>73</v>
+      </c>
+      <c r="H37" t="s">
+        <v>82</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37" t="s">
+        <v>113</v>
+      </c>
+      <c r="P37" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q37">
+        <v>4.33</v>
+      </c>
+      <c r="R37">
+        <v>2.2</v>
+      </c>
+      <c r="S37">
+        <v>2.6</v>
+      </c>
+      <c r="T37">
+        <v>1.4</v>
+      </c>
+      <c r="U37">
+        <v>2.75</v>
+      </c>
+      <c r="V37">
+        <v>2.75</v>
+      </c>
+      <c r="W37">
+        <v>1.4</v>
+      </c>
+      <c r="X37">
+        <v>8</v>
+      </c>
+      <c r="Y37">
+        <v>1.08</v>
+      </c>
+      <c r="Z37">
+        <v>3.7</v>
+      </c>
+      <c r="AA37">
+        <v>3.3</v>
+      </c>
+      <c r="AB37">
+        <v>1.95</v>
+      </c>
+      <c r="AC37">
+        <v>1.04</v>
+      </c>
+      <c r="AD37">
+        <v>8.5</v>
+      </c>
+      <c r="AE37">
+        <v>1.31</v>
+      </c>
+      <c r="AF37">
+        <v>3.48</v>
+      </c>
+      <c r="AG37">
+        <v>2.04</v>
+      </c>
+      <c r="AH37">
+        <v>1.74</v>
+      </c>
+      <c r="AI37">
+        <v>1.8</v>
+      </c>
+      <c r="AJ37">
+        <v>1.91</v>
+      </c>
+      <c r="AK37">
+        <v>1.85</v>
+      </c>
+      <c r="AL37">
+        <v>1.22</v>
+      </c>
+      <c r="AM37">
+        <v>1.2</v>
+      </c>
+      <c r="AN37">
+        <v>0</v>
+      </c>
+      <c r="AO37">
+        <v>3</v>
+      </c>
+      <c r="AP37">
+        <v>1.5</v>
+      </c>
+      <c r="AQ37">
+        <v>1.5</v>
+      </c>
+      <c r="AR37">
+        <v>1.36</v>
+      </c>
+      <c r="AS37">
+        <v>1.36</v>
+      </c>
+      <c r="AT37">
+        <v>2.72</v>
+      </c>
+      <c r="AU37">
+        <v>2</v>
+      </c>
+      <c r="AV37">
+        <v>4</v>
+      </c>
+      <c r="AW37">
+        <v>2</v>
+      </c>
+      <c r="AX37">
+        <v>6</v>
+      </c>
+      <c r="AY37">
+        <v>4</v>
+      </c>
+      <c r="AZ37">
+        <v>10</v>
+      </c>
+      <c r="BA37">
+        <v>4</v>
+      </c>
+      <c r="BB37">
+        <v>8</v>
+      </c>
+      <c r="BC37">
+        <v>12</v>
+      </c>
+      <c r="BD37">
+        <v>2.6</v>
+      </c>
+      <c r="BE37">
+        <v>8</v>
+      </c>
+      <c r="BF37">
+        <v>1.67</v>
+      </c>
+      <c r="BG37">
+        <v>1.22</v>
+      </c>
+      <c r="BH37">
+        <v>3.65</v>
+      </c>
+      <c r="BI37">
+        <v>1.5</v>
+      </c>
+      <c r="BJ37">
+        <v>2.4</v>
+      </c>
+      <c r="BK37">
+        <v>1.85</v>
+      </c>
+      <c r="BL37">
+        <v>1.85</v>
+      </c>
+      <c r="BM37">
+        <v>2.4</v>
+      </c>
+      <c r="BN37">
+        <v>1.5</v>
+      </c>
+      <c r="BO37">
+        <v>3.3</v>
+      </c>
+      <c r="BP37">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7343683</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45375.41666666666</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38" t="s">
+        <v>76</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38" t="s">
+        <v>114</v>
+      </c>
+      <c r="P38" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q38">
+        <v>3.6</v>
+      </c>
+      <c r="R38">
+        <v>1.91</v>
+      </c>
+      <c r="S38">
+        <v>3.5</v>
+      </c>
+      <c r="T38">
+        <v>1.57</v>
+      </c>
+      <c r="U38">
+        <v>2.25</v>
+      </c>
+      <c r="V38">
+        <v>3.75</v>
+      </c>
+      <c r="W38">
+        <v>1.25</v>
+      </c>
+      <c r="X38">
+        <v>11</v>
+      </c>
+      <c r="Y38">
+        <v>1.05</v>
+      </c>
+      <c r="Z38">
+        <v>2.53</v>
+      </c>
+      <c r="AA38">
+        <v>2.75</v>
+      </c>
+      <c r="AB38">
+        <v>2.43</v>
+      </c>
+      <c r="AC38">
+        <v>1.09</v>
+      </c>
+      <c r="AD38">
+        <v>6</v>
+      </c>
+      <c r="AE38">
+        <v>1.52</v>
+      </c>
+      <c r="AF38">
+        <v>2.45</v>
+      </c>
+      <c r="AG38">
+        <v>2.55</v>
+      </c>
+      <c r="AH38">
+        <v>1.45</v>
+      </c>
+      <c r="AI38">
+        <v>2.1</v>
+      </c>
+      <c r="AJ38">
+        <v>1.67</v>
+      </c>
+      <c r="AK38">
+        <v>1.45</v>
+      </c>
+      <c r="AL38">
+        <v>1.34</v>
+      </c>
+      <c r="AM38">
+        <v>1.4</v>
+      </c>
+      <c r="AN38">
+        <v>0.5</v>
+      </c>
+      <c r="AO38">
+        <v>3</v>
+      </c>
+      <c r="AP38">
+        <v>0.67</v>
+      </c>
+      <c r="AQ38">
+        <v>2</v>
+      </c>
+      <c r="AR38">
+        <v>1.34</v>
+      </c>
+      <c r="AS38">
+        <v>0.8</v>
+      </c>
+      <c r="AT38">
+        <v>2.14</v>
+      </c>
+      <c r="AU38">
+        <v>4</v>
+      </c>
+      <c r="AV38">
+        <v>5</v>
+      </c>
+      <c r="AW38">
+        <v>4</v>
+      </c>
+      <c r="AX38">
+        <v>4</v>
+      </c>
+      <c r="AY38">
+        <v>8</v>
+      </c>
+      <c r="AZ38">
+        <v>9</v>
+      </c>
+      <c r="BA38">
+        <v>8</v>
+      </c>
+      <c r="BB38">
+        <v>3</v>
+      </c>
+      <c r="BC38">
+        <v>11</v>
+      </c>
+      <c r="BD38">
+        <v>1.91</v>
+      </c>
+      <c r="BE38">
+        <v>8</v>
+      </c>
+      <c r="BF38">
+        <v>2.2</v>
+      </c>
+      <c r="BG38">
+        <v>1.28</v>
+      </c>
+      <c r="BH38">
+        <v>3.2</v>
+      </c>
+      <c r="BI38">
+        <v>1.46</v>
+      </c>
+      <c r="BJ38">
+        <v>2.52</v>
+      </c>
+      <c r="BK38">
+        <v>1.85</v>
+      </c>
+      <c r="BL38">
+        <v>1.85</v>
+      </c>
+      <c r="BM38">
+        <v>2.37</v>
+      </c>
+      <c r="BN38">
+        <v>1.51</v>
+      </c>
+      <c r="BO38">
+        <v>3.2</v>
+      </c>
+      <c r="BP38">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="139">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -358,7 +358,7 @@
     <t>['64']</t>
   </si>
   <si>
-    <t>['50']</t>
+    <t>['49']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -428,6 +428,9 @@
   </si>
   <si>
     <t>['1']</t>
+  </si>
+  <si>
+    <t>['11', '49']</t>
   </si>
 </sst>
 </file>
@@ -789,7 +792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP38"/>
+  <dimension ref="A1:BP39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1953,7 +1956,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ6">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -4837,7 +4840,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR20">
         <v>1.46</v>
@@ -7939,22 +7942,22 @@
         <v>0.93</v>
       </c>
       <c r="AU35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV35">
         <v>6</v>
       </c>
       <c r="AW35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX35">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AY35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AZ35">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BA35">
         <v>9</v>
@@ -8351,22 +8354,22 @@
         <v>2.72</v>
       </c>
       <c r="AU37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV37">
         <v>4</v>
       </c>
       <c r="AW37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX37">
+        <v>7</v>
+      </c>
+      <c r="AY37">
         <v>6</v>
       </c>
-      <c r="AY37">
-        <v>4</v>
-      </c>
       <c r="AZ37">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA37">
         <v>4</v>
@@ -8620,6 +8623,212 @@
         <v>3.2</v>
       </c>
       <c r="BP38">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7343679</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45375.66666666666</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>85</v>
+      </c>
+      <c r="H39" t="s">
+        <v>78</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>2</v>
+      </c>
+      <c r="N39">
+        <v>2</v>
+      </c>
+      <c r="O39" t="s">
+        <v>93</v>
+      </c>
+      <c r="P39" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q39">
+        <v>2.75</v>
+      </c>
+      <c r="R39">
+        <v>1.95</v>
+      </c>
+      <c r="S39">
+        <v>4.5</v>
+      </c>
+      <c r="T39">
+        <v>1.53</v>
+      </c>
+      <c r="U39">
+        <v>2.38</v>
+      </c>
+      <c r="V39">
+        <v>3.5</v>
+      </c>
+      <c r="W39">
+        <v>1.29</v>
+      </c>
+      <c r="X39">
+        <v>11</v>
+      </c>
+      <c r="Y39">
+        <v>1.05</v>
+      </c>
+      <c r="Z39">
+        <v>1.8</v>
+      </c>
+      <c r="AA39">
+        <v>3.3</v>
+      </c>
+      <c r="AB39">
+        <v>4.23</v>
+      </c>
+      <c r="AC39">
+        <v>1.09</v>
+      </c>
+      <c r="AD39">
+        <v>6</v>
+      </c>
+      <c r="AE39">
+        <v>1.48</v>
+      </c>
+      <c r="AF39">
+        <v>2.5</v>
+      </c>
+      <c r="AG39">
+        <v>2.36</v>
+      </c>
+      <c r="AH39">
+        <v>1.52</v>
+      </c>
+      <c r="AI39">
+        <v>2.1</v>
+      </c>
+      <c r="AJ39">
+        <v>1.67</v>
+      </c>
+      <c r="AK39">
+        <v>1.23</v>
+      </c>
+      <c r="AL39">
+        <v>1.31</v>
+      </c>
+      <c r="AM39">
+        <v>1.72</v>
+      </c>
+      <c r="AN39">
+        <v>0</v>
+      </c>
+      <c r="AO39">
+        <v>0.5</v>
+      </c>
+      <c r="AP39">
+        <v>0</v>
+      </c>
+      <c r="AQ39">
+        <v>1.33</v>
+      </c>
+      <c r="AR39">
+        <v>0</v>
+      </c>
+      <c r="AS39">
+        <v>0.77</v>
+      </c>
+      <c r="AT39">
+        <v>0.77</v>
+      </c>
+      <c r="AU39">
+        <v>3</v>
+      </c>
+      <c r="AV39">
+        <v>5</v>
+      </c>
+      <c r="AW39">
+        <v>7</v>
+      </c>
+      <c r="AX39">
+        <v>2</v>
+      </c>
+      <c r="AY39">
+        <v>10</v>
+      </c>
+      <c r="AZ39">
+        <v>7</v>
+      </c>
+      <c r="BA39">
+        <v>5</v>
+      </c>
+      <c r="BB39">
+        <v>3</v>
+      </c>
+      <c r="BC39">
+        <v>8</v>
+      </c>
+      <c r="BD39">
+        <v>1.44</v>
+      </c>
+      <c r="BE39">
+        <v>8.5</v>
+      </c>
+      <c r="BF39">
+        <v>3.2</v>
+      </c>
+      <c r="BG39">
+        <v>1.29</v>
+      </c>
+      <c r="BH39">
+        <v>3.3</v>
+      </c>
+      <c r="BI39">
+        <v>1.48</v>
+      </c>
+      <c r="BJ39">
+        <v>2.47</v>
+      </c>
+      <c r="BK39">
+        <v>1.85</v>
+      </c>
+      <c r="BL39">
+        <v>1.85</v>
+      </c>
+      <c r="BM39">
+        <v>2.37</v>
+      </c>
+      <c r="BN39">
+        <v>1.51</v>
+      </c>
+      <c r="BO39">
+        <v>3.2</v>
+      </c>
+      <c r="BP39">
         <v>1.3</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -430,7 +430,7 @@
     <t>['1']</t>
   </si>
   <si>
-    <t>['11', '49']</t>
+    <t>['10', '49']</t>
   </si>
 </sst>
 </file>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="141">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -361,6 +361,9 @@
     <t>['49']</t>
   </si>
   <si>
+    <t>['22', '27', '50', '55']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -431,6 +434,9 @@
   </si>
   <si>
     <t>['10', '49']</t>
+  </si>
+  <si>
+    <t>['5', '65']</t>
   </si>
 </sst>
 </file>
@@ -792,7 +798,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP39"/>
+  <dimension ref="A1:BP40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1051,7 +1057,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1257,7 +1263,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1463,7 +1469,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -1669,7 +1675,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1875,7 +1881,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q6">
         <v>3.41</v>
@@ -2081,7 +2087,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2287,7 +2293,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2493,7 +2499,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2699,7 +2705,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q10">
         <v>3.18</v>
@@ -3935,7 +3941,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4141,7 +4147,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4347,7 +4353,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -4965,7 +4971,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5171,7 +5177,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5377,7 +5383,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5583,7 +5589,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -5789,7 +5795,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6201,7 +6207,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6407,7 +6413,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6613,7 +6619,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7231,7 +7237,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7643,7 +7649,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -7849,7 +7855,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8467,7 +8473,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -8673,7 +8679,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -8830,6 +8836,212 @@
       </c>
       <c r="BP39">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7343655</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45378.66666666666</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40" t="s">
+        <v>84</v>
+      </c>
+      <c r="H40" t="s">
+        <v>83</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>3</v>
+      </c>
+      <c r="L40">
+        <v>4</v>
+      </c>
+      <c r="M40">
+        <v>2</v>
+      </c>
+      <c r="N40">
+        <v>6</v>
+      </c>
+      <c r="O40" t="s">
+        <v>115</v>
+      </c>
+      <c r="P40" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q40">
+        <v>2.35</v>
+      </c>
+      <c r="R40">
+        <v>2.1</v>
+      </c>
+      <c r="S40">
+        <v>4.5</v>
+      </c>
+      <c r="T40">
+        <v>1.4</v>
+      </c>
+      <c r="U40">
+        <v>2.75</v>
+      </c>
+      <c r="V40">
+        <v>2.75</v>
+      </c>
+      <c r="W40">
+        <v>1.4</v>
+      </c>
+      <c r="X40">
+        <v>7</v>
+      </c>
+      <c r="Y40">
+        <v>1.08</v>
+      </c>
+      <c r="Z40">
+        <v>1.66</v>
+      </c>
+      <c r="AA40">
+        <v>3.75</v>
+      </c>
+      <c r="AB40">
+        <v>4.6</v>
+      </c>
+      <c r="AC40">
+        <v>1.07</v>
+      </c>
+      <c r="AD40">
+        <v>7.5</v>
+      </c>
+      <c r="AE40">
+        <v>1.33</v>
+      </c>
+      <c r="AF40">
+        <v>3.1</v>
+      </c>
+      <c r="AG40">
+        <v>1.85</v>
+      </c>
+      <c r="AH40">
+        <v>1.91</v>
+      </c>
+      <c r="AI40">
+        <v>1.9</v>
+      </c>
+      <c r="AJ40">
+        <v>1.83</v>
+      </c>
+      <c r="AK40">
+        <v>1.16</v>
+      </c>
+      <c r="AL40">
+        <v>1.22</v>
+      </c>
+      <c r="AM40">
+        <v>2</v>
+      </c>
+      <c r="AN40">
+        <v>3</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>3</v>
+      </c>
+      <c r="AQ40">
+        <v>0</v>
+      </c>
+      <c r="AR40">
+        <v>1.57</v>
+      </c>
+      <c r="AS40">
+        <v>0.27</v>
+      </c>
+      <c r="AT40">
+        <v>1.84</v>
+      </c>
+      <c r="AU40">
+        <v>6</v>
+      </c>
+      <c r="AV40">
+        <v>6</v>
+      </c>
+      <c r="AW40">
+        <v>3</v>
+      </c>
+      <c r="AX40">
+        <v>6</v>
+      </c>
+      <c r="AY40">
+        <v>9</v>
+      </c>
+      <c r="AZ40">
+        <v>12</v>
+      </c>
+      <c r="BA40">
+        <v>6</v>
+      </c>
+      <c r="BB40">
+        <v>8</v>
+      </c>
+      <c r="BC40">
+        <v>14</v>
+      </c>
+      <c r="BD40">
+        <v>1.36</v>
+      </c>
+      <c r="BE40">
+        <v>9.5</v>
+      </c>
+      <c r="BF40">
+        <v>3.5</v>
+      </c>
+      <c r="BG40">
+        <v>1.2</v>
+      </c>
+      <c r="BH40">
+        <v>4</v>
+      </c>
+      <c r="BI40">
+        <v>1.29</v>
+      </c>
+      <c r="BJ40">
+        <v>3.3</v>
+      </c>
+      <c r="BK40">
+        <v>1.5</v>
+      </c>
+      <c r="BL40">
+        <v>2.4</v>
+      </c>
+      <c r="BM40">
+        <v>1.95</v>
+      </c>
+      <c r="BN40">
+        <v>1.85</v>
+      </c>
+      <c r="BO40">
+        <v>2.45</v>
+      </c>
+      <c r="BP40">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="142">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -361,7 +361,7 @@
     <t>['49']</t>
   </si>
   <si>
-    <t>['22', '27', '50', '55']</t>
+    <t>['21', '27', '50', '55']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -437,6 +437,9 @@
   </si>
   <si>
     <t>['5', '65']</t>
+  </si>
+  <si>
+    <t>['71', '87']</t>
   </si>
 </sst>
 </file>
@@ -798,7 +801,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP40"/>
+  <dimension ref="A1:BP42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2371,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
         <v>3</v>
@@ -2786,7 +2789,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3195,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ12">
         <v>0.5</v>
@@ -3401,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -6079,7 +6082,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ26">
         <v>0</v>
@@ -6494,7 +6497,7 @@
         <v>3</v>
       </c>
       <c r="AQ28">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -6903,7 +6906,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
         <v>0</v>
@@ -9042,6 +9045,418 @@
       </c>
       <c r="BP40">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7343687</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45380.52083333334</v>
+      </c>
+      <c r="F41">
+        <v>6</v>
+      </c>
+      <c r="G41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H41" t="s">
+        <v>75</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="N41">
+        <v>2</v>
+      </c>
+      <c r="O41" t="s">
+        <v>93</v>
+      </c>
+      <c r="P41" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q41">
+        <v>3.47</v>
+      </c>
+      <c r="R41">
+        <v>1.99</v>
+      </c>
+      <c r="S41">
+        <v>3.74</v>
+      </c>
+      <c r="T41">
+        <v>1.55</v>
+      </c>
+      <c r="U41">
+        <v>2.46</v>
+      </c>
+      <c r="V41">
+        <v>3.54</v>
+      </c>
+      <c r="W41">
+        <v>1.27</v>
+      </c>
+      <c r="X41">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y41">
+        <v>1.03</v>
+      </c>
+      <c r="Z41">
+        <v>2.39</v>
+      </c>
+      <c r="AA41">
+        <v>3.05</v>
+      </c>
+      <c r="AB41">
+        <v>3</v>
+      </c>
+      <c r="AC41">
+        <v>1.07</v>
+      </c>
+      <c r="AD41">
+        <v>6.5</v>
+      </c>
+      <c r="AE41">
+        <v>1.5</v>
+      </c>
+      <c r="AF41">
+        <v>2.45</v>
+      </c>
+      <c r="AG41">
+        <v>2.4</v>
+      </c>
+      <c r="AH41">
+        <v>1.54</v>
+      </c>
+      <c r="AI41">
+        <v>2.01</v>
+      </c>
+      <c r="AJ41">
+        <v>1.76</v>
+      </c>
+      <c r="AK41">
+        <v>1.39</v>
+      </c>
+      <c r="AL41">
+        <v>1.34</v>
+      </c>
+      <c r="AM41">
+        <v>1.45</v>
+      </c>
+      <c r="AN41">
+        <v>1.33</v>
+      </c>
+      <c r="AO41">
+        <v>1.5</v>
+      </c>
+      <c r="AP41">
+        <v>1</v>
+      </c>
+      <c r="AQ41">
+        <v>2</v>
+      </c>
+      <c r="AR41">
+        <v>1.1</v>
+      </c>
+      <c r="AS41">
+        <v>1.34</v>
+      </c>
+      <c r="AT41">
+        <v>2.44</v>
+      </c>
+      <c r="AU41">
+        <v>5</v>
+      </c>
+      <c r="AV41">
+        <v>9</v>
+      </c>
+      <c r="AW41">
+        <v>8</v>
+      </c>
+      <c r="AX41">
+        <v>3</v>
+      </c>
+      <c r="AY41">
+        <v>13</v>
+      </c>
+      <c r="AZ41">
+        <v>12</v>
+      </c>
+      <c r="BA41">
+        <v>5</v>
+      </c>
+      <c r="BB41">
+        <v>5</v>
+      </c>
+      <c r="BC41">
+        <v>10</v>
+      </c>
+      <c r="BD41">
+        <v>1.95</v>
+      </c>
+      <c r="BE41">
+        <v>8</v>
+      </c>
+      <c r="BF41">
+        <v>2.1</v>
+      </c>
+      <c r="BG41">
+        <v>1.29</v>
+      </c>
+      <c r="BH41">
+        <v>3.3</v>
+      </c>
+      <c r="BI41">
+        <v>1.46</v>
+      </c>
+      <c r="BJ41">
+        <v>2.52</v>
+      </c>
+      <c r="BK41">
+        <v>1.85</v>
+      </c>
+      <c r="BL41">
+        <v>1.95</v>
+      </c>
+      <c r="BM41">
+        <v>2.37</v>
+      </c>
+      <c r="BN41">
+        <v>1.51</v>
+      </c>
+      <c r="BO41">
+        <v>3.2</v>
+      </c>
+      <c r="BP41">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7343688</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45380.66666666666</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42" t="s">
+        <v>80</v>
+      </c>
+      <c r="H42" t="s">
+        <v>70</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42" t="s">
+        <v>93</v>
+      </c>
+      <c r="P42" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q42">
+        <v>2.35</v>
+      </c>
+      <c r="R42">
+        <v>2</v>
+      </c>
+      <c r="S42">
+        <v>4.7</v>
+      </c>
+      <c r="T42">
+        <v>1.37</v>
+      </c>
+      <c r="U42">
+        <v>2.75</v>
+      </c>
+      <c r="V42">
+        <v>2.95</v>
+      </c>
+      <c r="W42">
+        <v>1.32</v>
+      </c>
+      <c r="X42">
+        <v>6.5</v>
+      </c>
+      <c r="Y42">
+        <v>1.07</v>
+      </c>
+      <c r="Z42">
+        <v>2.16</v>
+      </c>
+      <c r="AA42">
+        <v>3.04</v>
+      </c>
+      <c r="AB42">
+        <v>2.51</v>
+      </c>
+      <c r="AC42">
+        <v>1.03</v>
+      </c>
+      <c r="AD42">
+        <v>8.5</v>
+      </c>
+      <c r="AE42">
+        <v>1.28</v>
+      </c>
+      <c r="AF42">
+        <v>3.3</v>
+      </c>
+      <c r="AG42">
+        <v>2.07</v>
+      </c>
+      <c r="AH42">
+        <v>1.67</v>
+      </c>
+      <c r="AI42">
+        <v>1.8</v>
+      </c>
+      <c r="AJ42">
+        <v>1.9</v>
+      </c>
+      <c r="AK42">
+        <v>1.1</v>
+      </c>
+      <c r="AL42">
+        <v>1.27</v>
+      </c>
+      <c r="AM42">
+        <v>1.95</v>
+      </c>
+      <c r="AN42">
+        <v>3</v>
+      </c>
+      <c r="AO42">
+        <v>1</v>
+      </c>
+      <c r="AP42">
+        <v>2.33</v>
+      </c>
+      <c r="AQ42">
+        <v>1</v>
+      </c>
+      <c r="AR42">
+        <v>1.51</v>
+      </c>
+      <c r="AS42">
+        <v>1.15</v>
+      </c>
+      <c r="AT42">
+        <v>2.66</v>
+      </c>
+      <c r="AU42">
+        <v>0</v>
+      </c>
+      <c r="AV42">
+        <v>3</v>
+      </c>
+      <c r="AW42">
+        <v>8</v>
+      </c>
+      <c r="AX42">
+        <v>4</v>
+      </c>
+      <c r="AY42">
+        <v>8</v>
+      </c>
+      <c r="AZ42">
+        <v>7</v>
+      </c>
+      <c r="BA42">
+        <v>7</v>
+      </c>
+      <c r="BB42">
+        <v>6</v>
+      </c>
+      <c r="BC42">
+        <v>13</v>
+      </c>
+      <c r="BD42">
+        <v>1.62</v>
+      </c>
+      <c r="BE42">
+        <v>8</v>
+      </c>
+      <c r="BF42">
+        <v>2.75</v>
+      </c>
+      <c r="BG42">
+        <v>1.42</v>
+      </c>
+      <c r="BH42">
+        <v>2.65</v>
+      </c>
+      <c r="BI42">
+        <v>1.8</v>
+      </c>
+      <c r="BJ42">
+        <v>2</v>
+      </c>
+      <c r="BK42">
+        <v>2.33</v>
+      </c>
+      <c r="BL42">
+        <v>1.53</v>
+      </c>
+      <c r="BM42">
+        <v>3.2</v>
+      </c>
+      <c r="BN42">
+        <v>1.3</v>
+      </c>
+      <c r="BO42">
+        <v>4.2</v>
+      </c>
+      <c r="BP42">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -439,7 +439,7 @@
     <t>['5', '65']</t>
   </si>
   <si>
-    <t>['71', '87']</t>
+    <t>['70', '87']</t>
   </si>
 </sst>
 </file>
@@ -9187,31 +9187,31 @@
         <v>2.44</v>
       </c>
       <c r="AU41">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV41">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AW41">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AX41">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AY41">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="AZ41">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="BA41">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BB41">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BC41">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BD41">
         <v>1.95</v>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="149">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -364,6 +364,18 @@
     <t>['21', '27', '50', '55']</t>
   </si>
   <si>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['15', '37', '88']</t>
+  </si>
+  <si>
+    <t>['5', '40']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -440,6 +452,15 @@
   </si>
   <si>
     <t>['70', '87']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['25']</t>
+  </si>
+  <si>
+    <t>['3', '66']</t>
   </si>
 </sst>
 </file>
@@ -801,7 +822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP42"/>
+  <dimension ref="A1:BP47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1060,7 +1081,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1141,7 +1162,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ2">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1266,7 +1287,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1347,7 +1368,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ3">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1472,7 +1493,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -1550,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ4">
         <v>2.33</v>
@@ -1678,7 +1699,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1884,7 +1905,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q6">
         <v>3.41</v>
@@ -2090,7 +2111,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2296,7 +2317,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2502,7 +2523,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2583,7 +2604,7 @@
         <v>2</v>
       </c>
       <c r="AQ9">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2708,7 +2729,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q10">
         <v>3.18</v>
@@ -2995,7 +3016,7 @@
         <v>1</v>
       </c>
       <c r="AQ11">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3407,7 +3428,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR13">
         <v>1.13</v>
@@ -3610,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -3816,10 +3837,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -3944,7 +3965,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4150,7 +4171,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4228,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ17">
         <v>2</v>
@@ -4356,7 +4377,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -4643,7 +4664,7 @@
         <v>2</v>
       </c>
       <c r="AQ19">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR19">
         <v>1.89</v>
@@ -4974,7 +4995,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5180,7 +5201,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5258,10 +5279,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ22">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>1.2</v>
@@ -5386,7 +5407,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5464,7 +5485,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ23">
         <v>3</v>
@@ -5592,7 +5613,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -5670,10 +5691,10 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR24">
         <v>1.1</v>
@@ -5798,7 +5819,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6085,7 +6106,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ26">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR26">
         <v>1.74</v>
@@ -6210,7 +6231,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6288,10 +6309,10 @@
         <v>1.33</v>
       </c>
       <c r="AP27">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ27">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR27">
         <v>1.67</v>
@@ -6416,7 +6437,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6622,7 +6643,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -6700,7 +6721,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -7115,7 +7136,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ31">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR31">
         <v>0.74</v>
@@ -7240,7 +7261,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7527,7 +7548,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ33">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR33">
         <v>1.12</v>
@@ -7652,7 +7673,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -7858,7 +7879,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -7936,7 +7957,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ35">
         <v>0.5</v>
@@ -8476,7 +8497,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -8682,7 +8703,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -8888,7 +8909,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9094,7 +9115,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9187,31 +9208,31 @@
         <v>2.44</v>
       </c>
       <c r="AU41">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV41">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AW41">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX41">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY41">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ41">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BA41">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB41">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC41">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD41">
         <v>1.95</v>
@@ -9457,6 +9478,1036 @@
       </c>
       <c r="BP42">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7343685</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45381.5625</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>83</v>
+      </c>
+      <c r="H43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43" t="s">
+        <v>116</v>
+      </c>
+      <c r="P43" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q43">
+        <v>3.4</v>
+      </c>
+      <c r="R43">
+        <v>2</v>
+      </c>
+      <c r="S43">
+        <v>3</v>
+      </c>
+      <c r="T43">
+        <v>1.44</v>
+      </c>
+      <c r="U43">
+        <v>2.62</v>
+      </c>
+      <c r="V43">
+        <v>3</v>
+      </c>
+      <c r="W43">
+        <v>1.36</v>
+      </c>
+      <c r="X43">
+        <v>7.5</v>
+      </c>
+      <c r="Y43">
+        <v>1.07</v>
+      </c>
+      <c r="Z43">
+        <v>2.67</v>
+      </c>
+      <c r="AA43">
+        <v>3.15</v>
+      </c>
+      <c r="AB43">
+        <v>2.29</v>
+      </c>
+      <c r="AC43">
+        <v>1.08</v>
+      </c>
+      <c r="AD43">
+        <v>7</v>
+      </c>
+      <c r="AE43">
+        <v>1.33</v>
+      </c>
+      <c r="AF43">
+        <v>3.25</v>
+      </c>
+      <c r="AG43">
+        <v>2.02</v>
+      </c>
+      <c r="AH43">
+        <v>1.57</v>
+      </c>
+      <c r="AI43">
+        <v>1.8</v>
+      </c>
+      <c r="AJ43">
+        <v>1.91</v>
+      </c>
+      <c r="AK43">
+        <v>1.53</v>
+      </c>
+      <c r="AL43">
+        <v>1.36</v>
+      </c>
+      <c r="AM43">
+        <v>1.36</v>
+      </c>
+      <c r="AN43">
+        <v>0.5</v>
+      </c>
+      <c r="AO43">
+        <v>1</v>
+      </c>
+      <c r="AP43">
+        <v>1.33</v>
+      </c>
+      <c r="AQ43">
+        <v>0.67</v>
+      </c>
+      <c r="AR43">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS43">
+        <v>1.29</v>
+      </c>
+      <c r="AT43">
+        <v>1.98</v>
+      </c>
+      <c r="AU43">
+        <v>3</v>
+      </c>
+      <c r="AV43">
+        <v>4</v>
+      </c>
+      <c r="AW43">
+        <v>2</v>
+      </c>
+      <c r="AX43">
+        <v>7</v>
+      </c>
+      <c r="AY43">
+        <v>5</v>
+      </c>
+      <c r="AZ43">
+        <v>11</v>
+      </c>
+      <c r="BA43">
+        <v>5</v>
+      </c>
+      <c r="BB43">
+        <v>12</v>
+      </c>
+      <c r="BC43">
+        <v>17</v>
+      </c>
+      <c r="BD43">
+        <v>2.4</v>
+      </c>
+      <c r="BE43">
+        <v>8</v>
+      </c>
+      <c r="BF43">
+        <v>1.73</v>
+      </c>
+      <c r="BG43">
+        <v>1.25</v>
+      </c>
+      <c r="BH43">
+        <v>3.7</v>
+      </c>
+      <c r="BI43">
+        <v>1.47</v>
+      </c>
+      <c r="BJ43">
+        <v>2.5</v>
+      </c>
+      <c r="BK43">
+        <v>1.87</v>
+      </c>
+      <c r="BL43">
+        <v>1.83</v>
+      </c>
+      <c r="BM43">
+        <v>2.45</v>
+      </c>
+      <c r="BN43">
+        <v>1.49</v>
+      </c>
+      <c r="BO43">
+        <v>3.3</v>
+      </c>
+      <c r="BP43">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7343692</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45381.66666666666</v>
+      </c>
+      <c r="F44">
+        <v>6</v>
+      </c>
+      <c r="G44" t="s">
+        <v>81</v>
+      </c>
+      <c r="H44" t="s">
+        <v>77</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44" t="s">
+        <v>117</v>
+      </c>
+      <c r="P44" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q44">
+        <v>2.5</v>
+      </c>
+      <c r="R44">
+        <v>2.2</v>
+      </c>
+      <c r="S44">
+        <v>4.98</v>
+      </c>
+      <c r="T44">
+        <v>1.43</v>
+      </c>
+      <c r="U44">
+        <v>2.83</v>
+      </c>
+      <c r="V44">
+        <v>3.17</v>
+      </c>
+      <c r="W44">
+        <v>1.36</v>
+      </c>
+      <c r="X44">
+        <v>7.9</v>
+      </c>
+      <c r="Y44">
+        <v>1.06</v>
+      </c>
+      <c r="Z44">
+        <v>1.86</v>
+      </c>
+      <c r="AA44">
+        <v>3.35</v>
+      </c>
+      <c r="AB44">
+        <v>3.65</v>
+      </c>
+      <c r="AC44">
+        <v>1.04</v>
+      </c>
+      <c r="AD44">
+        <v>7.8</v>
+      </c>
+      <c r="AE44">
+        <v>1.36</v>
+      </c>
+      <c r="AF44">
+        <v>3.16</v>
+      </c>
+      <c r="AG44">
+        <v>2.11</v>
+      </c>
+      <c r="AH44">
+        <v>1.65</v>
+      </c>
+      <c r="AI44">
+        <v>1.88</v>
+      </c>
+      <c r="AJ44">
+        <v>1.88</v>
+      </c>
+      <c r="AK44">
+        <v>1.2</v>
+      </c>
+      <c r="AL44">
+        <v>1.27</v>
+      </c>
+      <c r="AM44">
+        <v>1.86</v>
+      </c>
+      <c r="AN44">
+        <v>0.33</v>
+      </c>
+      <c r="AO44">
+        <v>0.5</v>
+      </c>
+      <c r="AP44">
+        <v>0.5</v>
+      </c>
+      <c r="AQ44">
+        <v>0.67</v>
+      </c>
+      <c r="AR44">
+        <v>1.64</v>
+      </c>
+      <c r="AS44">
+        <v>1.24</v>
+      </c>
+      <c r="AT44">
+        <v>2.88</v>
+      </c>
+      <c r="AU44">
+        <v>2</v>
+      </c>
+      <c r="AV44">
+        <v>2</v>
+      </c>
+      <c r="AW44">
+        <v>8</v>
+      </c>
+      <c r="AX44">
+        <v>3</v>
+      </c>
+      <c r="AY44">
+        <v>10</v>
+      </c>
+      <c r="AZ44">
+        <v>5</v>
+      </c>
+      <c r="BA44">
+        <v>6</v>
+      </c>
+      <c r="BB44">
+        <v>2</v>
+      </c>
+      <c r="BC44">
+        <v>8</v>
+      </c>
+      <c r="BD44">
+        <v>1.62</v>
+      </c>
+      <c r="BE44">
+        <v>8</v>
+      </c>
+      <c r="BF44">
+        <v>2.75</v>
+      </c>
+      <c r="BG44">
+        <v>1.41</v>
+      </c>
+      <c r="BH44">
+        <v>2.7</v>
+      </c>
+      <c r="BI44">
+        <v>1.8</v>
+      </c>
+      <c r="BJ44">
+        <v>2</v>
+      </c>
+      <c r="BK44">
+        <v>2.32</v>
+      </c>
+      <c r="BL44">
+        <v>1.54</v>
+      </c>
+      <c r="BM44">
+        <v>3.15</v>
+      </c>
+      <c r="BN44">
+        <v>1.31</v>
+      </c>
+      <c r="BO44">
+        <v>3</v>
+      </c>
+      <c r="BP44">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7343690</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45381.79166666666</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45" t="s">
+        <v>82</v>
+      </c>
+      <c r="H45" t="s">
+        <v>85</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45" t="s">
+        <v>113</v>
+      </c>
+      <c r="P45" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q45">
+        <v>2.57</v>
+      </c>
+      <c r="R45">
+        <v>2.18</v>
+      </c>
+      <c r="S45">
+        <v>4.84</v>
+      </c>
+      <c r="T45">
+        <v>1.46</v>
+      </c>
+      <c r="U45">
+        <v>2.53</v>
+      </c>
+      <c r="V45">
+        <v>3.26</v>
+      </c>
+      <c r="W45">
+        <v>1.24</v>
+      </c>
+      <c r="X45">
+        <v>8.1</v>
+      </c>
+      <c r="Y45">
+        <v>1.06</v>
+      </c>
+      <c r="Z45">
+        <v>1.91</v>
+      </c>
+      <c r="AA45">
+        <v>3.3</v>
+      </c>
+      <c r="AB45">
+        <v>3.4</v>
+      </c>
+      <c r="AC45">
+        <v>1.07</v>
+      </c>
+      <c r="AD45">
+        <v>7</v>
+      </c>
+      <c r="AE45">
+        <v>1.38</v>
+      </c>
+      <c r="AF45">
+        <v>2.8</v>
+      </c>
+      <c r="AG45">
+        <v>2.05</v>
+      </c>
+      <c r="AH45">
+        <v>1.65</v>
+      </c>
+      <c r="AI45">
+        <v>1.88</v>
+      </c>
+      <c r="AJ45">
+        <v>1.88</v>
+      </c>
+      <c r="AK45">
+        <v>1.22</v>
+      </c>
+      <c r="AL45">
+        <v>1.28</v>
+      </c>
+      <c r="AM45">
+        <v>1.81</v>
+      </c>
+      <c r="AN45">
+        <v>2</v>
+      </c>
+      <c r="AO45">
+        <v>1.75</v>
+      </c>
+      <c r="AP45">
+        <v>2.33</v>
+      </c>
+      <c r="AQ45">
+        <v>1.4</v>
+      </c>
+      <c r="AR45">
+        <v>1.48</v>
+      </c>
+      <c r="AS45">
+        <v>1.34</v>
+      </c>
+      <c r="AT45">
+        <v>2.82</v>
+      </c>
+      <c r="AU45">
+        <v>7</v>
+      </c>
+      <c r="AV45">
+        <v>8</v>
+      </c>
+      <c r="AW45">
+        <v>3</v>
+      </c>
+      <c r="AX45">
+        <v>8</v>
+      </c>
+      <c r="AY45">
+        <v>10</v>
+      </c>
+      <c r="AZ45">
+        <v>16</v>
+      </c>
+      <c r="BA45">
+        <v>6</v>
+      </c>
+      <c r="BB45">
+        <v>4</v>
+      </c>
+      <c r="BC45">
+        <v>10</v>
+      </c>
+      <c r="BD45">
+        <v>1.62</v>
+      </c>
+      <c r="BE45">
+        <v>8</v>
+      </c>
+      <c r="BF45">
+        <v>2.75</v>
+      </c>
+      <c r="BG45">
+        <v>1.31</v>
+      </c>
+      <c r="BH45">
+        <v>3.15</v>
+      </c>
+      <c r="BI45">
+        <v>1.6</v>
+      </c>
+      <c r="BJ45">
+        <v>2.2</v>
+      </c>
+      <c r="BK45">
+        <v>2.07</v>
+      </c>
+      <c r="BL45">
+        <v>1.67</v>
+      </c>
+      <c r="BM45">
+        <v>2.77</v>
+      </c>
+      <c r="BN45">
+        <v>1.39</v>
+      </c>
+      <c r="BO45">
+        <v>4.1</v>
+      </c>
+      <c r="BP45">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7343689</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45382.625</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46" t="s">
+        <v>84</v>
+      </c>
+      <c r="H46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>3</v>
+      </c>
+      <c r="L46">
+        <v>3</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>4</v>
+      </c>
+      <c r="O46" t="s">
+        <v>118</v>
+      </c>
+      <c r="P46" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q46">
+        <v>3</v>
+      </c>
+      <c r="R46">
+        <v>2.05</v>
+      </c>
+      <c r="S46">
+        <v>3.6</v>
+      </c>
+      <c r="T46">
+        <v>1.42</v>
+      </c>
+      <c r="U46">
+        <v>2.62</v>
+      </c>
+      <c r="V46">
+        <v>2.9</v>
+      </c>
+      <c r="W46">
+        <v>1.36</v>
+      </c>
+      <c r="X46">
+        <v>6.5</v>
+      </c>
+      <c r="Y46">
+        <v>1.08</v>
+      </c>
+      <c r="Z46">
+        <v>2.51</v>
+      </c>
+      <c r="AA46">
+        <v>3.26</v>
+      </c>
+      <c r="AB46">
+        <v>2.77</v>
+      </c>
+      <c r="AC46">
+        <v>1.05</v>
+      </c>
+      <c r="AD46">
+        <v>8</v>
+      </c>
+      <c r="AE46">
+        <v>1.33</v>
+      </c>
+      <c r="AF46">
+        <v>3</v>
+      </c>
+      <c r="AG46">
+        <v>1.98</v>
+      </c>
+      <c r="AH46">
+        <v>1.81</v>
+      </c>
+      <c r="AI46">
+        <v>1.8</v>
+      </c>
+      <c r="AJ46">
+        <v>1.91</v>
+      </c>
+      <c r="AK46">
+        <v>1.4</v>
+      </c>
+      <c r="AL46">
+        <v>1.33</v>
+      </c>
+      <c r="AM46">
+        <v>1.57</v>
+      </c>
+      <c r="AN46">
+        <v>3</v>
+      </c>
+      <c r="AO46">
+        <v>1.33</v>
+      </c>
+      <c r="AP46">
+        <v>3</v>
+      </c>
+      <c r="AQ46">
+        <v>1</v>
+      </c>
+      <c r="AR46">
+        <v>1.56</v>
+      </c>
+      <c r="AS46">
+        <v>1.4</v>
+      </c>
+      <c r="AT46">
+        <v>2.96</v>
+      </c>
+      <c r="AU46">
+        <v>8</v>
+      </c>
+      <c r="AV46">
+        <v>8</v>
+      </c>
+      <c r="AW46">
+        <v>7</v>
+      </c>
+      <c r="AX46">
+        <v>3</v>
+      </c>
+      <c r="AY46">
+        <v>15</v>
+      </c>
+      <c r="AZ46">
+        <v>11</v>
+      </c>
+      <c r="BA46">
+        <v>5</v>
+      </c>
+      <c r="BB46">
+        <v>8</v>
+      </c>
+      <c r="BC46">
+        <v>13</v>
+      </c>
+      <c r="BD46">
+        <v>1.8</v>
+      </c>
+      <c r="BE46">
+        <v>8</v>
+      </c>
+      <c r="BF46">
+        <v>2.38</v>
+      </c>
+      <c r="BG46">
+        <v>1.22</v>
+      </c>
+      <c r="BH46">
+        <v>4</v>
+      </c>
+      <c r="BI46">
+        <v>1.39</v>
+      </c>
+      <c r="BJ46">
+        <v>2.77</v>
+      </c>
+      <c r="BK46">
+        <v>1.73</v>
+      </c>
+      <c r="BL46">
+        <v>1.99</v>
+      </c>
+      <c r="BM46">
+        <v>2.2</v>
+      </c>
+      <c r="BN46">
+        <v>1.6</v>
+      </c>
+      <c r="BO46">
+        <v>2.95</v>
+      </c>
+      <c r="BP46">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7343686</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45382.72916666666</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47" t="s">
+        <v>72</v>
+      </c>
+      <c r="H47" t="s">
+        <v>74</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>3</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <v>2</v>
+      </c>
+      <c r="N47">
+        <v>4</v>
+      </c>
+      <c r="O47" t="s">
+        <v>119</v>
+      </c>
+      <c r="P47" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q47">
+        <v>3.1</v>
+      </c>
+      <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
+        <v>3.3</v>
+      </c>
+      <c r="T47">
+        <v>1.44</v>
+      </c>
+      <c r="U47">
+        <v>2.62</v>
+      </c>
+      <c r="V47">
+        <v>3</v>
+      </c>
+      <c r="W47">
+        <v>1.36</v>
+      </c>
+      <c r="X47">
+        <v>7.5</v>
+      </c>
+      <c r="Y47">
+        <v>1.07</v>
+      </c>
+      <c r="Z47">
+        <v>2.48</v>
+      </c>
+      <c r="AA47">
+        <v>3.09</v>
+      </c>
+      <c r="AB47">
+        <v>2.96</v>
+      </c>
+      <c r="AC47">
+        <v>1.08</v>
+      </c>
+      <c r="AD47">
+        <v>7</v>
+      </c>
+      <c r="AE47">
+        <v>1.33</v>
+      </c>
+      <c r="AF47">
+        <v>3.25</v>
+      </c>
+      <c r="AG47">
+        <v>2.16</v>
+      </c>
+      <c r="AH47">
+        <v>1.62</v>
+      </c>
+      <c r="AI47">
+        <v>1.8</v>
+      </c>
+      <c r="AJ47">
+        <v>1.91</v>
+      </c>
+      <c r="AK47">
+        <v>1.4</v>
+      </c>
+      <c r="AL47">
+        <v>1.36</v>
+      </c>
+      <c r="AM47">
+        <v>1.5</v>
+      </c>
+      <c r="AN47">
+        <v>0.33</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+      <c r="AP47">
+        <v>0.5</v>
+      </c>
+      <c r="AQ47">
+        <v>0.33</v>
+      </c>
+      <c r="AR47">
+        <v>1.15</v>
+      </c>
+      <c r="AS47">
+        <v>0.67</v>
+      </c>
+      <c r="AT47">
+        <v>1.82</v>
+      </c>
+      <c r="AU47">
+        <v>2</v>
+      </c>
+      <c r="AV47">
+        <v>2</v>
+      </c>
+      <c r="AW47">
+        <v>0</v>
+      </c>
+      <c r="AX47">
+        <v>1</v>
+      </c>
+      <c r="AY47">
+        <v>2</v>
+      </c>
+      <c r="AZ47">
+        <v>3</v>
+      </c>
+      <c r="BA47">
+        <v>1</v>
+      </c>
+      <c r="BB47">
+        <v>6</v>
+      </c>
+      <c r="BC47">
+        <v>7</v>
+      </c>
+      <c r="BD47">
+        <v>2.05</v>
+      </c>
+      <c r="BE47">
+        <v>8</v>
+      </c>
+      <c r="BF47">
+        <v>2</v>
+      </c>
+      <c r="BG47">
+        <v>1.25</v>
+      </c>
+      <c r="BH47">
+        <v>3.7</v>
+      </c>
+      <c r="BI47">
+        <v>1.48</v>
+      </c>
+      <c r="BJ47">
+        <v>2.47</v>
+      </c>
+      <c r="BK47">
+        <v>1.8</v>
+      </c>
+      <c r="BL47">
+        <v>2</v>
+      </c>
+      <c r="BM47">
+        <v>2.33</v>
+      </c>
+      <c r="BN47">
+        <v>1.53</v>
+      </c>
+      <c r="BO47">
+        <v>3.1</v>
+      </c>
+      <c r="BP47">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="150">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -370,10 +370,10 @@
     <t>['90+3']</t>
   </si>
   <si>
-    <t>['15', '37', '88']</t>
-  </si>
-  <si>
-    <t>['5', '40']</t>
+    <t>['13', '35', '88']</t>
+  </si>
+  <si>
+    <t>['4', '39']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -457,10 +457,13 @@
     <t>['90+5']</t>
   </si>
   <si>
-    <t>['25']</t>
-  </si>
-  <si>
-    <t>['3', '66']</t>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['2', '66']</t>
+  </si>
+  <si>
+    <t>['14', '45+5']</t>
   </si>
 </sst>
 </file>
@@ -822,7 +825,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP47"/>
+  <dimension ref="A1:BP48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2807,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ10">
         <v>2</v>
@@ -7133,7 +7136,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -10444,31 +10447,31 @@
         <v>1.82</v>
       </c>
       <c r="AU47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY47">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AZ47">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB47">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC47">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BD47">
         <v>2.05</v>
@@ -10508,6 +10511,212 @@
       </c>
       <c r="BP47">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7343691</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45382.83333333334</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48" t="s">
+        <v>78</v>
+      </c>
+      <c r="H48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>2</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+      <c r="O48" t="s">
+        <v>93</v>
+      </c>
+      <c r="P48" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q48">
+        <v>3.46</v>
+      </c>
+      <c r="R48">
+        <v>2.12</v>
+      </c>
+      <c r="S48">
+        <v>3.39</v>
+      </c>
+      <c r="T48">
+        <v>1.45</v>
+      </c>
+      <c r="U48">
+        <v>2.75</v>
+      </c>
+      <c r="V48">
+        <v>3.26</v>
+      </c>
+      <c r="W48">
+        <v>1.34</v>
+      </c>
+      <c r="X48">
+        <v>7.9</v>
+      </c>
+      <c r="Y48">
+        <v>1.05</v>
+      </c>
+      <c r="Z48">
+        <v>2.76</v>
+      </c>
+      <c r="AA48">
+        <v>3.24</v>
+      </c>
+      <c r="AB48">
+        <v>2.54</v>
+      </c>
+      <c r="AC48">
+        <v>1.04</v>
+      </c>
+      <c r="AD48">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE48">
+        <v>1.38</v>
+      </c>
+      <c r="AF48">
+        <v>3.07</v>
+      </c>
+      <c r="AG48">
+        <v>2.11</v>
+      </c>
+      <c r="AH48">
+        <v>1.65</v>
+      </c>
+      <c r="AI48">
+        <v>1.9</v>
+      </c>
+      <c r="AJ48">
+        <v>1.86</v>
+      </c>
+      <c r="AK48">
+        <v>1.45</v>
+      </c>
+      <c r="AL48">
+        <v>1.3</v>
+      </c>
+      <c r="AM48">
+        <v>1.42</v>
+      </c>
+      <c r="AN48">
+        <v>0.5</v>
+      </c>
+      <c r="AO48">
+        <v>3</v>
+      </c>
+      <c r="AP48">
+        <v>0.33</v>
+      </c>
+      <c r="AQ48">
+        <v>3</v>
+      </c>
+      <c r="AR48">
+        <v>1.4</v>
+      </c>
+      <c r="AS48">
+        <v>1.21</v>
+      </c>
+      <c r="AT48">
+        <v>2.61</v>
+      </c>
+      <c r="AU48">
+        <v>4</v>
+      </c>
+      <c r="AV48">
+        <v>5</v>
+      </c>
+      <c r="AW48">
+        <v>8</v>
+      </c>
+      <c r="AX48">
+        <v>8</v>
+      </c>
+      <c r="AY48">
+        <v>12</v>
+      </c>
+      <c r="AZ48">
+        <v>13</v>
+      </c>
+      <c r="BA48">
+        <v>6</v>
+      </c>
+      <c r="BB48">
+        <v>1</v>
+      </c>
+      <c r="BC48">
+        <v>7</v>
+      </c>
+      <c r="BD48">
+        <v>1.93</v>
+      </c>
+      <c r="BE48">
+        <v>8.4</v>
+      </c>
+      <c r="BF48">
+        <v>2.08</v>
+      </c>
+      <c r="BG48">
+        <v>1.29</v>
+      </c>
+      <c r="BH48">
+        <v>3.3</v>
+      </c>
+      <c r="BI48">
+        <v>1.5</v>
+      </c>
+      <c r="BJ48">
+        <v>2.55</v>
+      </c>
+      <c r="BK48">
+        <v>1.83</v>
+      </c>
+      <c r="BL48">
+        <v>1.97</v>
+      </c>
+      <c r="BM48">
+        <v>2.29</v>
+      </c>
+      <c r="BN48">
+        <v>1.6</v>
+      </c>
+      <c r="BO48">
+        <v>2.88</v>
+      </c>
+      <c r="BP48">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="155">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -376,6 +376,12 @@
     <t>['4', '39']</t>
   </si>
   <si>
+    <t>['72', '86']</t>
+  </si>
+  <si>
+    <t>['35', '38', '74']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -464,6 +470,15 @@
   </si>
   <si>
     <t>['14', '45+5']</t>
+  </si>
+  <si>
+    <t>['6', '60']</t>
+  </si>
+  <si>
+    <t>['25']</t>
+  </si>
+  <si>
+    <t>['14']</t>
   </si>
 </sst>
 </file>
@@ -825,7 +840,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP48"/>
+  <dimension ref="A1:BP51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1084,7 +1099,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1290,7 +1305,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1496,7 +1511,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -1702,7 +1717,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1908,7 +1923,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q6">
         <v>3.41</v>
@@ -1989,7 +2004,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ6">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2114,7 +2129,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2192,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2320,7 +2335,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2526,7 +2541,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2604,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -2732,7 +2747,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q10">
         <v>3.18</v>
@@ -3225,7 +3240,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ12">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3968,7 +3983,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4174,7 +4189,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4380,7 +4395,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -4458,10 +4473,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ18">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR18">
         <v>1.29</v>
@@ -4664,7 +4679,7 @@
         <v>2</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ19">
         <v>1.4</v>
@@ -4873,7 +4888,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ20">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>1.46</v>
@@ -4998,7 +5013,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5204,7 +5219,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5410,7 +5425,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5616,7 +5631,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -5822,7 +5837,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5900,7 +5915,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ25">
         <v>3</v>
@@ -6234,7 +6249,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6440,7 +6455,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6646,7 +6661,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7264,7 +7279,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7676,7 +7691,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -7754,7 +7769,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ34">
         <v>3</v>
@@ -7882,7 +7897,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -7963,7 +7978,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ35">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR35">
         <v>0.51</v>
@@ -8375,7 +8390,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ37">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR37">
         <v>1.36</v>
@@ -8500,7 +8515,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -8706,7 +8721,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -8787,7 +8802,7 @@
         <v>0</v>
       </c>
       <c r="AQ39">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR39">
         <v>0</v>
@@ -8912,7 +8927,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9118,7 +9133,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9736,7 +9751,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10148,7 +10163,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10354,7 +10369,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10560,7 +10575,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -10716,6 +10731,624 @@
         <v>2.88</v>
       </c>
       <c r="BP48">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7343695</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45387.79166666666</v>
+      </c>
+      <c r="F49">
+        <v>7</v>
+      </c>
+      <c r="G49" t="s">
+        <v>79</v>
+      </c>
+      <c r="H49" t="s">
+        <v>82</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="M49">
+        <v>2</v>
+      </c>
+      <c r="N49">
+        <v>4</v>
+      </c>
+      <c r="O49" t="s">
+        <v>120</v>
+      </c>
+      <c r="P49" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q49">
+        <v>3.5</v>
+      </c>
+      <c r="R49">
+        <v>2.2</v>
+      </c>
+      <c r="S49">
+        <v>3</v>
+      </c>
+      <c r="T49">
+        <v>1.4</v>
+      </c>
+      <c r="U49">
+        <v>2.75</v>
+      </c>
+      <c r="V49">
+        <v>2.75</v>
+      </c>
+      <c r="W49">
+        <v>1.4</v>
+      </c>
+      <c r="X49">
+        <v>8</v>
+      </c>
+      <c r="Y49">
+        <v>1.08</v>
+      </c>
+      <c r="Z49">
+        <v>2.85</v>
+      </c>
+      <c r="AA49">
+        <v>3.45</v>
+      </c>
+      <c r="AB49">
+        <v>2.33</v>
+      </c>
+      <c r="AC49">
+        <v>1.05</v>
+      </c>
+      <c r="AD49">
+        <v>8.5</v>
+      </c>
+      <c r="AE49">
+        <v>1.28</v>
+      </c>
+      <c r="AF49">
+        <v>3.45</v>
+      </c>
+      <c r="AG49">
+        <v>1.93</v>
+      </c>
+      <c r="AH49">
+        <v>1.83</v>
+      </c>
+      <c r="AI49">
+        <v>1.67</v>
+      </c>
+      <c r="AJ49">
+        <v>2.1</v>
+      </c>
+      <c r="AK49">
+        <v>1.55</v>
+      </c>
+      <c r="AL49">
+        <v>1.25</v>
+      </c>
+      <c r="AM49">
+        <v>1.4</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
+        <v>1.5</v>
+      </c>
+      <c r="AP49">
+        <v>1</v>
+      </c>
+      <c r="AQ49">
+        <v>1.33</v>
+      </c>
+      <c r="AR49">
+        <v>1.39</v>
+      </c>
+      <c r="AS49">
+        <v>1.51</v>
+      </c>
+      <c r="AT49">
+        <v>2.9</v>
+      </c>
+      <c r="AU49">
+        <v>7</v>
+      </c>
+      <c r="AV49">
+        <v>6</v>
+      </c>
+      <c r="AW49">
+        <v>1</v>
+      </c>
+      <c r="AX49">
+        <v>6</v>
+      </c>
+      <c r="AY49">
+        <v>8</v>
+      </c>
+      <c r="AZ49">
+        <v>12</v>
+      </c>
+      <c r="BA49">
+        <v>5</v>
+      </c>
+      <c r="BB49">
+        <v>0</v>
+      </c>
+      <c r="BC49">
+        <v>5</v>
+      </c>
+      <c r="BD49">
+        <v>2.2</v>
+      </c>
+      <c r="BE49">
+        <v>8</v>
+      </c>
+      <c r="BF49">
+        <v>1.91</v>
+      </c>
+      <c r="BG49">
+        <v>1.25</v>
+      </c>
+      <c r="BH49">
+        <v>3.42</v>
+      </c>
+      <c r="BI49">
+        <v>1.46</v>
+      </c>
+      <c r="BJ49">
+        <v>2.52</v>
+      </c>
+      <c r="BK49">
+        <v>1.8</v>
+      </c>
+      <c r="BL49">
+        <v>1.9</v>
+      </c>
+      <c r="BM49">
+        <v>2.37</v>
+      </c>
+      <c r="BN49">
+        <v>1.51</v>
+      </c>
+      <c r="BO49">
+        <v>3.2</v>
+      </c>
+      <c r="BP49">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7343694</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45388.41666666666</v>
+      </c>
+      <c r="F50">
+        <v>7</v>
+      </c>
+      <c r="G50" t="s">
+        <v>77</v>
+      </c>
+      <c r="H50" t="s">
+        <v>78</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>3</v>
+      </c>
+      <c r="L50">
+        <v>3</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>4</v>
+      </c>
+      <c r="O50" t="s">
+        <v>121</v>
+      </c>
+      <c r="P50" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q50">
+        <v>3.2</v>
+      </c>
+      <c r="R50">
+        <v>2</v>
+      </c>
+      <c r="S50">
+        <v>3.5</v>
+      </c>
+      <c r="T50">
+        <v>1.52</v>
+      </c>
+      <c r="U50">
+        <v>2.39</v>
+      </c>
+      <c r="V50">
+        <v>3.4</v>
+      </c>
+      <c r="W50">
+        <v>1.28</v>
+      </c>
+      <c r="X50">
+        <v>9.4</v>
+      </c>
+      <c r="Y50">
+        <v>1.03</v>
+      </c>
+      <c r="Z50">
+        <v>2.5</v>
+      </c>
+      <c r="AA50">
+        <v>2.95</v>
+      </c>
+      <c r="AB50">
+        <v>2.85</v>
+      </c>
+      <c r="AC50">
+        <v>1.09</v>
+      </c>
+      <c r="AD50">
+        <v>6</v>
+      </c>
+      <c r="AE50">
+        <v>1.48</v>
+      </c>
+      <c r="AF50">
+        <v>2.5</v>
+      </c>
+      <c r="AG50">
+        <v>2.48</v>
+      </c>
+      <c r="AH50">
+        <v>1.5</v>
+      </c>
+      <c r="AI50">
+        <v>2.08</v>
+      </c>
+      <c r="AJ50">
+        <v>1.71</v>
+      </c>
+      <c r="AK50">
+        <v>1.36</v>
+      </c>
+      <c r="AL50">
+        <v>1.36</v>
+      </c>
+      <c r="AM50">
+        <v>1.45</v>
+      </c>
+      <c r="AN50">
+        <v>2</v>
+      </c>
+      <c r="AO50">
+        <v>1.33</v>
+      </c>
+      <c r="AP50">
+        <v>2.25</v>
+      </c>
+      <c r="AQ50">
+        <v>1</v>
+      </c>
+      <c r="AR50">
+        <v>1.19</v>
+      </c>
+      <c r="AS50">
+        <v>0.85</v>
+      </c>
+      <c r="AT50">
+        <v>2.04</v>
+      </c>
+      <c r="AU50">
+        <v>6</v>
+      </c>
+      <c r="AV50">
+        <v>4</v>
+      </c>
+      <c r="AW50">
+        <v>4</v>
+      </c>
+      <c r="AX50">
+        <v>5</v>
+      </c>
+      <c r="AY50">
+        <v>10</v>
+      </c>
+      <c r="AZ50">
+        <v>9</v>
+      </c>
+      <c r="BA50">
+        <v>4</v>
+      </c>
+      <c r="BB50">
+        <v>2</v>
+      </c>
+      <c r="BC50">
+        <v>6</v>
+      </c>
+      <c r="BD50">
+        <v>1.83</v>
+      </c>
+      <c r="BE50">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF50">
+        <v>2.22</v>
+      </c>
+      <c r="BG50">
+        <v>1.31</v>
+      </c>
+      <c r="BH50">
+        <v>3.04</v>
+      </c>
+      <c r="BI50">
+        <v>1.57</v>
+      </c>
+      <c r="BJ50">
+        <v>2.19</v>
+      </c>
+      <c r="BK50">
+        <v>1.95</v>
+      </c>
+      <c r="BL50">
+        <v>1.77</v>
+      </c>
+      <c r="BM50">
+        <v>2.6</v>
+      </c>
+      <c r="BN50">
+        <v>1.41</v>
+      </c>
+      <c r="BO50">
+        <v>3.65</v>
+      </c>
+      <c r="BP50">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7343699</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45388.52083333334</v>
+      </c>
+      <c r="F51">
+        <v>7</v>
+      </c>
+      <c r="G51" t="s">
+        <v>75</v>
+      </c>
+      <c r="H51" t="s">
+        <v>72</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51" t="s">
+        <v>91</v>
+      </c>
+      <c r="P51" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q51">
+        <v>2.63</v>
+      </c>
+      <c r="R51">
+        <v>2.1</v>
+      </c>
+      <c r="S51">
+        <v>4.75</v>
+      </c>
+      <c r="T51">
+        <v>1.44</v>
+      </c>
+      <c r="U51">
+        <v>2.63</v>
+      </c>
+      <c r="V51">
+        <v>3.25</v>
+      </c>
+      <c r="W51">
+        <v>1.33</v>
+      </c>
+      <c r="X51">
+        <v>9</v>
+      </c>
+      <c r="Y51">
+        <v>1.07</v>
+      </c>
+      <c r="Z51">
+        <v>1.88</v>
+      </c>
+      <c r="AA51">
+        <v>3.35</v>
+      </c>
+      <c r="AB51">
+        <v>3.45</v>
+      </c>
+      <c r="AC51">
+        <v>1.06</v>
+      </c>
+      <c r="AD51">
+        <v>8</v>
+      </c>
+      <c r="AE51">
+        <v>1.36</v>
+      </c>
+      <c r="AF51">
+        <v>3</v>
+      </c>
+      <c r="AG51">
+        <v>1.97</v>
+      </c>
+      <c r="AH51">
+        <v>1.83</v>
+      </c>
+      <c r="AI51">
+        <v>1.91</v>
+      </c>
+      <c r="AJ51">
+        <v>1.8</v>
+      </c>
+      <c r="AK51">
+        <v>1.2</v>
+      </c>
+      <c r="AL51">
+        <v>1.25</v>
+      </c>
+      <c r="AM51">
+        <v>1.83</v>
+      </c>
+      <c r="AN51">
+        <v>0.33</v>
+      </c>
+      <c r="AO51">
+        <v>0.5</v>
+      </c>
+      <c r="AP51">
+        <v>0.5</v>
+      </c>
+      <c r="AQ51">
+        <v>0.67</v>
+      </c>
+      <c r="AR51">
+        <v>1.16</v>
+      </c>
+      <c r="AS51">
+        <v>0.92</v>
+      </c>
+      <c r="AT51">
+        <v>2.08</v>
+      </c>
+      <c r="AU51">
+        <v>3</v>
+      </c>
+      <c r="AV51">
+        <v>0</v>
+      </c>
+      <c r="AW51">
+        <v>9</v>
+      </c>
+      <c r="AX51">
+        <v>2</v>
+      </c>
+      <c r="AY51">
+        <v>12</v>
+      </c>
+      <c r="AZ51">
+        <v>2</v>
+      </c>
+      <c r="BA51">
+        <v>4</v>
+      </c>
+      <c r="BB51">
+        <v>2</v>
+      </c>
+      <c r="BC51">
+        <v>6</v>
+      </c>
+      <c r="BD51">
+        <v>1.57</v>
+      </c>
+      <c r="BE51">
+        <v>8.5</v>
+      </c>
+      <c r="BF51">
+        <v>2.75</v>
+      </c>
+      <c r="BG51">
+        <v>1.2</v>
+      </c>
+      <c r="BH51">
+        <v>3.84</v>
+      </c>
+      <c r="BI51">
+        <v>1.41</v>
+      </c>
+      <c r="BJ51">
+        <v>2.7</v>
+      </c>
+      <c r="BK51">
+        <v>1.73</v>
+      </c>
+      <c r="BL51">
+        <v>2</v>
+      </c>
+      <c r="BM51">
+        <v>2.2</v>
+      </c>
+      <c r="BN51">
+        <v>1.6</v>
+      </c>
+      <c r="BO51">
+        <v>2.9</v>
+      </c>
+      <c r="BP51">
         <v>1.36</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="160">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -379,7 +379,19 @@
     <t>['72', '86']</t>
   </si>
   <si>
-    <t>['35', '38', '74']</t>
+    <t>['33', '37', '74']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['31']</t>
+  </si>
+  <si>
+    <t>['6', '16', '18']</t>
+  </si>
+  <si>
+    <t>['14']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -472,13 +484,16 @@
     <t>['14', '45+5']</t>
   </si>
   <si>
-    <t>['6', '60']</t>
-  </si>
-  <si>
-    <t>['25']</t>
-  </si>
-  <si>
-    <t>['14']</t>
+    <t>['5', '60']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['28', '68', '76']</t>
   </si>
 </sst>
 </file>
@@ -840,7 +855,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP51"/>
+  <dimension ref="A1:BP55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1099,7 +1114,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1177,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ2">
         <v>0.67</v>
@@ -1305,7 +1320,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1383,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ3">
         <v>1.4</v>
@@ -1511,7 +1526,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -1592,7 +1607,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ4">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1717,7 +1732,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1923,7 +1938,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q6">
         <v>3.41</v>
@@ -2001,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2129,7 +2144,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2210,7 +2225,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2335,7 +2350,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2541,7 +2556,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2747,7 +2762,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q10">
         <v>3.18</v>
@@ -3983,7 +3998,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4061,10 +4076,10 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ16">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR16">
         <v>1.34</v>
@@ -4189,7 +4204,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4270,7 +4285,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ17">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR17">
         <v>1.17</v>
@@ -4395,7 +4410,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -4885,7 +4900,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5013,7 +5028,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5091,7 +5106,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ21">
         <v>3</v>
@@ -5219,7 +5234,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5425,7 +5440,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5631,7 +5646,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -5837,7 +5852,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6249,7 +6264,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6455,7 +6470,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6661,7 +6676,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7279,7 +7294,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7360,7 +7375,7 @@
         <v>1</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR32">
         <v>1.15</v>
@@ -7563,7 +7578,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ33">
         <v>0.67</v>
@@ -7691,7 +7706,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -7897,7 +7912,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8181,10 +8196,10 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ36">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR36">
         <v>1.8</v>
@@ -8515,7 +8530,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -8593,10 +8608,10 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ38">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR38">
         <v>1.34</v>
@@ -8721,7 +8736,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -8799,7 +8814,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -8927,7 +8942,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9133,7 +9148,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9751,7 +9766,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10163,7 +10178,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10369,7 +10384,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10575,7 +10590,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -10781,7 +10796,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -10987,7 +11002,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11190,10 +11205,10 @@
         <v>2</v>
       </c>
       <c r="O51" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11350,6 +11365,830 @@
       </c>
       <c r="BP51">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7343696</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45388.625</v>
+      </c>
+      <c r="F52">
+        <v>7</v>
+      </c>
+      <c r="G52" t="s">
+        <v>85</v>
+      </c>
+      <c r="H52" t="s">
+        <v>84</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>2</v>
+      </c>
+      <c r="O52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P52" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q52">
+        <v>3.2</v>
+      </c>
+      <c r="R52">
+        <v>2</v>
+      </c>
+      <c r="S52">
+        <v>3.75</v>
+      </c>
+      <c r="T52">
+        <v>1.5</v>
+      </c>
+      <c r="U52">
+        <v>2.5</v>
+      </c>
+      <c r="V52">
+        <v>3.4</v>
+      </c>
+      <c r="W52">
+        <v>1.3</v>
+      </c>
+      <c r="X52">
+        <v>10</v>
+      </c>
+      <c r="Y52">
+        <v>1.06</v>
+      </c>
+      <c r="Z52">
+        <v>2.23</v>
+      </c>
+      <c r="AA52">
+        <v>2.98</v>
+      </c>
+      <c r="AB52">
+        <v>2.79</v>
+      </c>
+      <c r="AC52">
+        <v>1.07</v>
+      </c>
+      <c r="AD52">
+        <v>7.5</v>
+      </c>
+      <c r="AE52">
+        <v>1.38</v>
+      </c>
+      <c r="AF52">
+        <v>2.9</v>
+      </c>
+      <c r="AG52">
+        <v>2.03</v>
+      </c>
+      <c r="AH52">
+        <v>1.57</v>
+      </c>
+      <c r="AI52">
+        <v>1.83</v>
+      </c>
+      <c r="AJ52">
+        <v>1.83</v>
+      </c>
+      <c r="AK52">
+        <v>1.36</v>
+      </c>
+      <c r="AL52">
+        <v>1.3</v>
+      </c>
+      <c r="AM52">
+        <v>1.55</v>
+      </c>
+      <c r="AN52">
+        <v>0</v>
+      </c>
+      <c r="AO52">
+        <v>2.33</v>
+      </c>
+      <c r="AP52">
+        <v>0.5</v>
+      </c>
+      <c r="AQ52">
+        <v>2</v>
+      </c>
+      <c r="AR52">
+        <v>1.3</v>
+      </c>
+      <c r="AS52">
+        <v>1.28</v>
+      </c>
+      <c r="AT52">
+        <v>2.58</v>
+      </c>
+      <c r="AU52">
+        <v>3</v>
+      </c>
+      <c r="AV52">
+        <v>3</v>
+      </c>
+      <c r="AW52">
+        <v>2</v>
+      </c>
+      <c r="AX52">
+        <v>9</v>
+      </c>
+      <c r="AY52">
+        <v>5</v>
+      </c>
+      <c r="AZ52">
+        <v>12</v>
+      </c>
+      <c r="BA52">
+        <v>4</v>
+      </c>
+      <c r="BB52">
+        <v>3</v>
+      </c>
+      <c r="BC52">
+        <v>7</v>
+      </c>
+      <c r="BD52">
+        <v>1.83</v>
+      </c>
+      <c r="BE52">
+        <v>8</v>
+      </c>
+      <c r="BF52">
+        <v>2.2</v>
+      </c>
+      <c r="BG52">
+        <v>1.2</v>
+      </c>
+      <c r="BH52">
+        <v>3.84</v>
+      </c>
+      <c r="BI52">
+        <v>1.39</v>
+      </c>
+      <c r="BJ52">
+        <v>2.77</v>
+      </c>
+      <c r="BK52">
+        <v>1.73</v>
+      </c>
+      <c r="BL52">
+        <v>2</v>
+      </c>
+      <c r="BM52">
+        <v>2.2</v>
+      </c>
+      <c r="BN52">
+        <v>1.6</v>
+      </c>
+      <c r="BO52">
+        <v>2.95</v>
+      </c>
+      <c r="BP52">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7343698</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45388.75</v>
+      </c>
+      <c r="F53">
+        <v>7</v>
+      </c>
+      <c r="G53" t="s">
+        <v>70</v>
+      </c>
+      <c r="H53" t="s">
+        <v>76</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53" t="s">
+        <v>123</v>
+      </c>
+      <c r="P53" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q53">
+        <v>2.1</v>
+      </c>
+      <c r="R53">
+        <v>2.2</v>
+      </c>
+      <c r="S53">
+        <v>7</v>
+      </c>
+      <c r="T53">
+        <v>1.44</v>
+      </c>
+      <c r="U53">
+        <v>2.63</v>
+      </c>
+      <c r="V53">
+        <v>3.25</v>
+      </c>
+      <c r="W53">
+        <v>1.33</v>
+      </c>
+      <c r="X53">
+        <v>9</v>
+      </c>
+      <c r="Y53">
+        <v>1.07</v>
+      </c>
+      <c r="Z53">
+        <v>1.5</v>
+      </c>
+      <c r="AA53">
+        <v>3.48</v>
+      </c>
+      <c r="AB53">
+        <v>5.3</v>
+      </c>
+      <c r="AC53">
+        <v>1.05</v>
+      </c>
+      <c r="AD53">
+        <v>8.5</v>
+      </c>
+      <c r="AE53">
+        <v>1.33</v>
+      </c>
+      <c r="AF53">
+        <v>3.1</v>
+      </c>
+      <c r="AG53">
+        <v>1.98</v>
+      </c>
+      <c r="AH53">
+        <v>1.6</v>
+      </c>
+      <c r="AI53">
+        <v>2.25</v>
+      </c>
+      <c r="AJ53">
+        <v>1.57</v>
+      </c>
+      <c r="AK53">
+        <v>1.08</v>
+      </c>
+      <c r="AL53">
+        <v>1.18</v>
+      </c>
+      <c r="AM53">
+        <v>2.45</v>
+      </c>
+      <c r="AN53">
+        <v>2.33</v>
+      </c>
+      <c r="AO53">
+        <v>2</v>
+      </c>
+      <c r="AP53">
+        <v>2.5</v>
+      </c>
+      <c r="AQ53">
+        <v>1.33</v>
+      </c>
+      <c r="AR53">
+        <v>1.73</v>
+      </c>
+      <c r="AS53">
+        <v>0.98</v>
+      </c>
+      <c r="AT53">
+        <v>2.71</v>
+      </c>
+      <c r="AU53">
+        <v>7</v>
+      </c>
+      <c r="AV53">
+        <v>3</v>
+      </c>
+      <c r="AW53">
+        <v>7</v>
+      </c>
+      <c r="AX53">
+        <v>4</v>
+      </c>
+      <c r="AY53">
+        <v>14</v>
+      </c>
+      <c r="AZ53">
+        <v>7</v>
+      </c>
+      <c r="BA53">
+        <v>4</v>
+      </c>
+      <c r="BB53">
+        <v>1</v>
+      </c>
+      <c r="BC53">
+        <v>5</v>
+      </c>
+      <c r="BD53">
+        <v>1.5</v>
+      </c>
+      <c r="BE53">
+        <v>8.5</v>
+      </c>
+      <c r="BF53">
+        <v>3.1</v>
+      </c>
+      <c r="BG53">
+        <v>1.29</v>
+      </c>
+      <c r="BH53">
+        <v>3.3</v>
+      </c>
+      <c r="BI53">
+        <v>1.56</v>
+      </c>
+      <c r="BJ53">
+        <v>2.27</v>
+      </c>
+      <c r="BK53">
+        <v>1.95</v>
+      </c>
+      <c r="BL53">
+        <v>1.77</v>
+      </c>
+      <c r="BM53">
+        <v>2.62</v>
+      </c>
+      <c r="BN53">
+        <v>1.43</v>
+      </c>
+      <c r="BO53">
+        <v>3.65</v>
+      </c>
+      <c r="BP53">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7343700</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45389.41666666666</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54" t="s">
+        <v>74</v>
+      </c>
+      <c r="H54" t="s">
+        <v>83</v>
+      </c>
+      <c r="I54">
+        <v>3</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>3</v>
+      </c>
+      <c r="L54">
+        <v>3</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>3</v>
+      </c>
+      <c r="O54" t="s">
+        <v>124</v>
+      </c>
+      <c r="P54" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q54">
+        <v>3</v>
+      </c>
+      <c r="R54">
+        <v>2.05</v>
+      </c>
+      <c r="S54">
+        <v>4</v>
+      </c>
+      <c r="T54">
+        <v>1.44</v>
+      </c>
+      <c r="U54">
+        <v>2.63</v>
+      </c>
+      <c r="V54">
+        <v>3.25</v>
+      </c>
+      <c r="W54">
+        <v>1.33</v>
+      </c>
+      <c r="X54">
+        <v>10</v>
+      </c>
+      <c r="Y54">
+        <v>1.06</v>
+      </c>
+      <c r="Z54">
+        <v>2.15</v>
+      </c>
+      <c r="AA54">
+        <v>3.2</v>
+      </c>
+      <c r="AB54">
+        <v>3.1</v>
+      </c>
+      <c r="AC54">
+        <v>1.07</v>
+      </c>
+      <c r="AD54">
+        <v>7.5</v>
+      </c>
+      <c r="AE54">
+        <v>1.38</v>
+      </c>
+      <c r="AF54">
+        <v>2.9</v>
+      </c>
+      <c r="AG54">
+        <v>2.1</v>
+      </c>
+      <c r="AH54">
+        <v>1.65</v>
+      </c>
+      <c r="AI54">
+        <v>1.91</v>
+      </c>
+      <c r="AJ54">
+        <v>1.8</v>
+      </c>
+      <c r="AK54">
+        <v>1.33</v>
+      </c>
+      <c r="AL54">
+        <v>1.28</v>
+      </c>
+      <c r="AM54">
+        <v>1.62</v>
+      </c>
+      <c r="AN54">
+        <v>0.67</v>
+      </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <v>1.25</v>
+      </c>
+      <c r="AQ54">
+        <v>0</v>
+      </c>
+      <c r="AR54">
+        <v>1.15</v>
+      </c>
+      <c r="AS54">
+        <v>1.02</v>
+      </c>
+      <c r="AT54">
+        <v>2.17</v>
+      </c>
+      <c r="AU54">
+        <v>5</v>
+      </c>
+      <c r="AV54">
+        <v>2</v>
+      </c>
+      <c r="AW54">
+        <v>5</v>
+      </c>
+      <c r="AX54">
+        <v>2</v>
+      </c>
+      <c r="AY54">
+        <v>10</v>
+      </c>
+      <c r="AZ54">
+        <v>4</v>
+      </c>
+      <c r="BA54">
+        <v>2</v>
+      </c>
+      <c r="BB54">
+        <v>4</v>
+      </c>
+      <c r="BC54">
+        <v>6</v>
+      </c>
+      <c r="BD54">
+        <v>1.61</v>
+      </c>
+      <c r="BE54">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF54">
+        <v>2.62</v>
+      </c>
+      <c r="BG54">
+        <v>1.25</v>
+      </c>
+      <c r="BH54">
+        <v>3.42</v>
+      </c>
+      <c r="BI54">
+        <v>1.47</v>
+      </c>
+      <c r="BJ54">
+        <v>2.42</v>
+      </c>
+      <c r="BK54">
+        <v>1.8</v>
+      </c>
+      <c r="BL54">
+        <v>1.9</v>
+      </c>
+      <c r="BM54">
+        <v>2.32</v>
+      </c>
+      <c r="BN54">
+        <v>1.51</v>
+      </c>
+      <c r="BO54">
+        <v>3.18</v>
+      </c>
+      <c r="BP54">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7343693</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45389.625</v>
+      </c>
+      <c r="F55">
+        <v>7</v>
+      </c>
+      <c r="G55" t="s">
+        <v>71</v>
+      </c>
+      <c r="H55" t="s">
+        <v>81</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>3</v>
+      </c>
+      <c r="N55">
+        <v>4</v>
+      </c>
+      <c r="O55" t="s">
+        <v>125</v>
+      </c>
+      <c r="P55" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q55">
+        <v>3.2</v>
+      </c>
+      <c r="R55">
+        <v>1.9</v>
+      </c>
+      <c r="S55">
+        <v>3.58</v>
+      </c>
+      <c r="T55">
+        <v>1.53</v>
+      </c>
+      <c r="U55">
+        <v>2.4</v>
+      </c>
+      <c r="V55">
+        <v>3.54</v>
+      </c>
+      <c r="W55">
+        <v>1.27</v>
+      </c>
+      <c r="X55">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Y55">
+        <v>1.03</v>
+      </c>
+      <c r="Z55">
+        <v>2.6</v>
+      </c>
+      <c r="AA55">
+        <v>2.85</v>
+      </c>
+      <c r="AB55">
+        <v>2.85</v>
+      </c>
+      <c r="AC55">
+        <v>1.12</v>
+      </c>
+      <c r="AD55">
+        <v>5.3</v>
+      </c>
+      <c r="AE55">
+        <v>1.5</v>
+      </c>
+      <c r="AF55">
+        <v>2.47</v>
+      </c>
+      <c r="AG55">
+        <v>2.4</v>
+      </c>
+      <c r="AH55">
+        <v>1.5</v>
+      </c>
+      <c r="AI55">
+        <v>2.01</v>
+      </c>
+      <c r="AJ55">
+        <v>1.76</v>
+      </c>
+      <c r="AK55">
+        <v>1.38</v>
+      </c>
+      <c r="AL55">
+        <v>1.34</v>
+      </c>
+      <c r="AM55">
+        <v>1.46</v>
+      </c>
+      <c r="AN55">
+        <v>0.33</v>
+      </c>
+      <c r="AO55">
+        <v>1</v>
+      </c>
+      <c r="AP55">
+        <v>0.25</v>
+      </c>
+      <c r="AQ55">
+        <v>1.67</v>
+      </c>
+      <c r="AR55">
+        <v>1.09</v>
+      </c>
+      <c r="AS55">
+        <v>1.32</v>
+      </c>
+      <c r="AT55">
+        <v>2.41</v>
+      </c>
+      <c r="AU55">
+        <v>6</v>
+      </c>
+      <c r="AV55">
+        <v>3</v>
+      </c>
+      <c r="AW55">
+        <v>2</v>
+      </c>
+      <c r="AX55">
+        <v>0</v>
+      </c>
+      <c r="AY55">
+        <v>8</v>
+      </c>
+      <c r="AZ55">
+        <v>3</v>
+      </c>
+      <c r="BA55">
+        <v>4</v>
+      </c>
+      <c r="BB55">
+        <v>1</v>
+      </c>
+      <c r="BC55">
+        <v>5</v>
+      </c>
+      <c r="BD55">
+        <v>1.53</v>
+      </c>
+      <c r="BE55">
+        <v>8</v>
+      </c>
+      <c r="BF55">
+        <v>2.88</v>
+      </c>
+      <c r="BG55">
+        <v>1.29</v>
+      </c>
+      <c r="BH55">
+        <v>3.2</v>
+      </c>
+      <c r="BI55">
+        <v>1.48</v>
+      </c>
+      <c r="BJ55">
+        <v>2.47</v>
+      </c>
+      <c r="BK55">
+        <v>1.85</v>
+      </c>
+      <c r="BL55">
+        <v>1.85</v>
+      </c>
+      <c r="BM55">
+        <v>2.37</v>
+      </c>
+      <c r="BN55">
+        <v>1.51</v>
+      </c>
+      <c r="BO55">
+        <v>3.2</v>
+      </c>
+      <c r="BP55">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="161">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -494,6 +494,9 @@
   </si>
   <si>
     <t>['28', '68', '76']</t>
+  </si>
+  <si>
+    <t>['72', '79']</t>
   </si>
 </sst>
 </file>
@@ -855,7 +858,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP55"/>
+  <dimension ref="A1:BP56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1810,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
         <v>3</v>
@@ -8402,7 +8405,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ37">
         <v>1.33</v>
@@ -11301,22 +11304,22 @@
         <v>2.08</v>
       </c>
       <c r="AU51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW51">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY51">
         <v>12</v>
       </c>
       <c r="AZ51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA51">
         <v>4</v>
@@ -11510,19 +11513,19 @@
         <v>3</v>
       </c>
       <c r="AV52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW52">
         <v>2</v>
       </c>
       <c r="AX52">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY52">
         <v>5</v>
       </c>
       <c r="AZ52">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA52">
         <v>4</v>
@@ -11716,19 +11719,19 @@
         <v>7</v>
       </c>
       <c r="AV53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW53">
         <v>7</v>
       </c>
       <c r="AX53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY53">
         <v>14</v>
       </c>
       <c r="AZ53">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA53">
         <v>4</v>
@@ -12128,28 +12131,28 @@
         <v>6</v>
       </c>
       <c r="AV55">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AW55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX55">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AY55">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ55">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="BA55">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BB55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC55">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BD55">
         <v>1.53</v>
@@ -12189,6 +12192,212 @@
       </c>
       <c r="BP55">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7343697</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45389.75</v>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+      <c r="G56" t="s">
+        <v>73</v>
+      </c>
+      <c r="H56" t="s">
+        <v>80</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>2</v>
+      </c>
+      <c r="N56">
+        <v>3</v>
+      </c>
+      <c r="O56" t="s">
+        <v>103</v>
+      </c>
+      <c r="P56" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q56">
+        <v>5.49</v>
+      </c>
+      <c r="R56">
+        <v>2.27</v>
+      </c>
+      <c r="S56">
+        <v>2.3</v>
+      </c>
+      <c r="T56">
+        <v>1.4</v>
+      </c>
+      <c r="U56">
+        <v>2.94</v>
+      </c>
+      <c r="V56">
+        <v>3.01</v>
+      </c>
+      <c r="W56">
+        <v>1.39</v>
+      </c>
+      <c r="X56">
+        <v>7.4</v>
+      </c>
+      <c r="Y56">
+        <v>1.07</v>
+      </c>
+      <c r="Z56">
+        <v>4.6</v>
+      </c>
+      <c r="AA56">
+        <v>3.65</v>
+      </c>
+      <c r="AB56">
+        <v>1.67</v>
+      </c>
+      <c r="AC56">
+        <v>1.04</v>
+      </c>
+      <c r="AD56">
+        <v>8.5</v>
+      </c>
+      <c r="AE56">
+        <v>1.3</v>
+      </c>
+      <c r="AF56">
+        <v>3.2</v>
+      </c>
+      <c r="AG56">
+        <v>1.9</v>
+      </c>
+      <c r="AH56">
+        <v>1.8</v>
+      </c>
+      <c r="AI56">
+        <v>1.87</v>
+      </c>
+      <c r="AJ56">
+        <v>1.89</v>
+      </c>
+      <c r="AK56">
+        <v>1.88</v>
+      </c>
+      <c r="AL56">
+        <v>1.23</v>
+      </c>
+      <c r="AM56">
+        <v>1.17</v>
+      </c>
+      <c r="AN56">
+        <v>1.5</v>
+      </c>
+      <c r="AO56">
+        <v>3</v>
+      </c>
+      <c r="AP56">
+        <v>1</v>
+      </c>
+      <c r="AQ56">
+        <v>3</v>
+      </c>
+      <c r="AR56">
+        <v>1.16</v>
+      </c>
+      <c r="AS56">
+        <v>1.42</v>
+      </c>
+      <c r="AT56">
+        <v>2.58</v>
+      </c>
+      <c r="AU56">
+        <v>5</v>
+      </c>
+      <c r="AV56">
+        <v>6</v>
+      </c>
+      <c r="AW56">
+        <v>1</v>
+      </c>
+      <c r="AX56">
+        <v>6</v>
+      </c>
+      <c r="AY56">
+        <v>6</v>
+      </c>
+      <c r="AZ56">
+        <v>12</v>
+      </c>
+      <c r="BA56">
+        <v>3</v>
+      </c>
+      <c r="BB56">
+        <v>10</v>
+      </c>
+      <c r="BC56">
+        <v>13</v>
+      </c>
+      <c r="BD56">
+        <v>3.14</v>
+      </c>
+      <c r="BE56">
+        <v>9.1</v>
+      </c>
+      <c r="BF56">
+        <v>1.45</v>
+      </c>
+      <c r="BG56">
+        <v>1.26</v>
+      </c>
+      <c r="BH56">
+        <v>3.34</v>
+      </c>
+      <c r="BI56">
+        <v>1.5</v>
+      </c>
+      <c r="BJ56">
+        <v>2.35</v>
+      </c>
+      <c r="BK56">
+        <v>1.85</v>
+      </c>
+      <c r="BL56">
+        <v>1.81</v>
+      </c>
+      <c r="BM56">
+        <v>2.4</v>
+      </c>
+      <c r="BN56">
+        <v>1.48</v>
+      </c>
+      <c r="BO56">
+        <v>3.28</v>
+      </c>
+      <c r="BP56">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -388,10 +388,13 @@
     <t>['31']</t>
   </si>
   <si>
-    <t>['6', '16', '18']</t>
-  </si>
-  <si>
-    <t>['14']</t>
+    <t>['4', '15', '17']</t>
+  </si>
+  <si>
+    <t>['13']</t>
+  </si>
+  <si>
+    <t>['10']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -454,9 +457,6 @@
     <t>['10', '59', '86']</t>
   </si>
   <si>
-    <t>['10']</t>
-  </si>
-  <si>
     <t>['19', '39']</t>
   </si>
   <si>
@@ -493,7 +493,7 @@
     <t>['12']</t>
   </si>
   <si>
-    <t>['28', '68', '76']</t>
+    <t>['26', '68', '76']</t>
   </si>
   <si>
     <t>['72', '79']</t>
@@ -1117,7 +1117,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1323,7 +1323,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1529,7 +1529,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -1735,7 +1735,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1941,7 +1941,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q6">
         <v>3.41</v>
@@ -2147,7 +2147,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2353,7 +2353,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2559,7 +2559,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2765,7 +2765,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q10">
         <v>3.18</v>
@@ -4001,7 +4001,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4207,7 +4207,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4413,7 +4413,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -5031,7 +5031,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5237,7 +5237,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5443,7 +5443,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5649,7 +5649,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -5855,7 +5855,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6267,7 +6267,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6473,7 +6473,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6679,7 +6679,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7297,7 +7297,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7915,7 +7915,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -12238,7 +12238,7 @@
         <v>3</v>
       </c>
       <c r="O56" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="P56" t="s">
         <v>160</v>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="166">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -397,6 +397,12 @@
     <t>['10']</t>
   </si>
   <si>
+    <t>['3']</t>
+  </si>
+  <si>
+    <t>['7', '62']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -497,6 +503,15 @@
   </si>
   <si>
     <t>['72', '79']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
   </si>
 </sst>
 </file>
@@ -858,7 +873,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP56"/>
+  <dimension ref="A1:BP61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1117,7 +1132,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1198,7 +1213,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ2">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1323,7 +1338,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1529,7 +1544,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -1735,7 +1750,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1813,10 +1828,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ5">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1941,7 +1956,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q6">
         <v>3.41</v>
@@ -2019,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2147,7 +2162,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2353,7 +2368,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2559,7 +2574,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2765,7 +2780,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q10">
         <v>3.18</v>
@@ -2846,7 +2861,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3464,7 +3479,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR13">
         <v>1.13</v>
@@ -3873,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ15">
         <v>0.33</v>
@@ -4001,7 +4016,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4079,7 +4094,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ16">
         <v>2</v>
@@ -4207,7 +4222,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4288,7 +4303,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ17">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR17">
         <v>1.17</v>
@@ -4413,7 +4428,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -5031,7 +5046,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5112,7 +5127,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ21">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AR21">
         <v>1.09</v>
@@ -5237,7 +5252,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5443,7 +5458,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5521,7 +5536,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
         <v>3</v>
@@ -5649,7 +5664,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -5730,7 +5745,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ24">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR24">
         <v>1.1</v>
@@ -5855,7 +5870,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5936,7 +5951,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ25">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AR25">
         <v>1.39</v>
@@ -6267,7 +6282,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6473,7 +6488,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6554,7 +6569,7 @@
         <v>3</v>
       </c>
       <c r="AQ28">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -6679,7 +6694,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -6757,7 +6772,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -7584,7 +7599,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ33">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR33">
         <v>1.12</v>
@@ -7709,7 +7724,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -7915,7 +7930,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -7993,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
         <v>0.67</v>
@@ -8405,7 +8420,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ37">
         <v>1.33</v>
@@ -8533,7 +8548,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -8611,10 +8626,10 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ38">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR38">
         <v>1.34</v>
@@ -8739,7 +8754,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -8945,7 +8960,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9151,7 +9166,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9232,7 +9247,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR41">
         <v>1.1</v>
@@ -9641,10 +9656,10 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR43">
         <v>0.6899999999999999</v>
@@ -9769,7 +9784,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -9850,7 +9865,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ44">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR44">
         <v>1.64</v>
@@ -10053,7 +10068,7 @@
         <v>1.75</v>
       </c>
       <c r="AP45">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ45">
         <v>1.4</v>
@@ -10181,7 +10196,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10387,7 +10402,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10593,7 +10608,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -10674,7 +10689,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ48">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AR48">
         <v>1.4</v>
@@ -10799,7 +10814,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11005,7 +11020,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11211,7 +11226,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11417,7 +11432,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -11704,7 +11719,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ53">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR53">
         <v>1.73</v>
@@ -11907,7 +11922,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ54">
         <v>0</v>
@@ -12035,7 +12050,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12241,7 +12256,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -12319,7 +12334,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ56">
         <v>3</v>
@@ -12398,6 +12413,1036 @@
       </c>
       <c r="BP56">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7343706</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45395.625</v>
+      </c>
+      <c r="F57">
+        <v>8</v>
+      </c>
+      <c r="G57" t="s">
+        <v>84</v>
+      </c>
+      <c r="H57" t="s">
+        <v>79</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57" t="s">
+        <v>127</v>
+      </c>
+      <c r="P57" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q57">
+        <v>3.2</v>
+      </c>
+      <c r="R57">
+        <v>2</v>
+      </c>
+      <c r="S57">
+        <v>3.75</v>
+      </c>
+      <c r="T57">
+        <v>1.5</v>
+      </c>
+      <c r="U57">
+        <v>2.5</v>
+      </c>
+      <c r="V57">
+        <v>3.4</v>
+      </c>
+      <c r="W57">
+        <v>1.3</v>
+      </c>
+      <c r="X57">
+        <v>10</v>
+      </c>
+      <c r="Y57">
+        <v>1.06</v>
+      </c>
+      <c r="Z57">
+        <v>2.35</v>
+      </c>
+      <c r="AA57">
+        <v>3.15</v>
+      </c>
+      <c r="AB57">
+        <v>2.95</v>
+      </c>
+      <c r="AC57">
+        <v>1.07</v>
+      </c>
+      <c r="AD57">
+        <v>7.5</v>
+      </c>
+      <c r="AE57">
+        <v>1.4</v>
+      </c>
+      <c r="AF57">
+        <v>2.8</v>
+      </c>
+      <c r="AG57">
+        <v>2.2</v>
+      </c>
+      <c r="AH57">
+        <v>1.6</v>
+      </c>
+      <c r="AI57">
+        <v>1.91</v>
+      </c>
+      <c r="AJ57">
+        <v>1.8</v>
+      </c>
+      <c r="AK57">
+        <v>1.36</v>
+      </c>
+      <c r="AL57">
+        <v>1.28</v>
+      </c>
+      <c r="AM57">
+        <v>1.55</v>
+      </c>
+      <c r="AN57">
+        <v>3</v>
+      </c>
+      <c r="AO57">
+        <v>3</v>
+      </c>
+      <c r="AP57">
+        <v>3</v>
+      </c>
+      <c r="AQ57">
+        <v>2.4</v>
+      </c>
+      <c r="AR57">
+        <v>1.7</v>
+      </c>
+      <c r="AS57">
+        <v>1.27</v>
+      </c>
+      <c r="AT57">
+        <v>2.97</v>
+      </c>
+      <c r="AU57">
+        <v>4</v>
+      </c>
+      <c r="AV57">
+        <v>4</v>
+      </c>
+      <c r="AW57">
+        <v>4</v>
+      </c>
+      <c r="AX57">
+        <v>4</v>
+      </c>
+      <c r="AY57">
+        <v>8</v>
+      </c>
+      <c r="AZ57">
+        <v>8</v>
+      </c>
+      <c r="BA57">
+        <v>8</v>
+      </c>
+      <c r="BB57">
+        <v>8</v>
+      </c>
+      <c r="BC57">
+        <v>16</v>
+      </c>
+      <c r="BD57">
+        <v>1.67</v>
+      </c>
+      <c r="BE57">
+        <v>8.5</v>
+      </c>
+      <c r="BF57">
+        <v>2.5</v>
+      </c>
+      <c r="BG57">
+        <v>0</v>
+      </c>
+      <c r="BH57">
+        <v>0</v>
+      </c>
+      <c r="BI57">
+        <v>1.2</v>
+      </c>
+      <c r="BJ57">
+        <v>4.1</v>
+      </c>
+      <c r="BK57">
+        <v>1.31</v>
+      </c>
+      <c r="BL57">
+        <v>3.15</v>
+      </c>
+      <c r="BM57">
+        <v>1.56</v>
+      </c>
+      <c r="BN57">
+        <v>2.27</v>
+      </c>
+      <c r="BO57">
+        <v>2</v>
+      </c>
+      <c r="BP57">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7343701</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45395.72916666666</v>
+      </c>
+      <c r="F58">
+        <v>8</v>
+      </c>
+      <c r="G58" t="s">
+        <v>74</v>
+      </c>
+      <c r="H58" t="s">
+        <v>71</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58" t="s">
+        <v>93</v>
+      </c>
+      <c r="P58" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q58">
+        <v>3.2</v>
+      </c>
+      <c r="R58">
+        <v>1.95</v>
+      </c>
+      <c r="S58">
+        <v>4</v>
+      </c>
+      <c r="T58">
+        <v>1.53</v>
+      </c>
+      <c r="U58">
+        <v>2.38</v>
+      </c>
+      <c r="V58">
+        <v>3.75</v>
+      </c>
+      <c r="W58">
+        <v>1.25</v>
+      </c>
+      <c r="X58">
+        <v>11</v>
+      </c>
+      <c r="Y58">
+        <v>1.05</v>
+      </c>
+      <c r="Z58">
+        <v>2.35</v>
+      </c>
+      <c r="AA58">
+        <v>2.95</v>
+      </c>
+      <c r="AB58">
+        <v>3.15</v>
+      </c>
+      <c r="AC58">
+        <v>1.1</v>
+      </c>
+      <c r="AD58">
+        <v>6.25</v>
+      </c>
+      <c r="AE58">
+        <v>1.48</v>
+      </c>
+      <c r="AF58">
+        <v>2.55</v>
+      </c>
+      <c r="AG58">
+        <v>2.35</v>
+      </c>
+      <c r="AH58">
+        <v>1.53</v>
+      </c>
+      <c r="AI58">
+        <v>2.1</v>
+      </c>
+      <c r="AJ58">
+        <v>1.67</v>
+      </c>
+      <c r="AK58">
+        <v>1.33</v>
+      </c>
+      <c r="AL58">
+        <v>1.33</v>
+      </c>
+      <c r="AM58">
+        <v>1.55</v>
+      </c>
+      <c r="AN58">
+        <v>1.25</v>
+      </c>
+      <c r="AO58">
+        <v>0.67</v>
+      </c>
+      <c r="AP58">
+        <v>1.2</v>
+      </c>
+      <c r="AQ58">
+        <v>0.75</v>
+      </c>
+      <c r="AR58">
+        <v>1.2</v>
+      </c>
+      <c r="AS58">
+        <v>1.34</v>
+      </c>
+      <c r="AT58">
+        <v>2.54</v>
+      </c>
+      <c r="AU58">
+        <v>5</v>
+      </c>
+      <c r="AV58">
+        <v>3</v>
+      </c>
+      <c r="AW58">
+        <v>2</v>
+      </c>
+      <c r="AX58">
+        <v>3</v>
+      </c>
+      <c r="AY58">
+        <v>7</v>
+      </c>
+      <c r="AZ58">
+        <v>6</v>
+      </c>
+      <c r="BA58">
+        <v>3</v>
+      </c>
+      <c r="BB58">
+        <v>9</v>
+      </c>
+      <c r="BC58">
+        <v>12</v>
+      </c>
+      <c r="BD58">
+        <v>2</v>
+      </c>
+      <c r="BE58">
+        <v>8</v>
+      </c>
+      <c r="BF58">
+        <v>2.1</v>
+      </c>
+      <c r="BG58">
+        <v>1.26</v>
+      </c>
+      <c r="BH58">
+        <v>3.34</v>
+      </c>
+      <c r="BI58">
+        <v>1.5</v>
+      </c>
+      <c r="BJ58">
+        <v>2.4</v>
+      </c>
+      <c r="BK58">
+        <v>1.92</v>
+      </c>
+      <c r="BL58">
+        <v>1.88</v>
+      </c>
+      <c r="BM58">
+        <v>2.4</v>
+      </c>
+      <c r="BN58">
+        <v>1.5</v>
+      </c>
+      <c r="BO58">
+        <v>3.2</v>
+      </c>
+      <c r="BP58">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7343704</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45395.83333333334</v>
+      </c>
+      <c r="F59">
+        <v>8</v>
+      </c>
+      <c r="G59" t="s">
+        <v>73</v>
+      </c>
+      <c r="H59" t="s">
+        <v>76</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59" t="s">
+        <v>93</v>
+      </c>
+      <c r="P59" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q59">
+        <v>3.2</v>
+      </c>
+      <c r="R59">
+        <v>1.95</v>
+      </c>
+      <c r="S59">
+        <v>4</v>
+      </c>
+      <c r="T59">
+        <v>1.53</v>
+      </c>
+      <c r="U59">
+        <v>2.38</v>
+      </c>
+      <c r="V59">
+        <v>3.5</v>
+      </c>
+      <c r="W59">
+        <v>1.29</v>
+      </c>
+      <c r="X59">
+        <v>11</v>
+      </c>
+      <c r="Y59">
+        <v>1.05</v>
+      </c>
+      <c r="Z59">
+        <v>2.25</v>
+      </c>
+      <c r="AA59">
+        <v>2.95</v>
+      </c>
+      <c r="AB59">
+        <v>3.25</v>
+      </c>
+      <c r="AC59">
+        <v>1.05</v>
+      </c>
+      <c r="AD59">
+        <v>7.1</v>
+      </c>
+      <c r="AE59">
+        <v>1.4</v>
+      </c>
+      <c r="AF59">
+        <v>2.64</v>
+      </c>
+      <c r="AG59">
+        <v>2.3</v>
+      </c>
+      <c r="AH59">
+        <v>1.55</v>
+      </c>
+      <c r="AI59">
+        <v>2</v>
+      </c>
+      <c r="AJ59">
+        <v>1.73</v>
+      </c>
+      <c r="AK59">
+        <v>1.33</v>
+      </c>
+      <c r="AL59">
+        <v>1.32</v>
+      </c>
+      <c r="AM59">
+        <v>1.53</v>
+      </c>
+      <c r="AN59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
+        <v>1.33</v>
+      </c>
+      <c r="AP59">
+        <v>0.75</v>
+      </c>
+      <c r="AQ59">
+        <v>1.75</v>
+      </c>
+      <c r="AR59">
+        <v>1.07</v>
+      </c>
+      <c r="AS59">
+        <v>0.9</v>
+      </c>
+      <c r="AT59">
+        <v>1.97</v>
+      </c>
+      <c r="AU59">
+        <v>3</v>
+      </c>
+      <c r="AV59">
+        <v>5</v>
+      </c>
+      <c r="AW59">
+        <v>14</v>
+      </c>
+      <c r="AX59">
+        <v>11</v>
+      </c>
+      <c r="AY59">
+        <v>17</v>
+      </c>
+      <c r="AZ59">
+        <v>16</v>
+      </c>
+      <c r="BA59">
+        <v>2</v>
+      </c>
+      <c r="BB59">
+        <v>4</v>
+      </c>
+      <c r="BC59">
+        <v>6</v>
+      </c>
+      <c r="BD59">
+        <v>1.83</v>
+      </c>
+      <c r="BE59">
+        <v>7.5</v>
+      </c>
+      <c r="BF59">
+        <v>2.3</v>
+      </c>
+      <c r="BG59">
+        <v>1.43</v>
+      </c>
+      <c r="BH59">
+        <v>2.62</v>
+      </c>
+      <c r="BI59">
+        <v>1.8</v>
+      </c>
+      <c r="BJ59">
+        <v>2</v>
+      </c>
+      <c r="BK59">
+        <v>2.35</v>
+      </c>
+      <c r="BL59">
+        <v>1.52</v>
+      </c>
+      <c r="BM59">
+        <v>3.2</v>
+      </c>
+      <c r="BN59">
+        <v>1.3</v>
+      </c>
+      <c r="BO59">
+        <v>3.48</v>
+      </c>
+      <c r="BP59">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7343702</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45396.41666666666</v>
+      </c>
+      <c r="F60">
+        <v>8</v>
+      </c>
+      <c r="G60" t="s">
+        <v>83</v>
+      </c>
+      <c r="H60" t="s">
+        <v>75</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60" t="s">
+        <v>93</v>
+      </c>
+      <c r="P60" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q60">
+        <v>4</v>
+      </c>
+      <c r="R60">
+        <v>2.05</v>
+      </c>
+      <c r="S60">
+        <v>3</v>
+      </c>
+      <c r="T60">
+        <v>1.44</v>
+      </c>
+      <c r="U60">
+        <v>2.63</v>
+      </c>
+      <c r="V60">
+        <v>3.25</v>
+      </c>
+      <c r="W60">
+        <v>1.33</v>
+      </c>
+      <c r="X60">
+        <v>10</v>
+      </c>
+      <c r="Y60">
+        <v>1.06</v>
+      </c>
+      <c r="Z60">
+        <v>3.15</v>
+      </c>
+      <c r="AA60">
+        <v>3.25</v>
+      </c>
+      <c r="AB60">
+        <v>2.18</v>
+      </c>
+      <c r="AC60">
+        <v>1.04</v>
+      </c>
+      <c r="AD60">
+        <v>7.8</v>
+      </c>
+      <c r="AE60">
+        <v>1.35</v>
+      </c>
+      <c r="AF60">
+        <v>2.84</v>
+      </c>
+      <c r="AG60">
+        <v>2.1</v>
+      </c>
+      <c r="AH60">
+        <v>1.65</v>
+      </c>
+      <c r="AI60">
+        <v>1.91</v>
+      </c>
+      <c r="AJ60">
+        <v>1.8</v>
+      </c>
+      <c r="AK60">
+        <v>1.6</v>
+      </c>
+      <c r="AL60">
+        <v>1.3</v>
+      </c>
+      <c r="AM60">
+        <v>1.31</v>
+      </c>
+      <c r="AN60">
+        <v>1.33</v>
+      </c>
+      <c r="AO60">
+        <v>2</v>
+      </c>
+      <c r="AP60">
+        <v>1</v>
+      </c>
+      <c r="AQ60">
+        <v>2.25</v>
+      </c>
+      <c r="AR60">
+        <v>0.73</v>
+      </c>
+      <c r="AS60">
+        <v>1.45</v>
+      </c>
+      <c r="AT60">
+        <v>2.18</v>
+      </c>
+      <c r="AU60">
+        <v>0</v>
+      </c>
+      <c r="AV60">
+        <v>2</v>
+      </c>
+      <c r="AW60">
+        <v>8</v>
+      </c>
+      <c r="AX60">
+        <v>7</v>
+      </c>
+      <c r="AY60">
+        <v>8</v>
+      </c>
+      <c r="AZ60">
+        <v>9</v>
+      </c>
+      <c r="BA60">
+        <v>3</v>
+      </c>
+      <c r="BB60">
+        <v>5</v>
+      </c>
+      <c r="BC60">
+        <v>8</v>
+      </c>
+      <c r="BD60">
+        <v>2.2</v>
+      </c>
+      <c r="BE60">
+        <v>8</v>
+      </c>
+      <c r="BF60">
+        <v>1.83</v>
+      </c>
+      <c r="BG60">
+        <v>1.21</v>
+      </c>
+      <c r="BH60">
+        <v>3.74</v>
+      </c>
+      <c r="BI60">
+        <v>1.39</v>
+      </c>
+      <c r="BJ60">
+        <v>2.77</v>
+      </c>
+      <c r="BK60">
+        <v>1.73</v>
+      </c>
+      <c r="BL60">
+        <v>2</v>
+      </c>
+      <c r="BM60">
+        <v>2.2</v>
+      </c>
+      <c r="BN60">
+        <v>1.6</v>
+      </c>
+      <c r="BO60">
+        <v>2.95</v>
+      </c>
+      <c r="BP60">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7343707</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45396.625</v>
+      </c>
+      <c r="F61">
+        <v>8</v>
+      </c>
+      <c r="G61" t="s">
+        <v>82</v>
+      </c>
+      <c r="H61" t="s">
+        <v>77</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>2</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>3</v>
+      </c>
+      <c r="O61" t="s">
+        <v>128</v>
+      </c>
+      <c r="P61" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q61">
+        <v>2.25</v>
+      </c>
+      <c r="R61">
+        <v>2.1</v>
+      </c>
+      <c r="S61">
+        <v>6</v>
+      </c>
+      <c r="T61">
+        <v>1.44</v>
+      </c>
+      <c r="U61">
+        <v>2.63</v>
+      </c>
+      <c r="V61">
+        <v>3.25</v>
+      </c>
+      <c r="W61">
+        <v>1.33</v>
+      </c>
+      <c r="X61">
+        <v>9</v>
+      </c>
+      <c r="Y61">
+        <v>1.07</v>
+      </c>
+      <c r="Z61">
+        <v>1.53</v>
+      </c>
+      <c r="AA61">
+        <v>3.7</v>
+      </c>
+      <c r="AB61">
+        <v>5.8</v>
+      </c>
+      <c r="AC61">
+        <v>1.03</v>
+      </c>
+      <c r="AD61">
+        <v>8</v>
+      </c>
+      <c r="AE61">
+        <v>1.33</v>
+      </c>
+      <c r="AF61">
+        <v>2.93</v>
+      </c>
+      <c r="AG61">
+        <v>2.07</v>
+      </c>
+      <c r="AH61">
+        <v>1.71</v>
+      </c>
+      <c r="AI61">
+        <v>2.1</v>
+      </c>
+      <c r="AJ61">
+        <v>1.67</v>
+      </c>
+      <c r="AK61">
+        <v>1.12</v>
+      </c>
+      <c r="AL61">
+        <v>1.24</v>
+      </c>
+      <c r="AM61">
+        <v>2.18</v>
+      </c>
+      <c r="AN61">
+        <v>2.33</v>
+      </c>
+      <c r="AO61">
+        <v>0.67</v>
+      </c>
+      <c r="AP61">
+        <v>2.5</v>
+      </c>
+      <c r="AQ61">
+        <v>0.5</v>
+      </c>
+      <c r="AR61">
+        <v>1.5</v>
+      </c>
+      <c r="AS61">
+        <v>1.08</v>
+      </c>
+      <c r="AT61">
+        <v>2.58</v>
+      </c>
+      <c r="AU61">
+        <v>4</v>
+      </c>
+      <c r="AV61">
+        <v>6</v>
+      </c>
+      <c r="AW61">
+        <v>2</v>
+      </c>
+      <c r="AX61">
+        <v>4</v>
+      </c>
+      <c r="AY61">
+        <v>6</v>
+      </c>
+      <c r="AZ61">
+        <v>10</v>
+      </c>
+      <c r="BA61">
+        <v>1</v>
+      </c>
+      <c r="BB61">
+        <v>3</v>
+      </c>
+      <c r="BC61">
+        <v>4</v>
+      </c>
+      <c r="BD61">
+        <v>1.29</v>
+      </c>
+      <c r="BE61">
+        <v>9.5</v>
+      </c>
+      <c r="BF61">
+        <v>4.5</v>
+      </c>
+      <c r="BG61">
+        <v>1.41</v>
+      </c>
+      <c r="BH61">
+        <v>2.7</v>
+      </c>
+      <c r="BI61">
+        <v>1.7</v>
+      </c>
+      <c r="BJ61">
+        <v>2.05</v>
+      </c>
+      <c r="BK61">
+        <v>2.23</v>
+      </c>
+      <c r="BL61">
+        <v>1.58</v>
+      </c>
+      <c r="BM61">
+        <v>3</v>
+      </c>
+      <c r="BN61">
+        <v>1.34</v>
+      </c>
+      <c r="BO61">
+        <v>3.42</v>
+      </c>
+      <c r="BP61">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="166">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -400,7 +400,10 @@
     <t>['3']</t>
   </si>
   <si>
-    <t>['7', '62']</t>
+    <t>['6', '62']</t>
+  </si>
+  <si>
+    <t>['35', '90+3']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -508,10 +511,7 @@
     <t>['67']</t>
   </si>
   <si>
-    <t>['42']</t>
-  </si>
-  <si>
-    <t>['90+6']</t>
+    <t>['41']</t>
   </si>
 </sst>
 </file>
@@ -873,7 +873,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP61"/>
+  <dimension ref="A1:BP62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1132,7 +1132,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1338,7 +1338,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1419,7 +1419,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ3">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1544,7 +1544,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -1750,7 +1750,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1956,7 +1956,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q6">
         <v>3.41</v>
@@ -2162,7 +2162,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2368,7 +2368,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2574,7 +2574,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2780,7 +2780,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q10">
         <v>3.18</v>
@@ -3067,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="AQ11">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3270,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ12">
         <v>0.67</v>
@@ -4016,7 +4016,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4222,7 +4222,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4428,7 +4428,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -4715,7 +4715,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ19">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR19">
         <v>1.89</v>
@@ -5046,7 +5046,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5252,7 +5252,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5458,7 +5458,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5664,7 +5664,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -5870,7 +5870,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6154,7 +6154,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ26">
         <v>0.33</v>
@@ -6282,7 +6282,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6363,7 +6363,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ27">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR27">
         <v>1.67</v>
@@ -6488,7 +6488,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6694,7 +6694,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7724,7 +7724,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -7930,7 +7930,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8548,7 +8548,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -8754,7 +8754,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -8960,7 +8960,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9166,7 +9166,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9450,7 +9450,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -9784,7 +9784,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10071,7 +10071,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ45">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR45">
         <v>1.48</v>
@@ -10196,7 +10196,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10402,7 +10402,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10608,7 +10608,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -10814,7 +10814,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11020,7 +11020,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11226,7 +11226,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11432,7 +11432,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -12050,7 +12050,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12256,7 +12256,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -12558,19 +12558,19 @@
         <v>4</v>
       </c>
       <c r="AV57">
+        <v>2</v>
+      </c>
+      <c r="AW57">
+        <v>0</v>
+      </c>
+      <c r="AX57">
+        <v>1</v>
+      </c>
+      <c r="AY57">
         <v>4</v>
       </c>
-      <c r="AW57">
-        <v>4</v>
-      </c>
-      <c r="AX57">
-        <v>4</v>
-      </c>
-      <c r="AY57">
-        <v>8</v>
-      </c>
       <c r="AZ57">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BA57">
         <v>8</v>
@@ -12761,22 +12761,22 @@
         <v>2.54</v>
       </c>
       <c r="AU58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV58">
         <v>3</v>
       </c>
       <c r="AW58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AY58">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AZ58">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BA58">
         <v>3</v>
@@ -12874,7 +12874,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13080,7 +13080,7 @@
         <v>93</v>
       </c>
       <c r="P60" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13286,7 +13286,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -13443,6 +13443,212 @@
       </c>
       <c r="BP61">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7343705</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45396.75</v>
+      </c>
+      <c r="F62">
+        <v>8</v>
+      </c>
+      <c r="G62" t="s">
+        <v>80</v>
+      </c>
+      <c r="H62" t="s">
+        <v>85</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62" t="s">
+        <v>129</v>
+      </c>
+      <c r="P62" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q62">
+        <v>2.3</v>
+      </c>
+      <c r="R62">
+        <v>2.05</v>
+      </c>
+      <c r="S62">
+        <v>6</v>
+      </c>
+      <c r="T62">
+        <v>1.5</v>
+      </c>
+      <c r="U62">
+        <v>2.5</v>
+      </c>
+      <c r="V62">
+        <v>3.4</v>
+      </c>
+      <c r="W62">
+        <v>1.3</v>
+      </c>
+      <c r="X62">
+        <v>10</v>
+      </c>
+      <c r="Y62">
+        <v>1.06</v>
+      </c>
+      <c r="Z62">
+        <v>1.6</v>
+      </c>
+      <c r="AA62">
+        <v>3.6</v>
+      </c>
+      <c r="AB62">
+        <v>5</v>
+      </c>
+      <c r="AC62">
+        <v>1.04</v>
+      </c>
+      <c r="AD62">
+        <v>7.6</v>
+      </c>
+      <c r="AE62">
+        <v>1.36</v>
+      </c>
+      <c r="AF62">
+        <v>2.79</v>
+      </c>
+      <c r="AG62">
+        <v>2.1</v>
+      </c>
+      <c r="AH62">
+        <v>1.61</v>
+      </c>
+      <c r="AI62">
+        <v>2.1</v>
+      </c>
+      <c r="AJ62">
+        <v>1.67</v>
+      </c>
+      <c r="AK62">
+        <v>1.12</v>
+      </c>
+      <c r="AL62">
+        <v>1.25</v>
+      </c>
+      <c r="AM62">
+        <v>2.11</v>
+      </c>
+      <c r="AN62">
+        <v>2.33</v>
+      </c>
+      <c r="AO62">
+        <v>1.4</v>
+      </c>
+      <c r="AP62">
+        <v>2.5</v>
+      </c>
+      <c r="AQ62">
+        <v>1.17</v>
+      </c>
+      <c r="AR62">
+        <v>1.31</v>
+      </c>
+      <c r="AS62">
+        <v>1.49</v>
+      </c>
+      <c r="AT62">
+        <v>2.8</v>
+      </c>
+      <c r="AU62">
+        <v>4</v>
+      </c>
+      <c r="AV62">
+        <v>3</v>
+      </c>
+      <c r="AW62">
+        <v>5</v>
+      </c>
+      <c r="AX62">
+        <v>2</v>
+      </c>
+      <c r="AY62">
+        <v>9</v>
+      </c>
+      <c r="AZ62">
+        <v>5</v>
+      </c>
+      <c r="BA62">
+        <v>9</v>
+      </c>
+      <c r="BB62">
+        <v>3</v>
+      </c>
+      <c r="BC62">
+        <v>12</v>
+      </c>
+      <c r="BD62">
+        <v>1.36</v>
+      </c>
+      <c r="BE62">
+        <v>8.5</v>
+      </c>
+      <c r="BF62">
+        <v>3.6</v>
+      </c>
+      <c r="BG62">
+        <v>1.38</v>
+      </c>
+      <c r="BH62">
+        <v>2.8</v>
+      </c>
+      <c r="BI62">
+        <v>1.73</v>
+      </c>
+      <c r="BJ62">
+        <v>2</v>
+      </c>
+      <c r="BK62">
+        <v>2.23</v>
+      </c>
+      <c r="BL62">
+        <v>1.58</v>
+      </c>
+      <c r="BM62">
+        <v>3</v>
+      </c>
+      <c r="BN62">
+        <v>1.34</v>
+      </c>
+      <c r="BO62">
+        <v>3.9</v>
+      </c>
+      <c r="BP62">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -403,7 +403,7 @@
     <t>['6', '62']</t>
   </si>
   <si>
-    <t>['35', '90+3']</t>
+    <t>['34', '90+3']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -13379,22 +13379,22 @@
         <v>2.58</v>
       </c>
       <c r="AU61">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV61">
         <v>6</v>
       </c>
       <c r="AW61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX61">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY61">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ61">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA61">
         <v>1</v>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="170">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -406,6 +406,12 @@
     <t>['34', '90+3']</t>
   </si>
   <si>
+    <t>['64', '90']</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -512,6 +518,12 @@
   </si>
   <si>
     <t>['41']</t>
+  </si>
+  <si>
+    <t>['39', '52', '59']</t>
+  </si>
+  <si>
+    <t>['41', '85']</t>
   </si>
 </sst>
 </file>
@@ -873,7 +885,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP62"/>
+  <dimension ref="A1:BP64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1132,7 +1144,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1338,7 +1350,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1544,7 +1556,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -1622,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ4">
         <v>2</v>
@@ -1750,7 +1762,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1956,7 +1968,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q6">
         <v>3.41</v>
@@ -2162,7 +2174,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2243,7 +2255,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ7">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2368,7 +2380,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2574,7 +2586,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2780,7 +2792,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q10">
         <v>3.18</v>
@@ -2858,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ10">
         <v>2.25</v>
@@ -3685,7 +3697,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4016,7 +4028,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4222,7 +4234,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4300,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ17">
         <v>1.75</v>
@@ -4428,7 +4440,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -5046,7 +5058,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5252,7 +5264,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5458,7 +5470,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5664,7 +5676,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -5742,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ24">
         <v>0.75</v>
@@ -5870,7 +5882,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6282,7 +6294,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6488,7 +6500,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6694,7 +6706,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -6775,7 +6787,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR29">
         <v>1.71</v>
@@ -7184,7 +7196,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7393,7 +7405,7 @@
         <v>1</v>
       </c>
       <c r="AQ32">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR32">
         <v>1.15</v>
@@ -7724,7 +7736,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -7930,7 +7942,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8548,7 +8560,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -8754,7 +8766,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -8960,7 +8972,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9166,7 +9178,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9453,7 +9465,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR42">
         <v>1.51</v>
@@ -9784,7 +9796,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10196,7 +10208,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10402,7 +10414,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10480,7 +10492,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ47">
         <v>0.33</v>
@@ -10608,7 +10620,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -10686,7 +10698,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ48">
         <v>2.4</v>
@@ -10814,7 +10826,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11020,7 +11032,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11226,7 +11238,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11432,7 +11444,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -12050,7 +12062,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12131,7 +12143,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ55">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR55">
         <v>1.09</v>
@@ -12256,7 +12268,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -12874,7 +12886,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13080,7 +13092,7 @@
         <v>93</v>
       </c>
       <c r="P60" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13286,7 +13298,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -13649,6 +13661,418 @@
       </c>
       <c r="BP62">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7343708</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45398.75</v>
+      </c>
+      <c r="F63">
+        <v>8</v>
+      </c>
+      <c r="G63" t="s">
+        <v>78</v>
+      </c>
+      <c r="H63" t="s">
+        <v>81</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>2</v>
+      </c>
+      <c r="M63">
+        <v>3</v>
+      </c>
+      <c r="N63">
+        <v>5</v>
+      </c>
+      <c r="O63" t="s">
+        <v>130</v>
+      </c>
+      <c r="P63" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q63">
+        <v>4</v>
+      </c>
+      <c r="R63">
+        <v>2.05</v>
+      </c>
+      <c r="S63">
+        <v>2.88</v>
+      </c>
+      <c r="T63">
+        <v>1.44</v>
+      </c>
+      <c r="U63">
+        <v>2.63</v>
+      </c>
+      <c r="V63">
+        <v>3.25</v>
+      </c>
+      <c r="W63">
+        <v>1.33</v>
+      </c>
+      <c r="X63">
+        <v>9</v>
+      </c>
+      <c r="Y63">
+        <v>1.07</v>
+      </c>
+      <c r="Z63">
+        <v>3.4</v>
+      </c>
+      <c r="AA63">
+        <v>3.2</v>
+      </c>
+      <c r="AB63">
+        <v>2.1</v>
+      </c>
+      <c r="AC63">
+        <v>1.06</v>
+      </c>
+      <c r="AD63">
+        <v>7.5</v>
+      </c>
+      <c r="AE63">
+        <v>1.36</v>
+      </c>
+      <c r="AF63">
+        <v>2.9</v>
+      </c>
+      <c r="AG63">
+        <v>2.15</v>
+      </c>
+      <c r="AH63">
+        <v>1.65</v>
+      </c>
+      <c r="AI63">
+        <v>1.83</v>
+      </c>
+      <c r="AJ63">
+        <v>1.83</v>
+      </c>
+      <c r="AK63">
+        <v>1.73</v>
+      </c>
+      <c r="AL63">
+        <v>1.3</v>
+      </c>
+      <c r="AM63">
+        <v>1.33</v>
+      </c>
+      <c r="AN63">
+        <v>0.33</v>
+      </c>
+      <c r="AO63">
+        <v>1.67</v>
+      </c>
+      <c r="AP63">
+        <v>0.25</v>
+      </c>
+      <c r="AQ63">
+        <v>2</v>
+      </c>
+      <c r="AR63">
+        <v>1.42</v>
+      </c>
+      <c r="AS63">
+        <v>1.58</v>
+      </c>
+      <c r="AT63">
+        <v>3</v>
+      </c>
+      <c r="AU63">
+        <v>6</v>
+      </c>
+      <c r="AV63">
+        <v>7</v>
+      </c>
+      <c r="AW63">
+        <v>5</v>
+      </c>
+      <c r="AX63">
+        <v>6</v>
+      </c>
+      <c r="AY63">
+        <v>11</v>
+      </c>
+      <c r="AZ63">
+        <v>13</v>
+      </c>
+      <c r="BA63">
+        <v>4</v>
+      </c>
+      <c r="BB63">
+        <v>5</v>
+      </c>
+      <c r="BC63">
+        <v>9</v>
+      </c>
+      <c r="BD63">
+        <v>2.4</v>
+      </c>
+      <c r="BE63">
+        <v>8</v>
+      </c>
+      <c r="BF63">
+        <v>1.73</v>
+      </c>
+      <c r="BG63">
+        <v>1.3</v>
+      </c>
+      <c r="BH63">
+        <v>3.2</v>
+      </c>
+      <c r="BI63">
+        <v>1.5</v>
+      </c>
+      <c r="BJ63">
+        <v>2.4</v>
+      </c>
+      <c r="BK63">
+        <v>1.94</v>
+      </c>
+      <c r="BL63">
+        <v>1.77</v>
+      </c>
+      <c r="BM63">
+        <v>2.5</v>
+      </c>
+      <c r="BN63">
+        <v>1.47</v>
+      </c>
+      <c r="BO63">
+        <v>3.2</v>
+      </c>
+      <c r="BP63">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7343703</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45398.85416666666</v>
+      </c>
+      <c r="F64">
+        <v>8</v>
+      </c>
+      <c r="G64" t="s">
+        <v>72</v>
+      </c>
+      <c r="H64" t="s">
+        <v>70</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>2</v>
+      </c>
+      <c r="N64">
+        <v>3</v>
+      </c>
+      <c r="O64" t="s">
+        <v>131</v>
+      </c>
+      <c r="P64" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q64">
+        <v>6.5</v>
+      </c>
+      <c r="R64">
+        <v>2.05</v>
+      </c>
+      <c r="S64">
+        <v>2.3</v>
+      </c>
+      <c r="T64">
+        <v>1.5</v>
+      </c>
+      <c r="U64">
+        <v>2.5</v>
+      </c>
+      <c r="V64">
+        <v>3.4</v>
+      </c>
+      <c r="W64">
+        <v>1.3</v>
+      </c>
+      <c r="X64">
+        <v>10</v>
+      </c>
+      <c r="Y64">
+        <v>1.06</v>
+      </c>
+      <c r="Z64">
+        <v>4.27</v>
+      </c>
+      <c r="AA64">
+        <v>3.04</v>
+      </c>
+      <c r="AB64">
+        <v>1.59</v>
+      </c>
+      <c r="AC64">
+        <v>1.07</v>
+      </c>
+      <c r="AD64">
+        <v>7.5</v>
+      </c>
+      <c r="AE64">
+        <v>1.4</v>
+      </c>
+      <c r="AF64">
+        <v>2.85</v>
+      </c>
+      <c r="AG64">
+        <v>2.1</v>
+      </c>
+      <c r="AH64">
+        <v>1.65</v>
+      </c>
+      <c r="AI64">
+        <v>2.2</v>
+      </c>
+      <c r="AJ64">
+        <v>1.62</v>
+      </c>
+      <c r="AK64">
+        <v>2.2</v>
+      </c>
+      <c r="AL64">
+        <v>1.22</v>
+      </c>
+      <c r="AM64">
+        <v>1.1</v>
+      </c>
+      <c r="AN64">
+        <v>0.5</v>
+      </c>
+      <c r="AO64">
+        <v>1</v>
+      </c>
+      <c r="AP64">
+        <v>0.4</v>
+      </c>
+      <c r="AQ64">
+        <v>1.5</v>
+      </c>
+      <c r="AR64">
+        <v>1.2</v>
+      </c>
+      <c r="AS64">
+        <v>1.15</v>
+      </c>
+      <c r="AT64">
+        <v>2.35</v>
+      </c>
+      <c r="AU64">
+        <v>5</v>
+      </c>
+      <c r="AV64">
+        <v>6</v>
+      </c>
+      <c r="AW64">
+        <v>4</v>
+      </c>
+      <c r="AX64">
+        <v>6</v>
+      </c>
+      <c r="AY64">
+        <v>9</v>
+      </c>
+      <c r="AZ64">
+        <v>12</v>
+      </c>
+      <c r="BA64">
+        <v>1</v>
+      </c>
+      <c r="BB64">
+        <v>9</v>
+      </c>
+      <c r="BC64">
+        <v>10</v>
+      </c>
+      <c r="BD64">
+        <v>3</v>
+      </c>
+      <c r="BE64">
+        <v>8.5</v>
+      </c>
+      <c r="BF64">
+        <v>1.53</v>
+      </c>
+      <c r="BG64">
+        <v>1.29</v>
+      </c>
+      <c r="BH64">
+        <v>3.3</v>
+      </c>
+      <c r="BI64">
+        <v>1.48</v>
+      </c>
+      <c r="BJ64">
+        <v>2.47</v>
+      </c>
+      <c r="BK64">
+        <v>1.8</v>
+      </c>
+      <c r="BL64">
+        <v>1.9</v>
+      </c>
+      <c r="BM64">
+        <v>2.37</v>
+      </c>
+      <c r="BN64">
+        <v>1.51</v>
+      </c>
+      <c r="BO64">
+        <v>3.3</v>
+      </c>
+      <c r="BP64">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -409,7 +409,7 @@
     <t>['64', '90']</t>
   </si>
   <si>
-    <t>['36']</t>
+    <t>['35']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -523,7 +523,7 @@
     <t>['39', '52', '59']</t>
   </si>
   <si>
-    <t>['41', '85']</t>
+    <t>['40', '85']</t>
   </si>
 </sst>
 </file>
@@ -13803,10 +13803,10 @@
         <v>3</v>
       </c>
       <c r="AU63">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV63">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AW63">
         <v>5</v>
@@ -13815,10 +13815,10 @@
         <v>6</v>
       </c>
       <c r="AY63">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ63">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA63">
         <v>4</v>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="172">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -412,6 +412,9 @@
     <t>['35']</t>
   </si>
   <si>
+    <t>['24']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -502,9 +505,6 @@
     <t>['5', '60']</t>
   </si>
   <si>
-    <t>['24']</t>
-  </si>
-  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -524,6 +524,12 @@
   </si>
   <si>
     <t>['40', '85']</t>
+  </si>
+  <si>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>['14']</t>
   </si>
 </sst>
 </file>
@@ -885,7 +891,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP64"/>
+  <dimension ref="A1:BP66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1144,7 +1150,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1350,7 +1356,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1556,7 +1562,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -1762,7 +1768,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1968,7 +1974,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q6">
         <v>3.41</v>
@@ -2174,7 +2180,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2252,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ7">
         <v>2</v>
@@ -2380,7 +2386,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2586,7 +2592,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2792,7 +2798,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q10">
         <v>3.18</v>
@@ -3694,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ14">
         <v>1.5</v>
@@ -3903,7 +3909,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ15">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4028,7 +4034,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4234,7 +4240,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4440,7 +4446,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -4518,10 +4524,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ18">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR18">
         <v>1.29</v>
@@ -5058,7 +5064,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5264,7 +5270,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5342,7 +5348,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5470,7 +5476,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5676,7 +5682,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -5882,7 +5888,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6169,7 +6175,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ26">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR26">
         <v>1.74</v>
@@ -6294,7 +6300,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6372,7 +6378,7 @@
         <v>1.33</v>
       </c>
       <c r="AP27">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ27">
         <v>1.17</v>
@@ -6500,7 +6506,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6706,7 +6712,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7736,7 +7742,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -7814,7 +7820,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ34">
         <v>3</v>
@@ -7942,7 +7948,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8435,7 +8441,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ37">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR37">
         <v>1.36</v>
@@ -8560,7 +8566,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -8766,7 +8772,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -8972,7 +8978,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9178,7 +9184,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9796,7 +9802,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -9874,7 +9880,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ44">
         <v>0.5</v>
@@ -10208,7 +10214,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10414,7 +10420,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10495,7 +10501,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ47">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR47">
         <v>1.15</v>
@@ -10620,7 +10626,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -10826,7 +10832,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -10907,7 +10913,7 @@
         <v>1</v>
       </c>
       <c r="AQ49">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR49">
         <v>1.39</v>
@@ -11032,7 +11038,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11316,7 +11322,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ51">
         <v>0.67</v>
@@ -11444,7 +11450,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -13298,7 +13304,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -14073,6 +14079,418 @@
       </c>
       <c r="BP64">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7343716</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45401.5625</v>
+      </c>
+      <c r="F65">
+        <v>9</v>
+      </c>
+      <c r="G65" t="s">
+        <v>75</v>
+      </c>
+      <c r="H65" t="s">
+        <v>74</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>2</v>
+      </c>
+      <c r="O65" t="s">
+        <v>132</v>
+      </c>
+      <c r="P65" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q65">
+        <v>3.1</v>
+      </c>
+      <c r="R65">
+        <v>2</v>
+      </c>
+      <c r="S65">
+        <v>4</v>
+      </c>
+      <c r="T65">
+        <v>1.5</v>
+      </c>
+      <c r="U65">
+        <v>2.5</v>
+      </c>
+      <c r="V65">
+        <v>3.4</v>
+      </c>
+      <c r="W65">
+        <v>1.3</v>
+      </c>
+      <c r="X65">
+        <v>10</v>
+      </c>
+      <c r="Y65">
+        <v>1.06</v>
+      </c>
+      <c r="Z65">
+        <v>2.2</v>
+      </c>
+      <c r="AA65">
+        <v>3</v>
+      </c>
+      <c r="AB65">
+        <v>3</v>
+      </c>
+      <c r="AC65">
+        <v>1.08</v>
+      </c>
+      <c r="AD65">
+        <v>7</v>
+      </c>
+      <c r="AE65">
+        <v>1.42</v>
+      </c>
+      <c r="AF65">
+        <v>2.75</v>
+      </c>
+      <c r="AG65">
+        <v>2.2</v>
+      </c>
+      <c r="AH65">
+        <v>1.6</v>
+      </c>
+      <c r="AI65">
+        <v>1.91</v>
+      </c>
+      <c r="AJ65">
+        <v>1.8</v>
+      </c>
+      <c r="AK65">
+        <v>1.33</v>
+      </c>
+      <c r="AL65">
+        <v>1.3</v>
+      </c>
+      <c r="AM65">
+        <v>1.6</v>
+      </c>
+      <c r="AN65">
+        <v>0.5</v>
+      </c>
+      <c r="AO65">
+        <v>0.33</v>
+      </c>
+      <c r="AP65">
+        <v>0.6</v>
+      </c>
+      <c r="AQ65">
+        <v>0.5</v>
+      </c>
+      <c r="AR65">
+        <v>1.33</v>
+      </c>
+      <c r="AS65">
+        <v>0.76</v>
+      </c>
+      <c r="AT65">
+        <v>2.09</v>
+      </c>
+      <c r="AU65">
+        <v>7</v>
+      </c>
+      <c r="AV65">
+        <v>5</v>
+      </c>
+      <c r="AW65">
+        <v>3</v>
+      </c>
+      <c r="AX65">
+        <v>2</v>
+      </c>
+      <c r="AY65">
+        <v>10</v>
+      </c>
+      <c r="AZ65">
+        <v>7</v>
+      </c>
+      <c r="BA65">
+        <v>3</v>
+      </c>
+      <c r="BB65">
+        <v>4</v>
+      </c>
+      <c r="BC65">
+        <v>7</v>
+      </c>
+      <c r="BD65">
+        <v>2</v>
+      </c>
+      <c r="BE65">
+        <v>8</v>
+      </c>
+      <c r="BF65">
+        <v>2.05</v>
+      </c>
+      <c r="BG65">
+        <v>1.31</v>
+      </c>
+      <c r="BH65">
+        <v>3.1</v>
+      </c>
+      <c r="BI65">
+        <v>1.5</v>
+      </c>
+      <c r="BJ65">
+        <v>2.4</v>
+      </c>
+      <c r="BK65">
+        <v>1.85</v>
+      </c>
+      <c r="BL65">
+        <v>1.85</v>
+      </c>
+      <c r="BM65">
+        <v>2.4</v>
+      </c>
+      <c r="BN65">
+        <v>1.5</v>
+      </c>
+      <c r="BO65">
+        <v>3.2</v>
+      </c>
+      <c r="BP65">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7343710</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45401.64583333334</v>
+      </c>
+      <c r="F66">
+        <v>9</v>
+      </c>
+      <c r="G66" t="s">
+        <v>81</v>
+      </c>
+      <c r="H66" t="s">
+        <v>82</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>2</v>
+      </c>
+      <c r="O66" t="s">
+        <v>114</v>
+      </c>
+      <c r="P66" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q66">
+        <v>3.25</v>
+      </c>
+      <c r="R66">
+        <v>2.05</v>
+      </c>
+      <c r="S66">
+        <v>3.4</v>
+      </c>
+      <c r="T66">
+        <v>1.44</v>
+      </c>
+      <c r="U66">
+        <v>2.63</v>
+      </c>
+      <c r="V66">
+        <v>3.25</v>
+      </c>
+      <c r="W66">
+        <v>1.33</v>
+      </c>
+      <c r="X66">
+        <v>10</v>
+      </c>
+      <c r="Y66">
+        <v>1.06</v>
+      </c>
+      <c r="Z66">
+        <v>2.61</v>
+      </c>
+      <c r="AA66">
+        <v>3.16</v>
+      </c>
+      <c r="AB66">
+        <v>2.73</v>
+      </c>
+      <c r="AC66">
+        <v>1.06</v>
+      </c>
+      <c r="AD66">
+        <v>8</v>
+      </c>
+      <c r="AE66">
+        <v>1.36</v>
+      </c>
+      <c r="AF66">
+        <v>3</v>
+      </c>
+      <c r="AG66">
+        <v>2.1</v>
+      </c>
+      <c r="AH66">
+        <v>1.7</v>
+      </c>
+      <c r="AI66">
+        <v>1.83</v>
+      </c>
+      <c r="AJ66">
+        <v>1.83</v>
+      </c>
+      <c r="AK66">
+        <v>1.45</v>
+      </c>
+      <c r="AL66">
+        <v>1.28</v>
+      </c>
+      <c r="AM66">
+        <v>1.48</v>
+      </c>
+      <c r="AN66">
+        <v>0.5</v>
+      </c>
+      <c r="AO66">
+        <v>1.33</v>
+      </c>
+      <c r="AP66">
+        <v>0.6</v>
+      </c>
+      <c r="AQ66">
+        <v>1.25</v>
+      </c>
+      <c r="AR66">
+        <v>1.58</v>
+      </c>
+      <c r="AS66">
+        <v>1.56</v>
+      </c>
+      <c r="AT66">
+        <v>3.14</v>
+      </c>
+      <c r="AU66">
+        <v>5</v>
+      </c>
+      <c r="AV66">
+        <v>11</v>
+      </c>
+      <c r="AW66">
+        <v>5</v>
+      </c>
+      <c r="AX66">
+        <v>2</v>
+      </c>
+      <c r="AY66">
+        <v>10</v>
+      </c>
+      <c r="AZ66">
+        <v>13</v>
+      </c>
+      <c r="BA66">
+        <v>8</v>
+      </c>
+      <c r="BB66">
+        <v>8</v>
+      </c>
+      <c r="BC66">
+        <v>16</v>
+      </c>
+      <c r="BD66">
+        <v>2.1</v>
+      </c>
+      <c r="BE66">
+        <v>8</v>
+      </c>
+      <c r="BF66">
+        <v>1.91</v>
+      </c>
+      <c r="BG66">
+        <v>1.27</v>
+      </c>
+      <c r="BH66">
+        <v>3.28</v>
+      </c>
+      <c r="BI66">
+        <v>1.46</v>
+      </c>
+      <c r="BJ66">
+        <v>2.52</v>
+      </c>
+      <c r="BK66">
+        <v>1.9</v>
+      </c>
+      <c r="BL66">
+        <v>1.8</v>
+      </c>
+      <c r="BM66">
+        <v>2.37</v>
+      </c>
+      <c r="BN66">
+        <v>1.51</v>
+      </c>
+      <c r="BO66">
+        <v>3.2</v>
+      </c>
+      <c r="BP66">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="177">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -412,99 +412,105 @@
     <t>['35']</t>
   </si>
   <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['30']</t>
+  </si>
+  <si>
+    <t>['4', '18', '45+5', '56', '83', '87']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['32', '84']</t>
+  </si>
+  <si>
+    <t>['6', '35', '87']</t>
+  </si>
+  <si>
+    <t>['52', '89']</t>
+  </si>
+  <si>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['47', '78']</t>
+  </si>
+  <si>
+    <t>['59', '68']</t>
+  </si>
+  <si>
+    <t>['51']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
+    <t>['29', '56', '79']</t>
+  </si>
+  <si>
+    <t>['62', '67']</t>
+  </si>
+  <si>
+    <t>['6', '65']</t>
+  </si>
+  <si>
+    <t>['69', '76']</t>
+  </si>
+  <si>
+    <t>['31', '44']</t>
+  </si>
+  <si>
+    <t>['45+1', '76', '82']</t>
+  </si>
+  <si>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>['1', '89']</t>
+  </si>
+  <si>
+    <t>['24', '47']</t>
+  </si>
+  <si>
+    <t>['4', '52', '90+3']</t>
+  </si>
+  <si>
+    <t>['10', '59', '86']</t>
+  </si>
+  <si>
+    <t>['19', '39']</t>
+  </si>
+  <si>
+    <t>['1']</t>
+  </si>
+  <si>
+    <t>['10', '49']</t>
+  </si>
+  <si>
+    <t>['5', '65']</t>
+  </si>
+  <si>
+    <t>['70', '87']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['2', '66']</t>
+  </si>
+  <si>
+    <t>['14', '45+5']</t>
+  </si>
+  <si>
+    <t>['5', '60']</t>
+  </si>
+  <si>
     <t>['24']</t>
   </si>
   <si>
-    <t>['90+2']</t>
-  </si>
-  <si>
-    <t>['32', '84']</t>
-  </si>
-  <si>
-    <t>['6', '35', '87']</t>
-  </si>
-  <si>
-    <t>['52', '89']</t>
-  </si>
-  <si>
-    <t>['54']</t>
-  </si>
-  <si>
-    <t>['47', '78']</t>
-  </si>
-  <si>
-    <t>['59', '68']</t>
-  </si>
-  <si>
-    <t>['51']</t>
-  </si>
-  <si>
-    <t>['84']</t>
-  </si>
-  <si>
-    <t>['29', '56', '79']</t>
-  </si>
-  <si>
-    <t>['62', '67']</t>
-  </si>
-  <si>
-    <t>['6', '65']</t>
-  </si>
-  <si>
-    <t>['69', '76']</t>
-  </si>
-  <si>
-    <t>['31', '44']</t>
-  </si>
-  <si>
-    <t>['45+1', '76', '82']</t>
-  </si>
-  <si>
-    <t>['76']</t>
-  </si>
-  <si>
-    <t>['1', '89']</t>
-  </si>
-  <si>
-    <t>['24', '47']</t>
-  </si>
-  <si>
-    <t>['4', '52', '90+3']</t>
-  </si>
-  <si>
-    <t>['10', '59', '86']</t>
-  </si>
-  <si>
-    <t>['19', '39']</t>
-  </si>
-  <si>
-    <t>['1']</t>
-  </si>
-  <si>
-    <t>['10', '49']</t>
-  </si>
-  <si>
-    <t>['5', '65']</t>
-  </si>
-  <si>
-    <t>['70', '87']</t>
-  </si>
-  <si>
-    <t>['90+5']</t>
-  </si>
-  <si>
-    <t>['23']</t>
-  </si>
-  <si>
-    <t>['2', '66']</t>
-  </si>
-  <si>
-    <t>['14', '45+5']</t>
-  </si>
-  <si>
-    <t>['5', '60']</t>
-  </si>
-  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -529,7 +535,16 @@
     <t>['57']</t>
   </si>
   <si>
-    <t>['14']</t>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['14', '17', '46']</t>
+  </si>
+  <si>
+    <t>['75', '80']</t>
+  </si>
+  <si>
+    <t>['29', '90']</t>
   </si>
 </sst>
 </file>
@@ -891,7 +906,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP66"/>
+  <dimension ref="A1:BP70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1150,7 +1165,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1228,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ2">
         <v>0.5</v>
@@ -1356,7 +1371,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1562,7 +1577,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -1768,7 +1783,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1846,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ5">
         <v>2.4</v>
@@ -1974,7 +1989,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q6">
         <v>3.41</v>
@@ -2180,7 +2195,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2386,7 +2401,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2592,7 +2607,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2798,7 +2813,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q10">
         <v>3.18</v>
@@ -3082,7 +3097,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ11">
         <v>1.17</v>
@@ -3291,7 +3306,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ12">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4034,7 +4049,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4240,7 +4255,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4321,7 +4336,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ17">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR17">
         <v>1.17</v>
@@ -4446,7 +4461,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -4936,7 +4951,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5064,7 +5079,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5270,7 +5285,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5476,7 +5491,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5682,7 +5697,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -5888,7 +5903,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6300,7 +6315,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6506,7 +6521,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6712,7 +6727,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7408,7 +7423,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ32">
         <v>2</v>
@@ -7742,7 +7757,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -7948,7 +7963,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8029,7 +8044,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR35">
         <v>0.51</v>
@@ -8232,7 +8247,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ36">
         <v>2</v>
@@ -8438,7 +8453,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ37">
         <v>1.25</v>
@@ -8566,7 +8581,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -8647,7 +8662,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ38">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR38">
         <v>1.34</v>
@@ -8772,7 +8787,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -8850,7 +8865,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -8978,7 +8993,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9184,7 +9199,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9802,7 +9817,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10214,7 +10229,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10420,7 +10435,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10626,7 +10641,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -10832,7 +10847,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -10910,7 +10925,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ49">
         <v>1.25</v>
@@ -11038,7 +11053,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11244,7 +11259,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11325,7 +11340,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ51">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR51">
         <v>1.16</v>
@@ -11450,7 +11465,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -11528,7 +11543,7 @@
         <v>2.33</v>
       </c>
       <c r="AP52">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ52">
         <v>2</v>
@@ -11734,10 +11749,10 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ53">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR53">
         <v>1.73</v>
@@ -12068,7 +12083,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12274,7 +12289,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -12352,7 +12367,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ56">
         <v>3</v>
@@ -12892,7 +12907,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -12970,10 +12985,10 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ59">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR59">
         <v>1.07</v>
@@ -13098,7 +13113,7 @@
         <v>93</v>
       </c>
       <c r="P60" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13304,7 +13319,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -13716,7 +13731,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13922,7 +13937,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14128,7 +14143,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14334,7 +14349,7 @@
         <v>114</v>
       </c>
       <c r="P66" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14491,6 +14506,830 @@
       </c>
       <c r="BP66">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7343713</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45402.41666666666</v>
+      </c>
+      <c r="F67">
+        <v>9</v>
+      </c>
+      <c r="G67" t="s">
+        <v>85</v>
+      </c>
+      <c r="H67" t="s">
+        <v>76</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>2</v>
+      </c>
+      <c r="O67" t="s">
+        <v>116</v>
+      </c>
+      <c r="P67" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q67">
+        <v>3.2</v>
+      </c>
+      <c r="R67">
+        <v>1.95</v>
+      </c>
+      <c r="S67">
+        <v>4</v>
+      </c>
+      <c r="T67">
+        <v>1.53</v>
+      </c>
+      <c r="U67">
+        <v>2.38</v>
+      </c>
+      <c r="V67">
+        <v>3.75</v>
+      </c>
+      <c r="W67">
+        <v>1.25</v>
+      </c>
+      <c r="X67">
+        <v>11</v>
+      </c>
+      <c r="Y67">
+        <v>1.05</v>
+      </c>
+      <c r="Z67">
+        <v>2.27</v>
+      </c>
+      <c r="AA67">
+        <v>2.95</v>
+      </c>
+      <c r="AB67">
+        <v>3.35</v>
+      </c>
+      <c r="AC67">
+        <v>1.1</v>
+      </c>
+      <c r="AD67">
+        <v>6.25</v>
+      </c>
+      <c r="AE67">
+        <v>1.5</v>
+      </c>
+      <c r="AF67">
+        <v>2.45</v>
+      </c>
+      <c r="AG67">
+        <v>2.4</v>
+      </c>
+      <c r="AH67">
+        <v>1.53</v>
+      </c>
+      <c r="AI67">
+        <v>2.1</v>
+      </c>
+      <c r="AJ67">
+        <v>1.67</v>
+      </c>
+      <c r="AK67">
+        <v>1.3</v>
+      </c>
+      <c r="AL67">
+        <v>1.33</v>
+      </c>
+      <c r="AM67">
+        <v>1.6</v>
+      </c>
+      <c r="AN67">
+        <v>0.5</v>
+      </c>
+      <c r="AO67">
+        <v>1.75</v>
+      </c>
+      <c r="AP67">
+        <v>0.67</v>
+      </c>
+      <c r="AQ67">
+        <v>1.6</v>
+      </c>
+      <c r="AR67">
+        <v>1.13</v>
+      </c>
+      <c r="AS67">
+        <v>1.08</v>
+      </c>
+      <c r="AT67">
+        <v>2.21</v>
+      </c>
+      <c r="AU67">
+        <v>2</v>
+      </c>
+      <c r="AV67">
+        <v>2</v>
+      </c>
+      <c r="AW67">
+        <v>3</v>
+      </c>
+      <c r="AX67">
+        <v>2</v>
+      </c>
+      <c r="AY67">
+        <v>5</v>
+      </c>
+      <c r="AZ67">
+        <v>4</v>
+      </c>
+      <c r="BA67">
+        <v>4</v>
+      </c>
+      <c r="BB67">
+        <v>4</v>
+      </c>
+      <c r="BC67">
+        <v>8</v>
+      </c>
+      <c r="BD67">
+        <v>1.73</v>
+      </c>
+      <c r="BE67">
+        <v>8</v>
+      </c>
+      <c r="BF67">
+        <v>2.38</v>
+      </c>
+      <c r="BG67">
+        <v>1.27</v>
+      </c>
+      <c r="BH67">
+        <v>3.28</v>
+      </c>
+      <c r="BI67">
+        <v>1.48</v>
+      </c>
+      <c r="BJ67">
+        <v>2.47</v>
+      </c>
+      <c r="BK67">
+        <v>1.9</v>
+      </c>
+      <c r="BL67">
+        <v>1.8</v>
+      </c>
+      <c r="BM67">
+        <v>2.4</v>
+      </c>
+      <c r="BN67">
+        <v>1.5</v>
+      </c>
+      <c r="BO67">
+        <v>3.2</v>
+      </c>
+      <c r="BP67">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7343712</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45402.625</v>
+      </c>
+      <c r="F68">
+        <v>9</v>
+      </c>
+      <c r="G68" t="s">
+        <v>79</v>
+      </c>
+      <c r="H68" t="s">
+        <v>80</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+      <c r="K68">
+        <v>3</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>3</v>
+      </c>
+      <c r="N68">
+        <v>4</v>
+      </c>
+      <c r="O68" t="s">
+        <v>133</v>
+      </c>
+      <c r="P68" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q68">
+        <v>5.5</v>
+      </c>
+      <c r="R68">
+        <v>2.1</v>
+      </c>
+      <c r="S68">
+        <v>2.4</v>
+      </c>
+      <c r="T68">
+        <v>1.44</v>
+      </c>
+      <c r="U68">
+        <v>2.63</v>
+      </c>
+      <c r="V68">
+        <v>3.25</v>
+      </c>
+      <c r="W68">
+        <v>1.33</v>
+      </c>
+      <c r="X68">
+        <v>10</v>
+      </c>
+      <c r="Y68">
+        <v>1.06</v>
+      </c>
+      <c r="Z68">
+        <v>4.5</v>
+      </c>
+      <c r="AA68">
+        <v>3.65</v>
+      </c>
+      <c r="AB68">
+        <v>1.7</v>
+      </c>
+      <c r="AC68">
+        <v>1.06</v>
+      </c>
+      <c r="AD68">
+        <v>8</v>
+      </c>
+      <c r="AE68">
+        <v>1.36</v>
+      </c>
+      <c r="AF68">
+        <v>2.95</v>
+      </c>
+      <c r="AG68">
+        <v>2.16</v>
+      </c>
+      <c r="AH68">
+        <v>1.66</v>
+      </c>
+      <c r="AI68">
+        <v>2.1</v>
+      </c>
+      <c r="AJ68">
+        <v>1.67</v>
+      </c>
+      <c r="AK68">
+        <v>2.05</v>
+      </c>
+      <c r="AL68">
+        <v>1.22</v>
+      </c>
+      <c r="AM68">
+        <v>1.15</v>
+      </c>
+      <c r="AN68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
+        <v>3</v>
+      </c>
+      <c r="AP68">
+        <v>0.75</v>
+      </c>
+      <c r="AQ68">
+        <v>3</v>
+      </c>
+      <c r="AR68">
+        <v>1.5</v>
+      </c>
+      <c r="AS68">
+        <v>1.5</v>
+      </c>
+      <c r="AT68">
+        <v>3</v>
+      </c>
+      <c r="AU68">
+        <v>4</v>
+      </c>
+      <c r="AV68">
+        <v>8</v>
+      </c>
+      <c r="AW68">
+        <v>8</v>
+      </c>
+      <c r="AX68">
+        <v>4</v>
+      </c>
+      <c r="AY68">
+        <v>12</v>
+      </c>
+      <c r="AZ68">
+        <v>12</v>
+      </c>
+      <c r="BA68">
+        <v>2</v>
+      </c>
+      <c r="BB68">
+        <v>5</v>
+      </c>
+      <c r="BC68">
+        <v>7</v>
+      </c>
+      <c r="BD68">
+        <v>3.1</v>
+      </c>
+      <c r="BE68">
+        <v>8.5</v>
+      </c>
+      <c r="BF68">
+        <v>1.5</v>
+      </c>
+      <c r="BG68">
+        <v>1.25</v>
+      </c>
+      <c r="BH68">
+        <v>3.42</v>
+      </c>
+      <c r="BI68">
+        <v>1.49</v>
+      </c>
+      <c r="BJ68">
+        <v>2.45</v>
+      </c>
+      <c r="BK68">
+        <v>1.8</v>
+      </c>
+      <c r="BL68">
+        <v>1.9</v>
+      </c>
+      <c r="BM68">
+        <v>2.4</v>
+      </c>
+      <c r="BN68">
+        <v>1.5</v>
+      </c>
+      <c r="BO68">
+        <v>3.3</v>
+      </c>
+      <c r="BP68">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7343715</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45402.75</v>
+      </c>
+      <c r="F69">
+        <v>9</v>
+      </c>
+      <c r="G69" t="s">
+        <v>70</v>
+      </c>
+      <c r="H69" t="s">
+        <v>83</v>
+      </c>
+      <c r="I69">
+        <v>3</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>3</v>
+      </c>
+      <c r="L69">
+        <v>6</v>
+      </c>
+      <c r="M69">
+        <v>2</v>
+      </c>
+      <c r="N69">
+        <v>8</v>
+      </c>
+      <c r="O69" t="s">
+        <v>134</v>
+      </c>
+      <c r="P69" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q69">
+        <v>1.95</v>
+      </c>
+      <c r="R69">
+        <v>2.25</v>
+      </c>
+      <c r="S69">
+        <v>7.5</v>
+      </c>
+      <c r="T69">
+        <v>1.4</v>
+      </c>
+      <c r="U69">
+        <v>2.75</v>
+      </c>
+      <c r="V69">
+        <v>2.75</v>
+      </c>
+      <c r="W69">
+        <v>1.4</v>
+      </c>
+      <c r="X69">
+        <v>8</v>
+      </c>
+      <c r="Y69">
+        <v>1.08</v>
+      </c>
+      <c r="Z69">
+        <v>1.28</v>
+      </c>
+      <c r="AA69">
+        <v>4.35</v>
+      </c>
+      <c r="AB69">
+        <v>11</v>
+      </c>
+      <c r="AC69">
+        <v>1.05</v>
+      </c>
+      <c r="AD69">
+        <v>8.5</v>
+      </c>
+      <c r="AE69">
+        <v>1.28</v>
+      </c>
+      <c r="AF69">
+        <v>3.4</v>
+      </c>
+      <c r="AG69">
+        <v>1.88</v>
+      </c>
+      <c r="AH69">
+        <v>1.88</v>
+      </c>
+      <c r="AI69">
+        <v>2.1</v>
+      </c>
+      <c r="AJ69">
+        <v>1.67</v>
+      </c>
+      <c r="AK69">
+        <v>1.08</v>
+      </c>
+      <c r="AL69">
+        <v>1.19</v>
+      </c>
+      <c r="AM69">
+        <v>2.35</v>
+      </c>
+      <c r="AN69">
+        <v>2.5</v>
+      </c>
+      <c r="AO69">
+        <v>0</v>
+      </c>
+      <c r="AP69">
+        <v>2.6</v>
+      </c>
+      <c r="AQ69">
+        <v>0</v>
+      </c>
+      <c r="AR69">
+        <v>1.75</v>
+      </c>
+      <c r="AS69">
+        <v>0.91</v>
+      </c>
+      <c r="AT69">
+        <v>2.66</v>
+      </c>
+      <c r="AU69">
+        <v>8</v>
+      </c>
+      <c r="AV69">
+        <v>7</v>
+      </c>
+      <c r="AW69">
+        <v>2</v>
+      </c>
+      <c r="AX69">
+        <v>1</v>
+      </c>
+      <c r="AY69">
+        <v>10</v>
+      </c>
+      <c r="AZ69">
+        <v>8</v>
+      </c>
+      <c r="BA69">
+        <v>5</v>
+      </c>
+      <c r="BB69">
+        <v>5</v>
+      </c>
+      <c r="BC69">
+        <v>10</v>
+      </c>
+      <c r="BD69">
+        <v>1.3</v>
+      </c>
+      <c r="BE69">
+        <v>9.5</v>
+      </c>
+      <c r="BF69">
+        <v>4</v>
+      </c>
+      <c r="BG69">
+        <v>1.33</v>
+      </c>
+      <c r="BH69">
+        <v>3</v>
+      </c>
+      <c r="BI69">
+        <v>1.5</v>
+      </c>
+      <c r="BJ69">
+        <v>2.4</v>
+      </c>
+      <c r="BK69">
+        <v>1.95</v>
+      </c>
+      <c r="BL69">
+        <v>1.77</v>
+      </c>
+      <c r="BM69">
+        <v>2.47</v>
+      </c>
+      <c r="BN69">
+        <v>1.48</v>
+      </c>
+      <c r="BO69">
+        <v>3.2</v>
+      </c>
+      <c r="BP69">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7343714</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45402.85416666666</v>
+      </c>
+      <c r="F70">
+        <v>9</v>
+      </c>
+      <c r="G70" t="s">
+        <v>73</v>
+      </c>
+      <c r="H70" t="s">
+        <v>72</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>2</v>
+      </c>
+      <c r="N70">
+        <v>3</v>
+      </c>
+      <c r="O70" t="s">
+        <v>99</v>
+      </c>
+      <c r="P70" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q70">
+        <v>3</v>
+      </c>
+      <c r="R70">
+        <v>2.05</v>
+      </c>
+      <c r="S70">
+        <v>4</v>
+      </c>
+      <c r="T70">
+        <v>1.5</v>
+      </c>
+      <c r="U70">
+        <v>2.5</v>
+      </c>
+      <c r="V70">
+        <v>3.4</v>
+      </c>
+      <c r="W70">
+        <v>1.3</v>
+      </c>
+      <c r="X70">
+        <v>10</v>
+      </c>
+      <c r="Y70">
+        <v>1.06</v>
+      </c>
+      <c r="Z70">
+        <v>2.16</v>
+      </c>
+      <c r="AA70">
+        <v>3.2</v>
+      </c>
+      <c r="AB70">
+        <v>3.2</v>
+      </c>
+      <c r="AC70">
+        <v>1.07</v>
+      </c>
+      <c r="AD70">
+        <v>7.5</v>
+      </c>
+      <c r="AE70">
+        <v>1.38</v>
+      </c>
+      <c r="AF70">
+        <v>2.9</v>
+      </c>
+      <c r="AG70">
+        <v>2.2</v>
+      </c>
+      <c r="AH70">
+        <v>1.64</v>
+      </c>
+      <c r="AI70">
+        <v>1.91</v>
+      </c>
+      <c r="AJ70">
+        <v>1.8</v>
+      </c>
+      <c r="AK70">
+        <v>1.28</v>
+      </c>
+      <c r="AL70">
+        <v>1.28</v>
+      </c>
+      <c r="AM70">
+        <v>1.55</v>
+      </c>
+      <c r="AN70">
+        <v>0.75</v>
+      </c>
+      <c r="AO70">
+        <v>0.67</v>
+      </c>
+      <c r="AP70">
+        <v>0.6</v>
+      </c>
+      <c r="AQ70">
+        <v>1.25</v>
+      </c>
+      <c r="AR70">
+        <v>1.19</v>
+      </c>
+      <c r="AS70">
+        <v>0.85</v>
+      </c>
+      <c r="AT70">
+        <v>2.04</v>
+      </c>
+      <c r="AU70">
+        <v>6</v>
+      </c>
+      <c r="AV70">
+        <v>4</v>
+      </c>
+      <c r="AW70">
+        <v>7</v>
+      </c>
+      <c r="AX70">
+        <v>7</v>
+      </c>
+      <c r="AY70">
+        <v>13</v>
+      </c>
+      <c r="AZ70">
+        <v>11</v>
+      </c>
+      <c r="BA70">
+        <v>7</v>
+      </c>
+      <c r="BB70">
+        <v>9</v>
+      </c>
+      <c r="BC70">
+        <v>16</v>
+      </c>
+      <c r="BD70">
+        <v>1.67</v>
+      </c>
+      <c r="BE70">
+        <v>8</v>
+      </c>
+      <c r="BF70">
+        <v>2.6</v>
+      </c>
+      <c r="BG70">
+        <v>1.29</v>
+      </c>
+      <c r="BH70">
+        <v>3.3</v>
+      </c>
+      <c r="BI70">
+        <v>1.45</v>
+      </c>
+      <c r="BJ70">
+        <v>2.55</v>
+      </c>
+      <c r="BK70">
+        <v>1.77</v>
+      </c>
+      <c r="BL70">
+        <v>1.95</v>
+      </c>
+      <c r="BM70">
+        <v>2.32</v>
+      </c>
+      <c r="BN70">
+        <v>1.54</v>
+      </c>
+      <c r="BO70">
+        <v>3.1</v>
+      </c>
+      <c r="BP70">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="182">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -418,7 +418,16 @@
     <t>['30']</t>
   </si>
   <si>
-    <t>['4', '18', '45+5', '56', '83', '87']</t>
+    <t>['2', '12', '45+4', '56', '83', '87']</t>
+  </si>
+  <si>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['26', '73']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -544,7 +553,13 @@
     <t>['75', '80']</t>
   </si>
   <si>
-    <t>['29', '90']</t>
+    <t>['27', '90']</t>
+  </si>
+  <si>
+    <t>['37', '85']</t>
+  </si>
+  <si>
+    <t>['7', '63']</t>
   </si>
 </sst>
 </file>
@@ -906,7 +921,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP70"/>
+  <dimension ref="A1:BP72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1165,7 +1180,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1371,7 +1386,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1449,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ3">
         <v>1.17</v>
@@ -1577,7 +1592,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -1658,7 +1673,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ4">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1783,7 +1798,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1989,7 +2004,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q6">
         <v>3.41</v>
@@ -2070,7 +2085,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2195,7 +2210,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2401,7 +2416,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2607,7 +2622,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2685,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -2813,7 +2828,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q10">
         <v>3.18</v>
@@ -4049,7 +4064,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4130,7 +4145,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR16">
         <v>1.34</v>
@@ -4255,7 +4270,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4461,7 +4476,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -4745,7 +4760,7 @@
         <v>2</v>
       </c>
       <c r="AP19">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
         <v>1.17</v>
@@ -4954,7 +4969,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR20">
         <v>1.46</v>
@@ -5079,7 +5094,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5157,7 +5172,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ21">
         <v>2.4</v>
@@ -5285,7 +5300,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5491,7 +5506,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5697,7 +5712,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -5903,7 +5918,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5981,7 +5996,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
         <v>2.4</v>
@@ -6315,7 +6330,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6521,7 +6536,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6727,7 +6742,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7629,7 +7644,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ33">
         <v>0.5</v>
@@ -7757,7 +7772,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -7963,7 +7978,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8250,7 +8265,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ36">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR36">
         <v>1.8</v>
@@ -8581,7 +8596,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -8787,7 +8802,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -8868,7 +8883,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR39">
         <v>0</v>
@@ -8993,7 +9008,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9199,7 +9214,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9817,7 +9832,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10435,7 +10450,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10641,7 +10656,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -10847,7 +10862,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11053,7 +11068,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11131,10 +11146,10 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR50">
         <v>1.19</v>
@@ -11259,7 +11274,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11465,7 +11480,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -11546,7 +11561,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ52">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR52">
         <v>1.3</v>
@@ -12083,7 +12098,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12161,7 +12176,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ55">
         <v>2</v>
@@ -12289,7 +12304,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -12907,7 +12922,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13113,7 +13128,7 @@
         <v>93</v>
       </c>
       <c r="P60" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13319,7 +13334,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -13731,7 +13746,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13937,7 +13952,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14143,7 +14158,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14555,7 +14570,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -14761,7 +14776,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -14967,7 +14982,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15170,10 +15185,10 @@
         <v>3</v>
       </c>
       <c r="O70" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15329,6 +15344,418 @@
         <v>3.1</v>
       </c>
       <c r="BP70">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7343709</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45403.54166666666</v>
+      </c>
+      <c r="F71">
+        <v>9</v>
+      </c>
+      <c r="G71" t="s">
+        <v>71</v>
+      </c>
+      <c r="H71" t="s">
+        <v>78</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>2</v>
+      </c>
+      <c r="N71">
+        <v>3</v>
+      </c>
+      <c r="O71" t="s">
+        <v>136</v>
+      </c>
+      <c r="P71" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q71">
+        <v>3.4</v>
+      </c>
+      <c r="R71">
+        <v>1.91</v>
+      </c>
+      <c r="S71">
+        <v>3.75</v>
+      </c>
+      <c r="T71">
+        <v>1.53</v>
+      </c>
+      <c r="U71">
+        <v>2.38</v>
+      </c>
+      <c r="V71">
+        <v>3.75</v>
+      </c>
+      <c r="W71">
+        <v>1.25</v>
+      </c>
+      <c r="X71">
+        <v>11</v>
+      </c>
+      <c r="Y71">
+        <v>1.05</v>
+      </c>
+      <c r="Z71">
+        <v>2.4</v>
+      </c>
+      <c r="AA71">
+        <v>3.1</v>
+      </c>
+      <c r="AB71">
+        <v>2.8</v>
+      </c>
+      <c r="AC71">
+        <v>1.06</v>
+      </c>
+      <c r="AD71">
+        <v>6.8</v>
+      </c>
+      <c r="AE71">
+        <v>1.43</v>
+      </c>
+      <c r="AF71">
+        <v>2.54</v>
+      </c>
+      <c r="AG71">
+        <v>2.27</v>
+      </c>
+      <c r="AH71">
+        <v>1.45</v>
+      </c>
+      <c r="AI71">
+        <v>2</v>
+      </c>
+      <c r="AJ71">
+        <v>1.73</v>
+      </c>
+      <c r="AK71">
+        <v>1.32</v>
+      </c>
+      <c r="AL71">
+        <v>1.32</v>
+      </c>
+      <c r="AM71">
+        <v>1.45</v>
+      </c>
+      <c r="AN71">
+        <v>0.25</v>
+      </c>
+      <c r="AO71">
+        <v>1</v>
+      </c>
+      <c r="AP71">
+        <v>0.2</v>
+      </c>
+      <c r="AQ71">
+        <v>1.4</v>
+      </c>
+      <c r="AR71">
+        <v>1.16</v>
+      </c>
+      <c r="AS71">
+        <v>1</v>
+      </c>
+      <c r="AT71">
+        <v>2.16</v>
+      </c>
+      <c r="AU71">
+        <v>2</v>
+      </c>
+      <c r="AV71">
+        <v>3</v>
+      </c>
+      <c r="AW71">
+        <v>5</v>
+      </c>
+      <c r="AX71">
+        <v>7</v>
+      </c>
+      <c r="AY71">
+        <v>7</v>
+      </c>
+      <c r="AZ71">
+        <v>10</v>
+      </c>
+      <c r="BA71">
+        <v>6</v>
+      </c>
+      <c r="BB71">
+        <v>3</v>
+      </c>
+      <c r="BC71">
+        <v>9</v>
+      </c>
+      <c r="BD71">
+        <v>1.44</v>
+      </c>
+      <c r="BE71">
+        <v>8.5</v>
+      </c>
+      <c r="BF71">
+        <v>3.1</v>
+      </c>
+      <c r="BG71">
+        <v>1.3</v>
+      </c>
+      <c r="BH71">
+        <v>3.2</v>
+      </c>
+      <c r="BI71">
+        <v>1.48</v>
+      </c>
+      <c r="BJ71">
+        <v>2.47</v>
+      </c>
+      <c r="BK71">
+        <v>1.9</v>
+      </c>
+      <c r="BL71">
+        <v>1.8</v>
+      </c>
+      <c r="BM71">
+        <v>2.37</v>
+      </c>
+      <c r="BN71">
+        <v>1.51</v>
+      </c>
+      <c r="BO71">
+        <v>3.2</v>
+      </c>
+      <c r="BP71">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7343711</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45403.64583333334</v>
+      </c>
+      <c r="F72">
+        <v>9</v>
+      </c>
+      <c r="G72" t="s">
+        <v>77</v>
+      </c>
+      <c r="H72" t="s">
+        <v>84</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="L72">
+        <v>2</v>
+      </c>
+      <c r="M72">
+        <v>2</v>
+      </c>
+      <c r="N72">
+        <v>4</v>
+      </c>
+      <c r="O72" t="s">
+        <v>137</v>
+      </c>
+      <c r="P72" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q72">
+        <v>3.4</v>
+      </c>
+      <c r="R72">
+        <v>2</v>
+      </c>
+      <c r="S72">
+        <v>3.5</v>
+      </c>
+      <c r="T72">
+        <v>1.5</v>
+      </c>
+      <c r="U72">
+        <v>2.5</v>
+      </c>
+      <c r="V72">
+        <v>3.5</v>
+      </c>
+      <c r="W72">
+        <v>1.29</v>
+      </c>
+      <c r="X72">
+        <v>11</v>
+      </c>
+      <c r="Y72">
+        <v>1.05</v>
+      </c>
+      <c r="Z72">
+        <v>2.63</v>
+      </c>
+      <c r="AA72">
+        <v>3</v>
+      </c>
+      <c r="AB72">
+        <v>2.7</v>
+      </c>
+      <c r="AC72">
+        <v>1.05</v>
+      </c>
+      <c r="AD72">
+        <v>7.2</v>
+      </c>
+      <c r="AE72">
+        <v>1.39</v>
+      </c>
+      <c r="AF72">
+        <v>2.67</v>
+      </c>
+      <c r="AG72">
+        <v>2.25</v>
+      </c>
+      <c r="AH72">
+        <v>1.6</v>
+      </c>
+      <c r="AI72">
+        <v>2</v>
+      </c>
+      <c r="AJ72">
+        <v>1.73</v>
+      </c>
+      <c r="AK72">
+        <v>1.43</v>
+      </c>
+      <c r="AL72">
+        <v>1.32</v>
+      </c>
+      <c r="AM72">
+        <v>1.43</v>
+      </c>
+      <c r="AN72">
+        <v>2.25</v>
+      </c>
+      <c r="AO72">
+        <v>2</v>
+      </c>
+      <c r="AP72">
+        <v>2</v>
+      </c>
+      <c r="AQ72">
+        <v>1.8</v>
+      </c>
+      <c r="AR72">
+        <v>1.26</v>
+      </c>
+      <c r="AS72">
+        <v>1.38</v>
+      </c>
+      <c r="AT72">
+        <v>2.64</v>
+      </c>
+      <c r="AU72">
+        <v>4</v>
+      </c>
+      <c r="AV72">
+        <v>5</v>
+      </c>
+      <c r="AW72">
+        <v>3</v>
+      </c>
+      <c r="AX72">
+        <v>3</v>
+      </c>
+      <c r="AY72">
+        <v>7</v>
+      </c>
+      <c r="AZ72">
+        <v>8</v>
+      </c>
+      <c r="BA72">
+        <v>3</v>
+      </c>
+      <c r="BB72">
+        <v>8</v>
+      </c>
+      <c r="BC72">
+        <v>11</v>
+      </c>
+      <c r="BD72">
+        <v>2.2</v>
+      </c>
+      <c r="BE72">
+        <v>8</v>
+      </c>
+      <c r="BF72">
+        <v>1.91</v>
+      </c>
+      <c r="BG72">
+        <v>1.29</v>
+      </c>
+      <c r="BH72">
+        <v>3.3</v>
+      </c>
+      <c r="BI72">
+        <v>1.43</v>
+      </c>
+      <c r="BJ72">
+        <v>2.62</v>
+      </c>
+      <c r="BK72">
+        <v>1.8</v>
+      </c>
+      <c r="BL72">
+        <v>1.9</v>
+      </c>
+      <c r="BM72">
+        <v>2.32</v>
+      </c>
+      <c r="BN72">
+        <v>1.54</v>
+      </c>
+      <c r="BO72">
+        <v>3.1</v>
+      </c>
+      <c r="BP72">
         <v>1.32</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -427,7 +427,7 @@
     <t>['50']</t>
   </si>
   <si>
-    <t>['26', '73']</t>
+    <t>['26', '74']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -556,10 +556,10 @@
     <t>['27', '90']</t>
   </si>
   <si>
-    <t>['37', '85']</t>
-  </si>
-  <si>
-    <t>['7', '63']</t>
+    <t>['36', '85']</t>
+  </si>
+  <si>
+    <t>['6', '63']</t>
   </si>
 </sst>
 </file>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="189">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -430,6 +430,18 @@
     <t>['26', '74']</t>
   </si>
   <si>
+    <t>['14', '60']</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>['12', '77']</t>
+  </si>
+  <si>
+    <t>['30', '82', '90+1']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -560,6 +572,15 @@
   </si>
   <si>
     <t>['6', '63']</t>
+  </si>
+  <si>
+    <t>['7']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['28', '45+3', '61', '68', '90+6']</t>
   </si>
 </sst>
 </file>
@@ -921,7 +942,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP72"/>
+  <dimension ref="A1:BP76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1180,7 +1201,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1386,7 +1407,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1467,7 +1488,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ3">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1592,7 +1613,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -1670,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ4">
         <v>1.8</v>
@@ -1798,7 +1819,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1879,7 +1900,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ5">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2004,7 +2025,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q6">
         <v>3.41</v>
@@ -2210,7 +2231,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2416,7 +2437,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2494,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ8">
         <v>3</v>
@@ -2622,7 +2643,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2828,7 +2849,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q10">
         <v>3.18</v>
@@ -3115,7 +3136,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ11">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3524,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ13">
         <v>0.75</v>
@@ -4064,7 +4085,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4270,7 +4291,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4348,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ17">
         <v>1.6</v>
@@ -4476,7 +4497,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -4557,7 +4578,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ18">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <v>1.29</v>
@@ -4763,7 +4784,7 @@
         <v>2</v>
       </c>
       <c r="AQ19">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR19">
         <v>1.89</v>
@@ -5094,7 +5115,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5175,7 +5196,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ21">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR21">
         <v>1.09</v>
@@ -5300,7 +5321,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5506,7 +5527,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5584,7 +5605,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ23">
         <v>3</v>
@@ -5712,7 +5733,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -5790,7 +5811,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ24">
         <v>0.75</v>
@@ -5918,7 +5939,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5999,7 +6020,7 @@
         <v>2</v>
       </c>
       <c r="AQ25">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR25">
         <v>1.39</v>
@@ -6330,7 +6351,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6411,7 +6432,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ27">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR27">
         <v>1.67</v>
@@ -6536,7 +6557,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6742,7 +6763,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7026,7 +7047,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ30">
         <v>0</v>
@@ -7772,7 +7793,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -7978,7 +7999,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8056,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ35">
         <v>1.25</v>
@@ -8471,7 +8492,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ37">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR37">
         <v>1.36</v>
@@ -8596,7 +8617,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -8802,7 +8823,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9008,7 +9029,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9214,7 +9235,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9292,7 +9313,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ41">
         <v>2.25</v>
@@ -9704,7 +9725,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ43">
         <v>0.75</v>
@@ -9832,7 +9853,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10119,7 +10140,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ45">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR45">
         <v>1.48</v>
@@ -10450,7 +10471,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10528,7 +10549,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ47">
         <v>0.5</v>
@@ -10656,7 +10677,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -10737,7 +10758,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ48">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR48">
         <v>1.4</v>
@@ -10862,7 +10883,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -10943,7 +10964,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ49">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR49">
         <v>1.39</v>
@@ -11068,7 +11089,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11274,7 +11295,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11480,7 +11501,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -12098,7 +12119,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12304,7 +12325,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -12591,7 +12612,7 @@
         <v>3</v>
       </c>
       <c r="AQ57">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR57">
         <v>1.7</v>
@@ -12922,7 +12943,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13128,7 +13149,7 @@
         <v>93</v>
       </c>
       <c r="P60" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13206,7 +13227,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ60">
         <v>2.25</v>
@@ -13334,7 +13355,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -13621,7 +13642,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ62">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR62">
         <v>1.31</v>
@@ -13746,7 +13767,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13952,7 +13973,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14030,7 +14051,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ64">
         <v>1.5</v>
@@ -14158,7 +14179,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14445,7 +14466,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ66">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR66">
         <v>1.58</v>
@@ -14570,7 +14591,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -14776,7 +14797,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -14982,7 +15003,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15188,7 +15209,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15394,7 +15415,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15600,7 +15621,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15757,6 +15778,830 @@
       </c>
       <c r="BP72">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7343650</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45406.625</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" t="s">
+        <v>83</v>
+      </c>
+      <c r="H73" t="s">
+        <v>82</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="L73">
+        <v>2</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>3</v>
+      </c>
+      <c r="O73" t="s">
+        <v>138</v>
+      </c>
+      <c r="P73" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q73">
+        <v>5</v>
+      </c>
+      <c r="R73">
+        <v>2.2</v>
+      </c>
+      <c r="S73">
+        <v>2.38</v>
+      </c>
+      <c r="T73">
+        <v>1.4</v>
+      </c>
+      <c r="U73">
+        <v>2.75</v>
+      </c>
+      <c r="V73">
+        <v>2.75</v>
+      </c>
+      <c r="W73">
+        <v>1.4</v>
+      </c>
+      <c r="X73">
+        <v>8</v>
+      </c>
+      <c r="Y73">
+        <v>1.08</v>
+      </c>
+      <c r="Z73">
+        <v>4.9</v>
+      </c>
+      <c r="AA73">
+        <v>3.6</v>
+      </c>
+      <c r="AB73">
+        <v>1.65</v>
+      </c>
+      <c r="AC73">
+        <v>1.06</v>
+      </c>
+      <c r="AD73">
+        <v>8</v>
+      </c>
+      <c r="AE73">
+        <v>1.33</v>
+      </c>
+      <c r="AF73">
+        <v>3.2</v>
+      </c>
+      <c r="AG73">
+        <v>1.94</v>
+      </c>
+      <c r="AH73">
+        <v>1.82</v>
+      </c>
+      <c r="AI73">
+        <v>1.83</v>
+      </c>
+      <c r="AJ73">
+        <v>1.83</v>
+      </c>
+      <c r="AK73">
+        <v>2.05</v>
+      </c>
+      <c r="AL73">
+        <v>1.22</v>
+      </c>
+      <c r="AM73">
+        <v>1.13</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
+        <v>1.25</v>
+      </c>
+      <c r="AP73">
+        <v>1.33</v>
+      </c>
+      <c r="AQ73">
+        <v>1</v>
+      </c>
+      <c r="AR73">
+        <v>0.8</v>
+      </c>
+      <c r="AS73">
+        <v>1.69</v>
+      </c>
+      <c r="AT73">
+        <v>2.49</v>
+      </c>
+      <c r="AU73">
+        <v>5</v>
+      </c>
+      <c r="AV73">
+        <v>4</v>
+      </c>
+      <c r="AW73">
+        <v>2</v>
+      </c>
+      <c r="AX73">
+        <v>7</v>
+      </c>
+      <c r="AY73">
+        <v>7</v>
+      </c>
+      <c r="AZ73">
+        <v>11</v>
+      </c>
+      <c r="BA73">
+        <v>5</v>
+      </c>
+      <c r="BB73">
+        <v>4</v>
+      </c>
+      <c r="BC73">
+        <v>9</v>
+      </c>
+      <c r="BD73">
+        <v>3.2</v>
+      </c>
+      <c r="BE73">
+        <v>9</v>
+      </c>
+      <c r="BF73">
+        <v>1.44</v>
+      </c>
+      <c r="BG73">
+        <v>1.29</v>
+      </c>
+      <c r="BH73">
+        <v>3.3</v>
+      </c>
+      <c r="BI73">
+        <v>1.52</v>
+      </c>
+      <c r="BJ73">
+        <v>2.47</v>
+      </c>
+      <c r="BK73">
+        <v>1.86</v>
+      </c>
+      <c r="BL73">
+        <v>1.94</v>
+      </c>
+      <c r="BM73">
+        <v>2.32</v>
+      </c>
+      <c r="BN73">
+        <v>1.58</v>
+      </c>
+      <c r="BO73">
+        <v>2.9</v>
+      </c>
+      <c r="BP73">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7343719</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45409.52083333334</v>
+      </c>
+      <c r="F74">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s">
+        <v>83</v>
+      </c>
+      <c r="H74" t="s">
+        <v>73</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>2</v>
+      </c>
+      <c r="O74" t="s">
+        <v>139</v>
+      </c>
+      <c r="P74" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q74">
+        <v>3.6</v>
+      </c>
+      <c r="R74">
+        <v>2.05</v>
+      </c>
+      <c r="S74">
+        <v>3.1</v>
+      </c>
+      <c r="T74">
+        <v>1.44</v>
+      </c>
+      <c r="U74">
+        <v>2.63</v>
+      </c>
+      <c r="V74">
+        <v>3.4</v>
+      </c>
+      <c r="W74">
+        <v>1.3</v>
+      </c>
+      <c r="X74">
+        <v>10</v>
+      </c>
+      <c r="Y74">
+        <v>1.06</v>
+      </c>
+      <c r="Z74">
+        <v>2.75</v>
+      </c>
+      <c r="AA74">
+        <v>3.1</v>
+      </c>
+      <c r="AB74">
+        <v>2.3</v>
+      </c>
+      <c r="AC74">
+        <v>1.05</v>
+      </c>
+      <c r="AD74">
+        <v>8</v>
+      </c>
+      <c r="AE74">
+        <v>1.36</v>
+      </c>
+      <c r="AF74">
+        <v>2.9</v>
+      </c>
+      <c r="AG74">
+        <v>2.1</v>
+      </c>
+      <c r="AH74">
+        <v>1.67</v>
+      </c>
+      <c r="AI74">
+        <v>1.91</v>
+      </c>
+      <c r="AJ74">
+        <v>1.8</v>
+      </c>
+      <c r="AK74">
+        <v>1.55</v>
+      </c>
+      <c r="AL74">
+        <v>1.35</v>
+      </c>
+      <c r="AM74">
+        <v>1.4</v>
+      </c>
+      <c r="AN74">
+        <v>1.4</v>
+      </c>
+      <c r="AO74">
+        <v>1</v>
+      </c>
+      <c r="AP74">
+        <v>1.33</v>
+      </c>
+      <c r="AQ74">
+        <v>1</v>
+      </c>
+      <c r="AR74">
+        <v>0.9</v>
+      </c>
+      <c r="AS74">
+        <v>1.52</v>
+      </c>
+      <c r="AT74">
+        <v>2.42</v>
+      </c>
+      <c r="AU74">
+        <v>3</v>
+      </c>
+      <c r="AV74">
+        <v>3</v>
+      </c>
+      <c r="AW74">
+        <v>1</v>
+      </c>
+      <c r="AX74">
+        <v>3</v>
+      </c>
+      <c r="AY74">
+        <v>4</v>
+      </c>
+      <c r="AZ74">
+        <v>6</v>
+      </c>
+      <c r="BA74">
+        <v>6</v>
+      </c>
+      <c r="BB74">
+        <v>6</v>
+      </c>
+      <c r="BC74">
+        <v>12</v>
+      </c>
+      <c r="BD74">
+        <v>2.1</v>
+      </c>
+      <c r="BE74">
+        <v>8</v>
+      </c>
+      <c r="BF74">
+        <v>1.91</v>
+      </c>
+      <c r="BG74">
+        <v>1.29</v>
+      </c>
+      <c r="BH74">
+        <v>3.3</v>
+      </c>
+      <c r="BI74">
+        <v>1.5</v>
+      </c>
+      <c r="BJ74">
+        <v>2.4</v>
+      </c>
+      <c r="BK74">
+        <v>1.88</v>
+      </c>
+      <c r="BL74">
+        <v>1.92</v>
+      </c>
+      <c r="BM74">
+        <v>2.4</v>
+      </c>
+      <c r="BN74">
+        <v>1.5</v>
+      </c>
+      <c r="BO74">
+        <v>3.2</v>
+      </c>
+      <c r="BP74">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7343721</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45409.625</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="G75" t="s">
+        <v>76</v>
+      </c>
+      <c r="H75" t="s">
+        <v>79</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>2</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>2</v>
+      </c>
+      <c r="O75" t="s">
+        <v>140</v>
+      </c>
+      <c r="P75" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q75">
+        <v>3.5</v>
+      </c>
+      <c r="R75">
+        <v>2</v>
+      </c>
+      <c r="S75">
+        <v>3.4</v>
+      </c>
+      <c r="T75">
+        <v>1.5</v>
+      </c>
+      <c r="U75">
+        <v>2.5</v>
+      </c>
+      <c r="V75">
+        <v>3.4</v>
+      </c>
+      <c r="W75">
+        <v>1.3</v>
+      </c>
+      <c r="X75">
+        <v>10</v>
+      </c>
+      <c r="Y75">
+        <v>1.06</v>
+      </c>
+      <c r="Z75">
+        <v>2.6</v>
+      </c>
+      <c r="AA75">
+        <v>3</v>
+      </c>
+      <c r="AB75">
+        <v>2.5</v>
+      </c>
+      <c r="AC75">
+        <v>1.08</v>
+      </c>
+      <c r="AD75">
+        <v>7</v>
+      </c>
+      <c r="AE75">
+        <v>1.42</v>
+      </c>
+      <c r="AF75">
+        <v>2.75</v>
+      </c>
+      <c r="AG75">
+        <v>2.2</v>
+      </c>
+      <c r="AH75">
+        <v>1.6</v>
+      </c>
+      <c r="AI75">
+        <v>1.91</v>
+      </c>
+      <c r="AJ75">
+        <v>1.8</v>
+      </c>
+      <c r="AK75">
+        <v>1.45</v>
+      </c>
+      <c r="AL75">
+        <v>1.32</v>
+      </c>
+      <c r="AM75">
+        <v>1.41</v>
+      </c>
+      <c r="AN75">
+        <v>1</v>
+      </c>
+      <c r="AO75">
+        <v>2.4</v>
+      </c>
+      <c r="AP75">
+        <v>1.4</v>
+      </c>
+      <c r="AQ75">
+        <v>2</v>
+      </c>
+      <c r="AR75">
+        <v>1.21</v>
+      </c>
+      <c r="AS75">
+        <v>1.21</v>
+      </c>
+      <c r="AT75">
+        <v>2.42</v>
+      </c>
+      <c r="AU75">
+        <v>8</v>
+      </c>
+      <c r="AV75">
+        <v>6</v>
+      </c>
+      <c r="AW75">
+        <v>5</v>
+      </c>
+      <c r="AX75">
+        <v>4</v>
+      </c>
+      <c r="AY75">
+        <v>13</v>
+      </c>
+      <c r="AZ75">
+        <v>10</v>
+      </c>
+      <c r="BA75">
+        <v>6</v>
+      </c>
+      <c r="BB75">
+        <v>3</v>
+      </c>
+      <c r="BC75">
+        <v>9</v>
+      </c>
+      <c r="BD75">
+        <v>1.91</v>
+      </c>
+      <c r="BE75">
+        <v>8</v>
+      </c>
+      <c r="BF75">
+        <v>2.1</v>
+      </c>
+      <c r="BG75">
+        <v>1.29</v>
+      </c>
+      <c r="BH75">
+        <v>3.3</v>
+      </c>
+      <c r="BI75">
+        <v>1.5</v>
+      </c>
+      <c r="BJ75">
+        <v>2.4</v>
+      </c>
+      <c r="BK75">
+        <v>1.9</v>
+      </c>
+      <c r="BL75">
+        <v>1.9</v>
+      </c>
+      <c r="BM75">
+        <v>2.4</v>
+      </c>
+      <c r="BN75">
+        <v>1.5</v>
+      </c>
+      <c r="BO75">
+        <v>3.2</v>
+      </c>
+      <c r="BP75">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7343720</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45410.41666666666</v>
+      </c>
+      <c r="F76">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
+        <v>72</v>
+      </c>
+      <c r="H76" t="s">
+        <v>85</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>2</v>
+      </c>
+      <c r="K76">
+        <v>3</v>
+      </c>
+      <c r="L76">
+        <v>3</v>
+      </c>
+      <c r="M76">
+        <v>5</v>
+      </c>
+      <c r="N76">
+        <v>8</v>
+      </c>
+      <c r="O76" t="s">
+        <v>141</v>
+      </c>
+      <c r="P76" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q76">
+        <v>4</v>
+      </c>
+      <c r="R76">
+        <v>2</v>
+      </c>
+      <c r="S76">
+        <v>3.1</v>
+      </c>
+      <c r="T76">
+        <v>1.5</v>
+      </c>
+      <c r="U76">
+        <v>2.5</v>
+      </c>
+      <c r="V76">
+        <v>3.5</v>
+      </c>
+      <c r="W76">
+        <v>1.29</v>
+      </c>
+      <c r="X76">
+        <v>11</v>
+      </c>
+      <c r="Y76">
+        <v>1.05</v>
+      </c>
+      <c r="Z76">
+        <v>2.92</v>
+      </c>
+      <c r="AA76">
+        <v>3.1</v>
+      </c>
+      <c r="AB76">
+        <v>2.2</v>
+      </c>
+      <c r="AC76">
+        <v>1.07</v>
+      </c>
+      <c r="AD76">
+        <v>7</v>
+      </c>
+      <c r="AE76">
+        <v>1.4</v>
+      </c>
+      <c r="AF76">
+        <v>2.7</v>
+      </c>
+      <c r="AG76">
+        <v>2.14</v>
+      </c>
+      <c r="AH76">
+        <v>1.51</v>
+      </c>
+      <c r="AI76">
+        <v>2</v>
+      </c>
+      <c r="AJ76">
+        <v>1.73</v>
+      </c>
+      <c r="AK76">
+        <v>1.62</v>
+      </c>
+      <c r="AL76">
+        <v>1.35</v>
+      </c>
+      <c r="AM76">
+        <v>1.35</v>
+      </c>
+      <c r="AN76">
+        <v>0.4</v>
+      </c>
+      <c r="AO76">
+        <v>1.17</v>
+      </c>
+      <c r="AP76">
+        <v>0.33</v>
+      </c>
+      <c r="AQ76">
+        <v>1.43</v>
+      </c>
+      <c r="AR76">
+        <v>1.18</v>
+      </c>
+      <c r="AS76">
+        <v>1.38</v>
+      </c>
+      <c r="AT76">
+        <v>2.56</v>
+      </c>
+      <c r="AU76">
+        <v>5</v>
+      </c>
+      <c r="AV76">
+        <v>0</v>
+      </c>
+      <c r="AW76">
+        <v>2</v>
+      </c>
+      <c r="AX76">
+        <v>3</v>
+      </c>
+      <c r="AY76">
+        <v>7</v>
+      </c>
+      <c r="AZ76">
+        <v>3</v>
+      </c>
+      <c r="BA76">
+        <v>4</v>
+      </c>
+      <c r="BB76">
+        <v>2</v>
+      </c>
+      <c r="BC76">
+        <v>6</v>
+      </c>
+      <c r="BD76">
+        <v>2.2</v>
+      </c>
+      <c r="BE76">
+        <v>8</v>
+      </c>
+      <c r="BF76">
+        <v>1.91</v>
+      </c>
+      <c r="BG76">
+        <v>1.24</v>
+      </c>
+      <c r="BH76">
+        <v>3.48</v>
+      </c>
+      <c r="BI76">
+        <v>1.46</v>
+      </c>
+      <c r="BJ76">
+        <v>2.52</v>
+      </c>
+      <c r="BK76">
+        <v>1.85</v>
+      </c>
+      <c r="BL76">
+        <v>1.95</v>
+      </c>
+      <c r="BM76">
+        <v>2.37</v>
+      </c>
+      <c r="BN76">
+        <v>1.51</v>
+      </c>
+      <c r="BO76">
+        <v>3.2</v>
+      </c>
+      <c r="BP76">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="195">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -442,6 +442,15 @@
     <t>['30', '82', '90+1']</t>
   </si>
   <si>
+    <t>['74', '90+3']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['36', '86']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -581,6 +590,15 @@
   </si>
   <si>
     <t>['28', '45+3', '61', '68', '90+6']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['40', '70']</t>
+  </si>
+  <si>
+    <t>['54', '65']</t>
   </si>
 </sst>
 </file>
@@ -942,7 +960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP76"/>
+  <dimension ref="A1:BP79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1201,7 +1219,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1407,7 +1425,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1613,7 +1631,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -1819,7 +1837,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2025,7 +2043,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q6">
         <v>3.41</v>
@@ -2103,10 +2121,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2231,7 +2249,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2312,7 +2330,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2437,7 +2455,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2643,7 +2661,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2849,7 +2867,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q10">
         <v>3.18</v>
@@ -3754,7 +3772,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3957,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ15">
         <v>0.5</v>
@@ -4085,7 +4103,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4163,7 +4181,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
         <v>1.8</v>
@@ -4291,7 +4309,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4497,7 +4515,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -4990,7 +5008,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ20">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR20">
         <v>1.46</v>
@@ -5115,7 +5133,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5321,7 +5339,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5527,7 +5545,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5733,7 +5751,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -5939,7 +5957,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6351,7 +6369,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6557,7 +6575,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6763,7 +6781,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -6841,10 +6859,10 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ29">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR29">
         <v>1.71</v>
@@ -7462,7 +7480,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ32">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR32">
         <v>1.15</v>
@@ -7793,7 +7811,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -7999,7 +8017,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8617,7 +8635,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -8695,7 +8713,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
         <v>1.6</v>
@@ -8823,7 +8841,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -8904,7 +8922,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ39">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR39">
         <v>0</v>
@@ -9029,7 +9047,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9235,7 +9253,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9522,7 +9540,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ42">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR42">
         <v>1.51</v>
@@ -9853,7 +9871,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10137,7 +10155,7 @@
         <v>1.75</v>
       </c>
       <c r="AP45">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ45">
         <v>1.43</v>
@@ -10471,7 +10489,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10677,7 +10695,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -10883,7 +10901,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11089,7 +11107,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11170,7 +11188,7 @@
         <v>2</v>
       </c>
       <c r="AQ50">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR50">
         <v>1.19</v>
@@ -11295,7 +11313,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11501,7 +11519,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -11991,7 +12009,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ54">
         <v>0</v>
@@ -12119,7 +12137,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12200,7 +12218,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ55">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR55">
         <v>1.09</v>
@@ -12325,7 +12343,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -12815,7 +12833,7 @@
         <v>0.67</v>
       </c>
       <c r="AP58">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ58">
         <v>0.75</v>
@@ -12943,7 +12961,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13149,7 +13167,7 @@
         <v>93</v>
       </c>
       <c r="P60" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13355,7 +13373,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -13433,7 +13451,7 @@
         <v>0.67</v>
       </c>
       <c r="AP61">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ61">
         <v>0.5</v>
@@ -13767,7 +13785,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13848,7 +13866,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ63">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR63">
         <v>1.42</v>
@@ -13973,7 +13991,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14054,7 +14072,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ64">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR64">
         <v>1.2</v>
@@ -14179,7 +14197,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14591,7 +14609,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -14797,7 +14815,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15003,7 +15021,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15209,7 +15227,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15415,7 +15433,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15496,7 +15514,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ71">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR71">
         <v>1.16</v>
@@ -15621,7 +15639,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15827,7 +15845,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -16033,7 +16051,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16445,7 +16463,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16538,31 +16556,31 @@
         <v>2.56</v>
       </c>
       <c r="AU76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV76">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AW76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY76">
         <v>7</v>
       </c>
       <c r="AZ76">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BA76">
+        <v>10</v>
+      </c>
+      <c r="BB76">
         <v>4</v>
       </c>
-      <c r="BB76">
-        <v>2</v>
-      </c>
       <c r="BC76">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BD76">
         <v>2.2</v>
@@ -16601,6 +16619,624 @@
         <v>3.2</v>
       </c>
       <c r="BP76">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7343723</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45410.625</v>
+      </c>
+      <c r="F77">
+        <v>10</v>
+      </c>
+      <c r="G77" t="s">
+        <v>84</v>
+      </c>
+      <c r="H77" t="s">
+        <v>81</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>2</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>3</v>
+      </c>
+      <c r="O77" t="s">
+        <v>142</v>
+      </c>
+      <c r="P77" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q77">
+        <v>3.6</v>
+      </c>
+      <c r="R77">
+        <v>2.05</v>
+      </c>
+      <c r="S77">
+        <v>3.1</v>
+      </c>
+      <c r="T77">
+        <v>1.44</v>
+      </c>
+      <c r="U77">
+        <v>2.63</v>
+      </c>
+      <c r="V77">
+        <v>3.4</v>
+      </c>
+      <c r="W77">
+        <v>1.3</v>
+      </c>
+      <c r="X77">
+        <v>10</v>
+      </c>
+      <c r="Y77">
+        <v>1.06</v>
+      </c>
+      <c r="Z77">
+        <v>2.8</v>
+      </c>
+      <c r="AA77">
+        <v>3.1</v>
+      </c>
+      <c r="AB77">
+        <v>2.25</v>
+      </c>
+      <c r="AC77">
+        <v>1.05</v>
+      </c>
+      <c r="AD77">
+        <v>8</v>
+      </c>
+      <c r="AE77">
+        <v>1.36</v>
+      </c>
+      <c r="AF77">
+        <v>2.9</v>
+      </c>
+      <c r="AG77">
+        <v>2.1</v>
+      </c>
+      <c r="AH77">
+        <v>1.65</v>
+      </c>
+      <c r="AI77">
+        <v>1.83</v>
+      </c>
+      <c r="AJ77">
+        <v>1.83</v>
+      </c>
+      <c r="AK77">
+        <v>1.57</v>
+      </c>
+      <c r="AL77">
+        <v>1.33</v>
+      </c>
+      <c r="AM77">
+        <v>1.4</v>
+      </c>
+      <c r="AN77">
+        <v>3</v>
+      </c>
+      <c r="AO77">
+        <v>2</v>
+      </c>
+      <c r="AP77">
+        <v>3</v>
+      </c>
+      <c r="AQ77">
+        <v>1.6</v>
+      </c>
+      <c r="AR77">
+        <v>1.54</v>
+      </c>
+      <c r="AS77">
+        <v>1.79</v>
+      </c>
+      <c r="AT77">
+        <v>3.33</v>
+      </c>
+      <c r="AU77">
+        <v>10</v>
+      </c>
+      <c r="AV77">
+        <v>6</v>
+      </c>
+      <c r="AW77">
+        <v>5</v>
+      </c>
+      <c r="AX77">
+        <v>4</v>
+      </c>
+      <c r="AY77">
+        <v>15</v>
+      </c>
+      <c r="AZ77">
+        <v>10</v>
+      </c>
+      <c r="BA77">
+        <v>7</v>
+      </c>
+      <c r="BB77">
+        <v>7</v>
+      </c>
+      <c r="BC77">
+        <v>14</v>
+      </c>
+      <c r="BD77">
+        <v>1.91</v>
+      </c>
+      <c r="BE77">
+        <v>8</v>
+      </c>
+      <c r="BF77">
+        <v>2.2</v>
+      </c>
+      <c r="BG77">
+        <v>1.19</v>
+      </c>
+      <c r="BH77">
+        <v>3.98</v>
+      </c>
+      <c r="BI77">
+        <v>1.36</v>
+      </c>
+      <c r="BJ77">
+        <v>2.9</v>
+      </c>
+      <c r="BK77">
+        <v>1.67</v>
+      </c>
+      <c r="BL77">
+        <v>2.07</v>
+      </c>
+      <c r="BM77">
+        <v>2.1</v>
+      </c>
+      <c r="BN77">
+        <v>1.65</v>
+      </c>
+      <c r="BO77">
+        <v>2.77</v>
+      </c>
+      <c r="BP77">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7343718</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45410.75</v>
+      </c>
+      <c r="F78">
+        <v>10</v>
+      </c>
+      <c r="G78" t="s">
+        <v>74</v>
+      </c>
+      <c r="H78" t="s">
+        <v>70</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="N78">
+        <v>3</v>
+      </c>
+      <c r="O78" t="s">
+        <v>143</v>
+      </c>
+      <c r="P78" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q78">
+        <v>6</v>
+      </c>
+      <c r="R78">
+        <v>2.1</v>
+      </c>
+      <c r="S78">
+        <v>2.25</v>
+      </c>
+      <c r="T78">
+        <v>1.44</v>
+      </c>
+      <c r="U78">
+        <v>2.63</v>
+      </c>
+      <c r="V78">
+        <v>3.25</v>
+      </c>
+      <c r="W78">
+        <v>1.33</v>
+      </c>
+      <c r="X78">
+        <v>9</v>
+      </c>
+      <c r="Y78">
+        <v>1.07</v>
+      </c>
+      <c r="Z78">
+        <v>4.8</v>
+      </c>
+      <c r="AA78">
+        <v>3.5</v>
+      </c>
+      <c r="AB78">
+        <v>1.6</v>
+      </c>
+      <c r="AC78">
+        <v>1.03</v>
+      </c>
+      <c r="AD78">
+        <v>8</v>
+      </c>
+      <c r="AE78">
+        <v>1.33</v>
+      </c>
+      <c r="AF78">
+        <v>2.93</v>
+      </c>
+      <c r="AG78">
+        <v>2.05</v>
+      </c>
+      <c r="AH78">
+        <v>1.67</v>
+      </c>
+      <c r="AI78">
+        <v>2.1</v>
+      </c>
+      <c r="AJ78">
+        <v>1.67</v>
+      </c>
+      <c r="AK78">
+        <v>2.16</v>
+      </c>
+      <c r="AL78">
+        <v>1.24</v>
+      </c>
+      <c r="AM78">
+        <v>1.13</v>
+      </c>
+      <c r="AN78">
+        <v>1.2</v>
+      </c>
+      <c r="AO78">
+        <v>1.5</v>
+      </c>
+      <c r="AP78">
+        <v>1</v>
+      </c>
+      <c r="AQ78">
+        <v>1.8</v>
+      </c>
+      <c r="AR78">
+        <v>1.11</v>
+      </c>
+      <c r="AS78">
+        <v>1.27</v>
+      </c>
+      <c r="AT78">
+        <v>2.38</v>
+      </c>
+      <c r="AU78">
+        <v>3</v>
+      </c>
+      <c r="AV78">
+        <v>8</v>
+      </c>
+      <c r="AW78">
+        <v>0</v>
+      </c>
+      <c r="AX78">
+        <v>5</v>
+      </c>
+      <c r="AY78">
+        <v>3</v>
+      </c>
+      <c r="AZ78">
+        <v>13</v>
+      </c>
+      <c r="BA78">
+        <v>5</v>
+      </c>
+      <c r="BB78">
+        <v>3</v>
+      </c>
+      <c r="BC78">
+        <v>8</v>
+      </c>
+      <c r="BD78">
+        <v>2.88</v>
+      </c>
+      <c r="BE78">
+        <v>8.5</v>
+      </c>
+      <c r="BF78">
+        <v>1.53</v>
+      </c>
+      <c r="BG78">
+        <v>1.29</v>
+      </c>
+      <c r="BH78">
+        <v>3.3</v>
+      </c>
+      <c r="BI78">
+        <v>1.45</v>
+      </c>
+      <c r="BJ78">
+        <v>2.55</v>
+      </c>
+      <c r="BK78">
+        <v>1.8</v>
+      </c>
+      <c r="BL78">
+        <v>1.9</v>
+      </c>
+      <c r="BM78">
+        <v>2.32</v>
+      </c>
+      <c r="BN78">
+        <v>1.54</v>
+      </c>
+      <c r="BO78">
+        <v>3.1</v>
+      </c>
+      <c r="BP78">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7343724</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45410.85416666666</v>
+      </c>
+      <c r="F79">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s">
+        <v>82</v>
+      </c>
+      <c r="H79" t="s">
+        <v>78</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>2</v>
+      </c>
+      <c r="M79">
+        <v>2</v>
+      </c>
+      <c r="N79">
+        <v>4</v>
+      </c>
+      <c r="O79" t="s">
+        <v>144</v>
+      </c>
+      <c r="P79" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q79">
+        <v>2.25</v>
+      </c>
+      <c r="R79">
+        <v>2.1</v>
+      </c>
+      <c r="S79">
+        <v>6</v>
+      </c>
+      <c r="T79">
+        <v>1.44</v>
+      </c>
+      <c r="U79">
+        <v>2.63</v>
+      </c>
+      <c r="V79">
+        <v>3.25</v>
+      </c>
+      <c r="W79">
+        <v>1.33</v>
+      </c>
+      <c r="X79">
+        <v>10</v>
+      </c>
+      <c r="Y79">
+        <v>1.06</v>
+      </c>
+      <c r="Z79">
+        <v>1.6</v>
+      </c>
+      <c r="AA79">
+        <v>3.5</v>
+      </c>
+      <c r="AB79">
+        <v>4.8</v>
+      </c>
+      <c r="AC79">
+        <v>1.02</v>
+      </c>
+      <c r="AD79">
+        <v>8.5</v>
+      </c>
+      <c r="AE79">
+        <v>1.31</v>
+      </c>
+      <c r="AF79">
+        <v>3.04</v>
+      </c>
+      <c r="AG79">
+        <v>2.1</v>
+      </c>
+      <c r="AH79">
+        <v>1.65</v>
+      </c>
+      <c r="AI79">
+        <v>2.2</v>
+      </c>
+      <c r="AJ79">
+        <v>1.62</v>
+      </c>
+      <c r="AK79">
+        <v>1.12</v>
+      </c>
+      <c r="AL79">
+        <v>1.23</v>
+      </c>
+      <c r="AM79">
+        <v>2.2</v>
+      </c>
+      <c r="AN79">
+        <v>2.5</v>
+      </c>
+      <c r="AO79">
+        <v>1.4</v>
+      </c>
+      <c r="AP79">
+        <v>2.2</v>
+      </c>
+      <c r="AQ79">
+        <v>1.33</v>
+      </c>
+      <c r="AR79">
+        <v>1.42</v>
+      </c>
+      <c r="AS79">
+        <v>1.07</v>
+      </c>
+      <c r="AT79">
+        <v>2.49</v>
+      </c>
+      <c r="AU79">
+        <v>5</v>
+      </c>
+      <c r="AV79">
+        <v>5</v>
+      </c>
+      <c r="AW79">
+        <v>3</v>
+      </c>
+      <c r="AX79">
+        <v>4</v>
+      </c>
+      <c r="AY79">
+        <v>8</v>
+      </c>
+      <c r="AZ79">
+        <v>9</v>
+      </c>
+      <c r="BA79">
+        <v>4</v>
+      </c>
+      <c r="BB79">
+        <v>3</v>
+      </c>
+      <c r="BC79">
+        <v>7</v>
+      </c>
+      <c r="BD79">
+        <v>1.3</v>
+      </c>
+      <c r="BE79">
+        <v>9.5</v>
+      </c>
+      <c r="BF79">
+        <v>4</v>
+      </c>
+      <c r="BG79">
+        <v>1.3</v>
+      </c>
+      <c r="BH79">
+        <v>3.2</v>
+      </c>
+      <c r="BI79">
+        <v>1.5</v>
+      </c>
+      <c r="BJ79">
+        <v>2.4</v>
+      </c>
+      <c r="BK79">
+        <v>1.9</v>
+      </c>
+      <c r="BL79">
+        <v>1.8</v>
+      </c>
+      <c r="BM79">
+        <v>2.47</v>
+      </c>
+      <c r="BN79">
+        <v>1.48</v>
+      </c>
+      <c r="BO79">
+        <v>3.2</v>
+      </c>
+      <c r="BP79">
         <v>1.3</v>
       </c>
     </row>
